--- a/measurement_data/Excel_Auswertung.xlsx
+++ b/measurement_data/Excel_Auswertung.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2132" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2092" uniqueCount="19">
   <si>
     <t>INP_React</t>
   </si>
@@ -126,7 +126,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="4" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -134,11 +134,10 @@
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="4" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6706,114 +6705,114 @@
       </c>
     </row>
     <row r="101" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A101" s="7" t="s">
-        <v>3</v>
+      <c r="A101" s="1">
+        <v>19.438</v>
       </c>
       <c r="B101" s="2">
         <v>19.014</v>
       </c>
-      <c r="C101" s="8" t="s">
-        <v>3</v>
+      <c r="C101" s="3">
+        <v>19.781</v>
       </c>
       <c r="D101" t="s">
         <v>3</v>
       </c>
-      <c r="E101" s="7" t="s">
-        <v>3</v>
+      <c r="E101" s="4">
+        <v>0</v>
       </c>
       <c r="F101" s="5">
         <v>0</v>
       </c>
-      <c r="G101" s="8" t="s">
-        <v>3</v>
+      <c r="G101" s="6">
+        <v>0</v>
       </c>
       <c r="H101" t="s">
         <v>3</v>
       </c>
-      <c r="I101" s="7" t="s">
-        <v>3</v>
+      <c r="I101" s="4">
+        <v>0</v>
       </c>
       <c r="J101" s="5">
         <v>0</v>
       </c>
-      <c r="K101" s="8" t="s">
-        <v>3</v>
+      <c r="K101" s="6">
+        <v>0</v>
       </c>
       <c r="L101" t="s">
         <v>3</v>
       </c>
-      <c r="M101" s="7" t="s">
-        <v>3</v>
+      <c r="M101" s="4">
+        <v>1013</v>
       </c>
       <c r="N101" s="5">
         <v>880</v>
       </c>
-      <c r="O101" s="8" t="s">
-        <v>3</v>
+      <c r="O101" s="6">
+        <v>1083</v>
       </c>
       <c r="P101" t="s">
         <v>3</v>
       </c>
-      <c r="Q101" s="7" t="s">
-        <v>3</v>
+      <c r="Q101" s="4">
+        <v>43738806</v>
       </c>
       <c r="R101" s="5">
         <v>32334355</v>
       </c>
-      <c r="S101" s="8" t="s">
-        <v>3</v>
+      <c r="S101" s="6">
+        <v>55676391</v>
       </c>
       <c r="T101" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="103" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A103" s="9">
+      <c r="A103" s="7">
         <f>AVERAGE(A2:A101)</f>
       </c>
-      <c r="B103" s="9">
+      <c r="B103" s="7">
         <f>AVERAGE(B2:B101)</f>
       </c>
-      <c r="C103" s="9">
+      <c r="C103" s="7">
         <f>AVERAGE(C2:C101)</f>
       </c>
-      <c r="E103" s="9">
+      <c r="E103" s="7">
         <f>AVERAGE(E2:E101)</f>
       </c>
-      <c r="F103" s="9">
+      <c r="F103" s="7">
         <f>AVERAGE(F2:F101)</f>
       </c>
-      <c r="G103" s="9">
+      <c r="G103" s="7">
         <f>AVERAGE(G2:G101)</f>
       </c>
-      <c r="I103" s="9">
+      <c r="I103" s="7">
         <f>AVERAGE(I2:I101)</f>
       </c>
-      <c r="J103" s="9">
+      <c r="J103" s="7">
         <f>AVERAGE(J2:J101)</f>
       </c>
-      <c r="K103" s="9">
+      <c r="K103" s="7">
         <f>AVERAGE(K2:K101)</f>
       </c>
-      <c r="M103" s="9">
+      <c r="M103" s="7">
         <f>AVERAGE(M2:M101)</f>
       </c>
-      <c r="N103" s="9">
+      <c r="N103" s="7">
         <f>AVERAGE(N2:N101)</f>
       </c>
-      <c r="O103" s="9">
+      <c r="O103" s="7">
         <f>AVERAGE(O2:O101)</f>
       </c>
-      <c r="Q103" s="9">
+      <c r="Q103" s="7">
         <f>AVERAGE(Q2:Q101)</f>
       </c>
-      <c r="R103" s="9">
+      <c r="R103" s="7">
         <f>AVERAGE(R2:R101)</f>
       </c>
-      <c r="S103" s="9">
+      <c r="S103" s="7">
         <f>AVERAGE(S2:S101)</f>
       </c>
-      <c r="U103" s="10" t="s">
+      <c r="U103" s="8" t="s">
         <v>16</v>
       </c>
     </row>
@@ -6863,7 +6862,7 @@
       <c r="S104" s="2">
         <f>MAX(S2:S101)</f>
       </c>
-      <c r="U104" s="11" t="s">
+      <c r="U104" s="9" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6913,7 +6912,7 @@
       <c r="S105" s="3">
         <f>MIN(S2:S101)</f>
       </c>
-      <c r="U105" s="8" t="s">
+      <c r="U105" s="10" t="s">
         <v>18</v>
       </c>
     </row>
@@ -13153,114 +13152,114 @@
       </c>
     </row>
     <row r="101" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A101" s="7" t="s">
-        <v>3</v>
+      <c r="A101" s="1">
+        <v>20.339</v>
       </c>
       <c r="B101" s="2">
         <v>18.913</v>
       </c>
-      <c r="C101" s="8" t="s">
-        <v>3</v>
+      <c r="C101" s="3">
+        <v>23.915</v>
       </c>
       <c r="D101" t="s">
         <v>3</v>
       </c>
-      <c r="E101" s="7" t="s">
-        <v>3</v>
+      <c r="E101" s="4">
+        <v>0</v>
       </c>
       <c r="F101" s="5">
         <v>0</v>
       </c>
-      <c r="G101" s="8" t="s">
-        <v>3</v>
+      <c r="G101" s="6">
+        <v>0</v>
       </c>
       <c r="H101" t="s">
         <v>3</v>
       </c>
-      <c r="I101" s="7" t="s">
-        <v>3</v>
+      <c r="I101" s="4">
+        <v>0</v>
       </c>
       <c r="J101" s="5">
         <v>0</v>
       </c>
-      <c r="K101" s="8" t="s">
-        <v>3</v>
+      <c r="K101" s="6">
+        <v>0</v>
       </c>
       <c r="L101" t="s">
         <v>3</v>
       </c>
-      <c r="M101" s="7" t="s">
-        <v>3</v>
+      <c r="M101" s="4">
+        <v>2293</v>
       </c>
       <c r="N101" s="5">
         <v>2139</v>
       </c>
-      <c r="O101" s="8" t="s">
-        <v>3</v>
+      <c r="O101" s="6">
+        <v>2364</v>
       </c>
       <c r="P101" t="s">
         <v>3</v>
       </c>
-      <c r="Q101" s="7" t="s">
-        <v>3</v>
+      <c r="Q101" s="4">
+        <v>41307830</v>
       </c>
       <c r="R101" s="5">
         <v>54005132</v>
       </c>
-      <c r="S101" s="8" t="s">
-        <v>3</v>
+      <c r="S101" s="6">
+        <v>42202386</v>
       </c>
       <c r="T101" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="103" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A103" s="9">
+      <c r="A103" s="7">
         <f>AVERAGE(A2:A101)</f>
       </c>
-      <c r="B103" s="9">
+      <c r="B103" s="7">
         <f>AVERAGE(B2:B101)</f>
       </c>
-      <c r="C103" s="9">
+      <c r="C103" s="7">
         <f>AVERAGE(C2:C101)</f>
       </c>
-      <c r="E103" s="9">
+      <c r="E103" s="7">
         <f>AVERAGE(E2:E101)</f>
       </c>
-      <c r="F103" s="9">
+      <c r="F103" s="7">
         <f>AVERAGE(F2:F101)</f>
       </c>
-      <c r="G103" s="9">
+      <c r="G103" s="7">
         <f>AVERAGE(G2:G101)</f>
       </c>
-      <c r="I103" s="9">
+      <c r="I103" s="7">
         <f>AVERAGE(I2:I101)</f>
       </c>
-      <c r="J103" s="9">
+      <c r="J103" s="7">
         <f>AVERAGE(J2:J101)</f>
       </c>
-      <c r="K103" s="9">
+      <c r="K103" s="7">
         <f>AVERAGE(K2:K101)</f>
       </c>
-      <c r="M103" s="9">
+      <c r="M103" s="7">
         <f>AVERAGE(M2:M101)</f>
       </c>
-      <c r="N103" s="9">
+      <c r="N103" s="7">
         <f>AVERAGE(N2:N101)</f>
       </c>
-      <c r="O103" s="9">
+      <c r="O103" s="7">
         <f>AVERAGE(O2:O101)</f>
       </c>
-      <c r="Q103" s="9">
+      <c r="Q103" s="7">
         <f>AVERAGE(Q2:Q101)</f>
       </c>
-      <c r="R103" s="9">
+      <c r="R103" s="7">
         <f>AVERAGE(R2:R101)</f>
       </c>
-      <c r="S103" s="9">
+      <c r="S103" s="7">
         <f>AVERAGE(S2:S101)</f>
       </c>
-      <c r="U103" s="10" t="s">
+      <c r="U103" s="8" t="s">
         <v>16</v>
       </c>
     </row>
@@ -13310,7 +13309,7 @@
       <c r="S104" s="2">
         <f>MAX(S2:S101)</f>
       </c>
-      <c r="U104" s="11" t="s">
+      <c r="U104" s="9" t="s">
         <v>17</v>
       </c>
     </row>
@@ -13360,7 +13359,7 @@
       <c r="S105" s="3">
         <f>MIN(S2:S101)</f>
       </c>
-      <c r="U105" s="8" t="s">
+      <c r="U105" s="10" t="s">
         <v>18</v>
       </c>
     </row>
@@ -19600,114 +19599,114 @@
       </c>
     </row>
     <row r="101" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A101" s="7" t="s">
-        <v>3</v>
+      <c r="A101" s="1">
+        <v>20.679</v>
       </c>
       <c r="B101" s="2">
         <v>17.302</v>
       </c>
-      <c r="C101" s="8" t="s">
-        <v>3</v>
+      <c r="C101" s="3">
+        <v>19.296</v>
       </c>
       <c r="D101" t="s">
         <v>3</v>
       </c>
-      <c r="E101" s="7" t="s">
-        <v>3</v>
+      <c r="E101" s="4">
+        <v>0</v>
       </c>
       <c r="F101" s="5">
         <v>0</v>
       </c>
-      <c r="G101" s="8" t="s">
-        <v>3</v>
+      <c r="G101" s="6">
+        <v>0</v>
       </c>
       <c r="H101" t="s">
         <v>3</v>
       </c>
-      <c r="I101" s="7" t="s">
-        <v>3</v>
+      <c r="I101" s="4">
+        <v>39.5</v>
       </c>
       <c r="J101" s="5">
         <v>127.5</v>
       </c>
-      <c r="K101" s="8" t="s">
-        <v>3</v>
+      <c r="K101" s="6">
+        <v>33</v>
       </c>
       <c r="L101" t="s">
         <v>3</v>
       </c>
-      <c r="M101" s="7" t="s">
-        <v>3</v>
+      <c r="M101" s="4">
+        <v>14613</v>
       </c>
       <c r="N101" s="5">
         <v>14480</v>
       </c>
-      <c r="O101" s="8" t="s">
-        <v>3</v>
+      <c r="O101" s="6">
+        <v>14683</v>
       </c>
       <c r="P101" t="s">
         <v>3</v>
       </c>
-      <c r="Q101" s="7" t="s">
-        <v>3</v>
+      <c r="Q101" s="4">
+        <v>53379168</v>
       </c>
       <c r="R101" s="5">
         <v>114537548</v>
       </c>
-      <c r="S101" s="8" t="s">
-        <v>3</v>
+      <c r="S101" s="6">
+        <v>69952631</v>
       </c>
       <c r="T101" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="103" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A103" s="9">
+      <c r="A103" s="7">
         <f>AVERAGE(A2:A101)</f>
       </c>
-      <c r="B103" s="9">
+      <c r="B103" s="7">
         <f>AVERAGE(B2:B101)</f>
       </c>
-      <c r="C103" s="9">
+      <c r="C103" s="7">
         <f>AVERAGE(C2:C101)</f>
       </c>
-      <c r="E103" s="9">
+      <c r="E103" s="7">
         <f>AVERAGE(E2:E101)</f>
       </c>
-      <c r="F103" s="9">
+      <c r="F103" s="7">
         <f>AVERAGE(F2:F101)</f>
       </c>
-      <c r="G103" s="9">
+      <c r="G103" s="7">
         <f>AVERAGE(G2:G101)</f>
       </c>
-      <c r="I103" s="9">
+      <c r="I103" s="7">
         <f>AVERAGE(I2:I101)</f>
       </c>
-      <c r="J103" s="9">
+      <c r="J103" s="7">
         <f>AVERAGE(J2:J101)</f>
       </c>
-      <c r="K103" s="9">
+      <c r="K103" s="7">
         <f>AVERAGE(K2:K101)</f>
       </c>
-      <c r="M103" s="9">
+      <c r="M103" s="7">
         <f>AVERAGE(M2:M101)</f>
       </c>
-      <c r="N103" s="9">
+      <c r="N103" s="7">
         <f>AVERAGE(N2:N101)</f>
       </c>
-      <c r="O103" s="9">
+      <c r="O103" s="7">
         <f>AVERAGE(O2:O101)</f>
       </c>
-      <c r="Q103" s="9">
+      <c r="Q103" s="7">
         <f>AVERAGE(Q2:Q101)</f>
       </c>
-      <c r="R103" s="9">
+      <c r="R103" s="7">
         <f>AVERAGE(R2:R101)</f>
       </c>
-      <c r="S103" s="9">
+      <c r="S103" s="7">
         <f>AVERAGE(S2:S101)</f>
       </c>
-      <c r="U103" s="10" t="s">
+      <c r="U103" s="8" t="s">
         <v>16</v>
       </c>
     </row>
@@ -19757,7 +19756,7 @@
       <c r="S104" s="2">
         <f>MAX(S2:S101)</f>
       </c>
-      <c r="U104" s="11" t="s">
+      <c r="U104" s="9" t="s">
         <v>17</v>
       </c>
     </row>
@@ -19807,7 +19806,7 @@
       <c r="S105" s="3">
         <f>MIN(S2:S101)</f>
       </c>
-      <c r="U105" s="8" t="s">
+      <c r="U105" s="10" t="s">
         <v>18</v>
       </c>
     </row>
@@ -26047,114 +26046,114 @@
       </c>
     </row>
     <row r="101" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A101" s="7" t="s">
-        <v>3</v>
+      <c r="A101" s="1">
+        <v>19.589</v>
       </c>
       <c r="B101" s="2">
         <v>18.874</v>
       </c>
-      <c r="C101" s="8" t="s">
-        <v>3</v>
+      <c r="C101" s="3">
+        <v>17.747</v>
       </c>
       <c r="D101" t="s">
         <v>3</v>
       </c>
-      <c r="E101" s="7" t="s">
-        <v>3</v>
+      <c r="E101" s="4">
+        <v>0</v>
       </c>
       <c r="F101" s="5">
         <v>0</v>
       </c>
-      <c r="G101" s="8" t="s">
-        <v>3</v>
+      <c r="G101" s="6">
+        <v>0</v>
       </c>
       <c r="H101" t="s">
         <v>3</v>
       </c>
-      <c r="I101" s="7" t="s">
-        <v>3</v>
+      <c r="I101" s="4">
+        <v>277.5</v>
       </c>
       <c r="J101" s="5">
         <v>2045</v>
       </c>
-      <c r="K101" s="8" t="s">
-        <v>3</v>
+      <c r="K101" s="6">
+        <v>208.5</v>
       </c>
       <c r="L101" t="s">
         <v>3</v>
       </c>
-      <c r="M101" s="7" t="s">
-        <v>3</v>
+      <c r="M101" s="4">
+        <v>138573</v>
       </c>
       <c r="N101" s="5">
         <v>138438</v>
       </c>
-      <c r="O101" s="8" t="s">
-        <v>3</v>
+      <c r="O101" s="6">
+        <v>138644</v>
       </c>
       <c r="P101" t="s">
         <v>3</v>
       </c>
-      <c r="Q101" s="7" t="s">
-        <v>3</v>
+      <c r="Q101" s="4">
+        <v>201808527</v>
       </c>
       <c r="R101" s="5">
         <v>831684137</v>
       </c>
-      <c r="S101" s="8" t="s">
-        <v>3</v>
+      <c r="S101" s="6">
+        <v>577077583</v>
       </c>
       <c r="T101" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="103" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A103" s="9">
+      <c r="A103" s="7">
         <f>AVERAGE(A2:A101)</f>
       </c>
-      <c r="B103" s="9">
+      <c r="B103" s="7">
         <f>AVERAGE(B2:B101)</f>
       </c>
-      <c r="C103" s="9">
+      <c r="C103" s="7">
         <f>AVERAGE(C2:C101)</f>
       </c>
-      <c r="E103" s="9">
+      <c r="E103" s="7">
         <f>AVERAGE(E2:E101)</f>
       </c>
-      <c r="F103" s="9">
+      <c r="F103" s="7">
         <f>AVERAGE(F2:F101)</f>
       </c>
-      <c r="G103" s="9">
+      <c r="G103" s="7">
         <f>AVERAGE(G2:G101)</f>
       </c>
-      <c r="I103" s="9">
+      <c r="I103" s="7">
         <f>AVERAGE(I2:I101)</f>
       </c>
-      <c r="J103" s="9">
+      <c r="J103" s="7">
         <f>AVERAGE(J2:J101)</f>
       </c>
-      <c r="K103" s="9">
+      <c r="K103" s="7">
         <f>AVERAGE(K2:K101)</f>
       </c>
-      <c r="M103" s="9">
+      <c r="M103" s="7">
         <f>AVERAGE(M2:M101)</f>
       </c>
-      <c r="N103" s="9">
+      <c r="N103" s="7">
         <f>AVERAGE(N2:N101)</f>
       </c>
-      <c r="O103" s="9">
+      <c r="O103" s="7">
         <f>AVERAGE(O2:O101)</f>
       </c>
-      <c r="Q103" s="9">
+      <c r="Q103" s="7">
         <f>AVERAGE(Q2:Q101)</f>
       </c>
-      <c r="R103" s="9">
+      <c r="R103" s="7">
         <f>AVERAGE(R2:R101)</f>
       </c>
-      <c r="S103" s="9">
+      <c r="S103" s="7">
         <f>AVERAGE(S2:S101)</f>
       </c>
-      <c r="U103" s="10" t="s">
+      <c r="U103" s="8" t="s">
         <v>16</v>
       </c>
     </row>
@@ -26204,7 +26203,7 @@
       <c r="S104" s="2">
         <f>MAX(S2:S101)</f>
       </c>
-      <c r="U104" s="11" t="s">
+      <c r="U104" s="9" t="s">
         <v>17</v>
       </c>
     </row>
@@ -26254,7 +26253,7 @@
       <c r="S105" s="3">
         <f>MIN(S2:S101)</f>
       </c>
-      <c r="U105" s="8" t="s">
+      <c r="U105" s="10" t="s">
         <v>18</v>
       </c>
     </row>

--- a/measurement_data/Excel_Auswertung.xlsx
+++ b/measurement_data/Excel_Auswertung.xlsx
@@ -1,20 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{487C8073-BD56-49D4-8DA8-CA83676D6505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="1k" state="visible" r:id="rId4"/>
-    <sheet sheetId="2" name="10k" state="visible" r:id="rId5"/>
-    <sheet sheetId="3" name="100k" state="visible" r:id="rId6"/>
-    <sheet sheetId="4" name="1M" state="visible" r:id="rId7"/>
+    <sheet name="1k" sheetId="1" r:id="rId1"/>
+    <sheet name="10k" sheetId="2" r:id="rId2"/>
+    <sheet name="100k" sheetId="3" r:id="rId3"/>
+    <sheet name="1M" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2092" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2198" uniqueCount="53">
   <si>
     <t>INP_React</t>
   </si>
@@ -72,18 +87,120 @@
   <si>
     <t>Minimum</t>
   </si>
+  <si>
+    <t>Konfidenzintervall 95% (oben)</t>
+  </si>
+  <si>
+    <t>Konfidenzintervall 95% (unten)</t>
+  </si>
+  <si>
+    <t>Konfidenzintervall 99% (oben)</t>
+  </si>
+  <si>
+    <t>Konfidenzintervall 99% (unten)</t>
+  </si>
+  <si>
+    <t>=KONFIDENZ.NORM(0,05;STABW.S(A2:A101);ANZAHL(A2:A101))</t>
+  </si>
+  <si>
+    <t>=KONFIDENZ.NORM(0,05;STABW.S(B2:B101);ANZAHL(B2:B101))</t>
+  </si>
+  <si>
+    <t>=KONFIDENZ.NORM(0,05;STABW.S(C2:C101);ANZAHL(C2:C101))</t>
+  </si>
+  <si>
+    <t>=KONFIDENZ.NORM(0,05;STABW.S(E2:E101);ANZAHL(E2:E101))</t>
+  </si>
+  <si>
+    <t>=KONFIDENZ.NORM(0,05;STABW.S(F2:F101);ANZAHL(F2:F101))</t>
+  </si>
+  <si>
+    <t>=KONFIDENZ.NORM(0,05;STABW.S(G2:G101);ANZAHL(G2:G101))</t>
+  </si>
+  <si>
+    <t>=KONFIDENZ.NORM(0,05;STABW.S(I2:I101);ANZAHL(I2:I101))</t>
+  </si>
+  <si>
+    <t>=KONFIDENZ.NORM(0,05;STABW.S(J2:J101);ANZAHL(J2:J101))</t>
+  </si>
+  <si>
+    <t>=KONFIDENZ.NORM(0,05;STABW.S(K2:K101);ANZAHL(K2:K101))</t>
+  </si>
+  <si>
+    <t>=KONFIDENZ.NORM(0,05;STABW.S(M2:M101);ANZAHL(M2:M101))</t>
+  </si>
+  <si>
+    <t>=KONFIDENZ.NORM(0,05;STABW.S(N2:N101);ANZAHL(N2:N101))</t>
+  </si>
+  <si>
+    <t>=KONFIDENZ.NORM(0,05;STABW.S(O2:O101);ANZAHL(O2:O101))</t>
+  </si>
+  <si>
+    <t>=KONFIDENZ.NORM(0,05;STABW.S(Q2:Q101);ANZAHL(Q2:Q101))</t>
+  </si>
+  <si>
+    <t>=KONFIDENZ.NORM(0,05;STABW.S(R2:R101);ANZAHL(R2:R101))</t>
+  </si>
+  <si>
+    <t>=KONFIDENZ.NORM(0,05;STABW.S(S2:S101);ANZAHL(S2:S101))</t>
+  </si>
+  <si>
+    <t>=KONFIDENZ.NORM(0,01;STABW.S(A2:A101);ANZAHL(A2:A101))</t>
+  </si>
+  <si>
+    <t>=KONFIDENZ.NORM(0,01;STABW.S(B2:B101);ANZAHL(B2:B101))</t>
+  </si>
+  <si>
+    <t>=KONFIDENZ.NORM(0,01;STABW.S(C2:C101);ANZAHL(C2:C101))</t>
+  </si>
+  <si>
+    <t>=KONFIDENZ.NORM(0,01;STABW.S(E2:E101);ANZAHL(E2:E101))</t>
+  </si>
+  <si>
+    <t>=KONFIDENZ.NORM(0,01;STABW.S(F2:F101);ANZAHL(F2:F101))</t>
+  </si>
+  <si>
+    <t>=KONFIDENZ.NORM(0,01;STABW.S(G2:G101);ANZAHL(G2:G101))</t>
+  </si>
+  <si>
+    <t>=KONFIDENZ.NORM(0,01;STABW.S(I2:I101);ANZAHL(I2:I101))</t>
+  </si>
+  <si>
+    <t>=KONFIDENZ.NORM(0,01;STABW.S(J2:J101);ANZAHL(J2:J101))</t>
+  </si>
+  <si>
+    <t>=KONFIDENZ.NORM(0,01;STABW.S(K2:K101);ANZAHL(K2:K101))</t>
+  </si>
+  <si>
+    <t>=KONFIDENZ.NORM(0,01;STABW.S(M2:M101);ANZAHL(M2:M101))</t>
+  </si>
+  <si>
+    <t>=KONFIDENZ.NORM(0,01;STABW.S(N2:N101);ANZAHL(N2:N101))</t>
+  </si>
+  <si>
+    <t>=KONFIDENZ.NORM(0,01;STABW.S(O2:O101);ANZAHL(O2:O101))</t>
+  </si>
+  <si>
+    <t>=KONFIDENZ.NORM(0,01;STABW.S(Q2:Q101);ANZAHL(Q2:Q101))</t>
+  </si>
+  <si>
+    <t>=KONFIDENZ.NORM(0,01;STABW.S(R2:R101);ANZAHL(R2:R101))</t>
+  </si>
+  <si>
+    <t>=KONFIDENZ.NORM(0,01;STABW.S(S2:S101);ANZAHL(S2:S101))</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="6">
@@ -95,22 +212,22 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="CCCCFF"/>
+        <fgColor rgb="FFCCCCFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="CCFFCC"/>
+        <fgColor rgb="FFCCFFCC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCCCC"/>
+        <fgColor rgb="FFFFCCCC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC"/>
+        <fgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -126,7 +243,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="4" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -138,9 +255,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -476,15 +594,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U105"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:U114"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C113" sqref="C113"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
@@ -568,13 +686,13 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>20.981</v>
+        <v>20.981000000000002</v>
       </c>
       <c r="B2" s="2">
-        <v>17.508</v>
+        <v>17.507999999999999</v>
       </c>
       <c r="C2" s="3">
-        <v>16.996</v>
+        <v>16.995999999999999</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -604,7 +722,7 @@
         <v>3</v>
       </c>
       <c r="M2" s="4">
-        <v>885.133</v>
+        <v>885.13300000000004</v>
       </c>
       <c r="N2" s="5">
         <v>879</v>
@@ -630,10 +748,10 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>21.578</v>
+        <v>21.577999999999999</v>
       </c>
       <c r="B3" s="2">
-        <v>19.336</v>
+        <v>19.335999999999999</v>
       </c>
       <c r="C3" s="3">
         <v>21</v>
@@ -692,10 +810,10 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>19.547</v>
+        <v>19.547000000000001</v>
       </c>
       <c r="B4" s="2">
-        <v>19.425</v>
+        <v>19.425000000000001</v>
       </c>
       <c r="C4" s="3">
         <v>19.331</v>
@@ -754,10 +872,10 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>21.098</v>
+        <v>21.097999999999999</v>
       </c>
       <c r="B5" s="2">
-        <v>20.464</v>
+        <v>20.463999999999999</v>
       </c>
       <c r="C5" s="3">
         <v>18.843</v>
@@ -816,13 +934,13 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>20.022</v>
+        <v>20.021999999999998</v>
       </c>
       <c r="B6" s="2">
-        <v>20.289</v>
+        <v>20.289000000000001</v>
       </c>
       <c r="C6" s="3">
-        <v>18.464</v>
+        <v>18.463999999999999</v>
       </c>
       <c r="D6" t="s">
         <v>3</v>
@@ -878,13 +996,13 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>17.856</v>
+        <v>17.856000000000002</v>
       </c>
       <c r="B7" s="2">
         <v>18.712</v>
       </c>
       <c r="C7" s="3">
-        <v>18.925</v>
+        <v>18.925000000000001</v>
       </c>
       <c r="D7" t="s">
         <v>3</v>
@@ -943,7 +1061,7 @@
         <v>21.064</v>
       </c>
       <c r="B8" s="2">
-        <v>21.574</v>
+        <v>21.574000000000002</v>
       </c>
       <c r="C8" s="3">
         <v>17.555</v>
@@ -1002,13 +1120,13 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>16.272</v>
+        <v>16.271999999999998</v>
       </c>
       <c r="B9" s="2">
-        <v>21.062</v>
+        <v>21.062000000000001</v>
       </c>
       <c r="C9" s="3">
-        <v>19.098</v>
+        <v>19.097999999999999</v>
       </c>
       <c r="D9" t="s">
         <v>3</v>
@@ -1064,7 +1182,7 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>19.402</v>
+        <v>19.402000000000001</v>
       </c>
       <c r="B10" s="2">
         <v>19.131</v>
@@ -1129,10 +1247,10 @@
         <v>21.206</v>
       </c>
       <c r="B11" s="2">
-        <v>20.989</v>
+        <v>20.989000000000001</v>
       </c>
       <c r="C11" s="3">
-        <v>19.925</v>
+        <v>19.925000000000001</v>
       </c>
       <c r="D11" t="s">
         <v>3</v>
@@ -1188,7 +1306,7 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>19.185</v>
+        <v>19.184999999999999</v>
       </c>
       <c r="B12" s="2">
         <v>21.238</v>
@@ -1250,13 +1368,13 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>18.454</v>
+        <v>18.454000000000001</v>
       </c>
       <c r="B13" s="2">
         <v>21.544</v>
       </c>
       <c r="C13" s="3">
-        <v>16.4</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="D13" t="s">
         <v>3</v>
@@ -1315,10 +1433,10 @@
         <v>20.97</v>
       </c>
       <c r="B14" s="2">
-        <v>20.617</v>
+        <v>20.617000000000001</v>
       </c>
       <c r="C14" s="3">
-        <v>17.013</v>
+        <v>17.013000000000002</v>
       </c>
       <c r="D14" t="s">
         <v>3</v>
@@ -1377,10 +1495,10 @@
         <v>18.02</v>
       </c>
       <c r="B15" s="2">
-        <v>18.043</v>
+        <v>18.042999999999999</v>
       </c>
       <c r="C15" s="3">
-        <v>20.301</v>
+        <v>20.300999999999998</v>
       </c>
       <c r="D15" t="s">
         <v>3</v>
@@ -1436,13 +1554,13 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>17.428</v>
+        <v>17.428000000000001</v>
       </c>
       <c r="B16" s="2">
-        <v>18.575</v>
+        <v>18.574999999999999</v>
       </c>
       <c r="C16" s="3">
-        <v>18.687</v>
+        <v>18.687000000000001</v>
       </c>
       <c r="D16" t="s">
         <v>3</v>
@@ -1498,10 +1616,10 @@
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>20.243</v>
+        <v>20.242999999999999</v>
       </c>
       <c r="B17" s="2">
-        <v>20.466</v>
+        <v>20.466000000000001</v>
       </c>
       <c r="C17" s="3">
         <v>17.407</v>
@@ -1560,13 +1678,13 @@
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>16.993</v>
+        <v>16.992999999999999</v>
       </c>
       <c r="B18" s="2">
-        <v>19.207</v>
+        <v>19.207000000000001</v>
       </c>
       <c r="C18" s="3">
-        <v>18.944</v>
+        <v>18.943999999999999</v>
       </c>
       <c r="D18" t="s">
         <v>3</v>
@@ -1622,13 +1740,13 @@
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>21.496</v>
+        <v>21.495999999999999</v>
       </c>
       <c r="B19" s="2">
-        <v>18.265</v>
+        <v>18.265000000000001</v>
       </c>
       <c r="C19" s="3">
-        <v>17.403</v>
+        <v>17.402999999999999</v>
       </c>
       <c r="D19" t="s">
         <v>3</v>
@@ -1684,13 +1802,13 @@
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>21.197</v>
+        <v>21.196999999999999</v>
       </c>
       <c r="B20" s="2">
         <v>19.919</v>
       </c>
       <c r="C20" s="3">
-        <v>18.609</v>
+        <v>18.609000000000002</v>
       </c>
       <c r="D20" t="s">
         <v>3</v>
@@ -1746,7 +1864,7 @@
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>17.652</v>
+        <v>17.652000000000001</v>
       </c>
       <c r="B21" s="2">
         <v>19.669</v>
@@ -1808,13 +1926,13 @@
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>19.612</v>
+        <v>19.611999999999998</v>
       </c>
       <c r="B22" s="2">
         <v>18.058</v>
       </c>
       <c r="C22" s="3">
-        <v>19.26</v>
+        <v>19.260000000000002</v>
       </c>
       <c r="D22" t="s">
         <v>3</v>
@@ -1873,10 +1991,10 @@
         <v>20.03</v>
       </c>
       <c r="B23" s="2">
-        <v>15.681</v>
+        <v>15.680999999999999</v>
       </c>
       <c r="C23" s="3">
-        <v>18.466</v>
+        <v>18.466000000000001</v>
       </c>
       <c r="D23" t="s">
         <v>3</v>
@@ -1932,10 +2050,10 @@
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>18.571</v>
+        <v>18.571000000000002</v>
       </c>
       <c r="B24" s="2">
-        <v>13.867</v>
+        <v>13.867000000000001</v>
       </c>
       <c r="C24" s="3">
         <v>19.215</v>
@@ -1997,10 +2115,10 @@
         <v>14.8</v>
       </c>
       <c r="B25" s="2">
-        <v>17.812</v>
+        <v>17.812000000000001</v>
       </c>
       <c r="C25" s="3">
-        <v>20.185</v>
+        <v>20.184999999999999</v>
       </c>
       <c r="D25" t="s">
         <v>3</v>
@@ -2056,13 +2174,13 @@
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>20.268</v>
+        <v>20.268000000000001</v>
       </c>
       <c r="B26" s="2">
-        <v>21.153</v>
+        <v>21.152999999999999</v>
       </c>
       <c r="C26" s="3">
-        <v>18.519</v>
+        <v>18.518999999999998</v>
       </c>
       <c r="D26" t="s">
         <v>3</v>
@@ -2118,13 +2236,13 @@
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>16.829</v>
+        <v>16.829000000000001</v>
       </c>
       <c r="B27" s="2">
         <v>18.907</v>
       </c>
       <c r="C27" s="3">
-        <v>20.528</v>
+        <v>20.527999999999999</v>
       </c>
       <c r="D27" t="s">
         <v>3</v>
@@ -2157,7 +2275,7 @@
         <v>1013</v>
       </c>
       <c r="N27" s="5">
-        <v>769.9524999999999</v>
+        <v>769.95249999999987</v>
       </c>
       <c r="O27" s="6">
         <v>1085</v>
@@ -2180,7 +2298,7 @@
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>20.476</v>
+        <v>20.475999999999999</v>
       </c>
       <c r="B28" s="2">
         <v>19.637</v>
@@ -2242,13 +2360,13 @@
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>20.902</v>
+        <v>20.902000000000001</v>
       </c>
       <c r="B29" s="2">
-        <v>17.001</v>
+        <v>17.001000000000001</v>
       </c>
       <c r="C29" s="3">
-        <v>18.432</v>
+        <v>18.431999999999999</v>
       </c>
       <c r="D29" t="s">
         <v>3</v>
@@ -2310,7 +2428,7 @@
         <v>20.808</v>
       </c>
       <c r="C30" s="3">
-        <v>17.342</v>
+        <v>17.341999999999999</v>
       </c>
       <c r="D30" t="s">
         <v>3</v>
@@ -2366,10 +2484,10 @@
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>19.774</v>
+        <v>19.774000000000001</v>
       </c>
       <c r="B31" s="2">
-        <v>20.01</v>
+        <v>20.010000000000002</v>
       </c>
       <c r="C31" s="3">
         <v>18.16</v>
@@ -2434,7 +2552,7 @@
         <v>20.512</v>
       </c>
       <c r="C32" s="3">
-        <v>19.701</v>
+        <v>19.701000000000001</v>
       </c>
       <c r="D32" t="s">
         <v>3</v>
@@ -2490,13 +2608,13 @@
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>16.943</v>
+        <v>16.943000000000001</v>
       </c>
       <c r="B33" s="2">
-        <v>17.987</v>
+        <v>17.986999999999998</v>
       </c>
       <c r="C33" s="3">
-        <v>17.223</v>
+        <v>17.222999999999999</v>
       </c>
       <c r="D33" t="s">
         <v>3</v>
@@ -2555,10 +2673,10 @@
         <v>18.334</v>
       </c>
       <c r="B34" s="2">
-        <v>17.857</v>
+        <v>17.856999999999999</v>
       </c>
       <c r="C34" s="3">
-        <v>18.004</v>
+        <v>18.004000000000001</v>
       </c>
       <c r="D34" t="s">
         <v>3</v>
@@ -2591,7 +2709,7 @@
         <v>1013</v>
       </c>
       <c r="N34" s="5">
-        <v>769.1725000000001</v>
+        <v>769.17250000000013</v>
       </c>
       <c r="O34" s="6">
         <v>1085</v>
@@ -2620,7 +2738,7 @@
         <v>20.02</v>
       </c>
       <c r="C35" s="3">
-        <v>24.007</v>
+        <v>24.007000000000001</v>
       </c>
       <c r="D35" t="s">
         <v>3</v>
@@ -2679,10 +2797,10 @@
         <v>19.689</v>
       </c>
       <c r="B36" s="2">
-        <v>21.211</v>
+        <v>21.210999999999999</v>
       </c>
       <c r="C36" s="3">
-        <v>16.853</v>
+        <v>16.853000000000002</v>
       </c>
       <c r="D36" t="s">
         <v>3</v>
@@ -2715,7 +2833,7 @@
         <v>1013</v>
       </c>
       <c r="N36" s="5">
-        <v>771.9650000000001</v>
+        <v>771.96500000000015</v>
       </c>
       <c r="O36" s="6">
         <v>1084</v>
@@ -2738,13 +2856,13 @@
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>20.301</v>
+        <v>20.300999999999998</v>
       </c>
       <c r="B37" s="2">
-        <v>17.44</v>
+        <v>17.440000000000001</v>
       </c>
       <c r="C37" s="3">
-        <v>16.06</v>
+        <v>16.059999999999999</v>
       </c>
       <c r="D37" t="s">
         <v>3</v>
@@ -2800,13 +2918,13 @@
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>21.287</v>
+        <v>21.286999999999999</v>
       </c>
       <c r="B38" s="2">
         <v>14.228</v>
       </c>
       <c r="C38" s="3">
-        <v>21.502</v>
+        <v>21.501999999999999</v>
       </c>
       <c r="D38" t="s">
         <v>3</v>
@@ -2862,13 +2980,13 @@
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>17.729</v>
+        <v>17.728999999999999</v>
       </c>
       <c r="B39" s="2">
-        <v>18.924</v>
+        <v>18.923999999999999</v>
       </c>
       <c r="C39" s="3">
-        <v>20.187</v>
+        <v>20.187000000000001</v>
       </c>
       <c r="D39" t="s">
         <v>3</v>
@@ -2924,13 +3042,13 @@
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>19.185</v>
+        <v>19.184999999999999</v>
       </c>
       <c r="B40" s="2">
         <v>19.77</v>
       </c>
       <c r="C40" s="3">
-        <v>19.207</v>
+        <v>19.207000000000001</v>
       </c>
       <c r="D40" t="s">
         <v>3</v>
@@ -2963,7 +3081,7 @@
         <v>1013</v>
       </c>
       <c r="N40" s="5">
-        <v>771.0670000000001</v>
+        <v>771.06700000000012</v>
       </c>
       <c r="O40" s="6">
         <v>1084</v>
@@ -2986,10 +3104,10 @@
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>18.803</v>
+        <v>18.803000000000001</v>
       </c>
       <c r="B41" s="2">
-        <v>21.146</v>
+        <v>21.146000000000001</v>
       </c>
       <c r="C41" s="3">
         <v>20.206</v>
@@ -3048,13 +3166,13 @@
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>18.203</v>
+        <v>18.202999999999999</v>
       </c>
       <c r="B42" s="2">
-        <v>16.908</v>
+        <v>16.908000000000001</v>
       </c>
       <c r="C42" s="3">
-        <v>20.286</v>
+        <v>20.286000000000001</v>
       </c>
       <c r="D42" t="s">
         <v>3</v>
@@ -3087,7 +3205,7 @@
         <v>1013</v>
       </c>
       <c r="N42" s="5">
-        <v>769.0120000000001</v>
+        <v>769.01200000000006</v>
       </c>
       <c r="O42" s="6">
         <v>1084</v>
@@ -3110,13 +3228,13 @@
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>16.821</v>
+        <v>16.821000000000002</v>
       </c>
       <c r="B43" s="2">
-        <v>18.525</v>
+        <v>18.524999999999999</v>
       </c>
       <c r="C43" s="3">
-        <v>16.826</v>
+        <v>16.826000000000001</v>
       </c>
       <c r="D43" t="s">
         <v>3</v>
@@ -3172,13 +3290,13 @@
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>21.356</v>
+        <v>21.356000000000002</v>
       </c>
       <c r="B44" s="2">
-        <v>17.333</v>
+        <v>17.332999999999998</v>
       </c>
       <c r="C44" s="3">
-        <v>16.918</v>
+        <v>16.917999999999999</v>
       </c>
       <c r="D44" t="s">
         <v>3</v>
@@ -3234,13 +3352,13 @@
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>17.903</v>
+        <v>17.902999999999999</v>
       </c>
       <c r="B45" s="2">
         <v>18.331</v>
       </c>
       <c r="C45" s="3">
-        <v>20.611</v>
+        <v>20.611000000000001</v>
       </c>
       <c r="D45" t="s">
         <v>3</v>
@@ -3296,13 +3414,13 @@
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>17.848</v>
+        <v>17.847999999999999</v>
       </c>
       <c r="B46" s="2">
         <v>21.134</v>
       </c>
       <c r="C46" s="3">
-        <v>17.502</v>
+        <v>17.501999999999999</v>
       </c>
       <c r="D46" t="s">
         <v>3</v>
@@ -3358,10 +3476,10 @@
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>18.482</v>
+        <v>18.481999999999999</v>
       </c>
       <c r="B47" s="2">
-        <v>19.013</v>
+        <v>19.013000000000002</v>
       </c>
       <c r="C47" s="3">
         <v>17.837</v>
@@ -3423,10 +3541,10 @@
         <v>19.596</v>
       </c>
       <c r="B48" s="2">
-        <v>18.819</v>
+        <v>18.818999999999999</v>
       </c>
       <c r="C48" s="3">
-        <v>19.226</v>
+        <v>19.225999999999999</v>
       </c>
       <c r="D48" t="s">
         <v>3</v>
@@ -3482,13 +3600,13 @@
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>17.941</v>
+        <v>17.940999999999999</v>
       </c>
       <c r="B49" s="2">
-        <v>21.283</v>
+        <v>21.283000000000001</v>
       </c>
       <c r="C49" s="3">
-        <v>17.135</v>
+        <v>17.135000000000002</v>
       </c>
       <c r="D49" t="s">
         <v>3</v>
@@ -3521,7 +3639,7 @@
         <v>1013</v>
       </c>
       <c r="N49" s="5">
-        <v>770.065</v>
+        <v>770.06500000000005</v>
       </c>
       <c r="O49" s="6">
         <v>1083</v>
@@ -3544,10 +3662,10 @@
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>18.915</v>
+        <v>18.914999999999999</v>
       </c>
       <c r="B50" s="2">
-        <v>17.306</v>
+        <v>17.306000000000001</v>
       </c>
       <c r="C50" s="3">
         <v>21.2</v>
@@ -3606,7 +3724,7 @@
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>19.452</v>
+        <v>19.452000000000002</v>
       </c>
       <c r="B51" s="2">
         <v>19.04</v>
@@ -3668,13 +3786,13 @@
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>16.239</v>
+        <v>16.239000000000001</v>
       </c>
       <c r="B52" s="2">
-        <v>20.007</v>
+        <v>20.007000000000001</v>
       </c>
       <c r="C52" s="3">
-        <v>21.175</v>
+        <v>21.175000000000001</v>
       </c>
       <c r="D52" t="s">
         <v>3</v>
@@ -3730,10 +3848,10 @@
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>20.325</v>
+        <v>20.324999999999999</v>
       </c>
       <c r="B53" s="2">
-        <v>19.062</v>
+        <v>19.062000000000001</v>
       </c>
       <c r="C53" s="3">
         <v>17.666</v>
@@ -3795,10 +3913,10 @@
         <v>21.227</v>
       </c>
       <c r="B54" s="2">
-        <v>16.876</v>
+        <v>16.876000000000001</v>
       </c>
       <c r="C54" s="3">
-        <v>19.396</v>
+        <v>19.396000000000001</v>
       </c>
       <c r="D54" t="s">
         <v>3</v>
@@ -3854,13 +3972,13 @@
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>16.502</v>
+        <v>16.501999999999999</v>
       </c>
       <c r="B55" s="2">
-        <v>18.054</v>
+        <v>18.053999999999998</v>
       </c>
       <c r="C55" s="3">
-        <v>18.915</v>
+        <v>18.914999999999999</v>
       </c>
       <c r="D55" t="s">
         <v>3</v>
@@ -3916,13 +4034,13 @@
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>18.175</v>
+        <v>18.175000000000001</v>
       </c>
       <c r="B56" s="2">
         <v>19.026</v>
       </c>
       <c r="C56" s="3">
-        <v>18.726</v>
+        <v>18.725999999999999</v>
       </c>
       <c r="D56" t="s">
         <v>3</v>
@@ -3978,7 +4096,7 @@
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>19.251</v>
+        <v>19.251000000000001</v>
       </c>
       <c r="B57" s="2">
         <v>18.756</v>
@@ -4040,13 +4158,13 @@
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>19.075</v>
+        <v>19.074999999999999</v>
       </c>
       <c r="B58" s="2">
-        <v>19.457</v>
+        <v>19.457000000000001</v>
       </c>
       <c r="C58" s="3">
-        <v>20.019</v>
+        <v>20.018999999999998</v>
       </c>
       <c r="D58" t="s">
         <v>3</v>
@@ -4164,13 +4282,13 @@
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>17.746</v>
+        <v>17.745999999999999</v>
       </c>
       <c r="B60" s="2">
-        <v>21.213</v>
+        <v>21.213000000000001</v>
       </c>
       <c r="C60" s="3">
-        <v>20.963</v>
+        <v>20.963000000000001</v>
       </c>
       <c r="D60" t="s">
         <v>3</v>
@@ -4226,13 +4344,13 @@
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>18.126</v>
+        <v>18.126000000000001</v>
       </c>
       <c r="B61" s="2">
-        <v>21.174</v>
+        <v>21.173999999999999</v>
       </c>
       <c r="C61" s="3">
-        <v>17.135</v>
+        <v>17.135000000000002</v>
       </c>
       <c r="D61" t="s">
         <v>3</v>
@@ -4288,13 +4406,13 @@
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>18.008</v>
+        <v>18.007999999999999</v>
       </c>
       <c r="B62" s="2">
         <v>16.997</v>
       </c>
       <c r="C62" s="3">
-        <v>20.299</v>
+        <v>20.298999999999999</v>
       </c>
       <c r="D62" t="s">
         <v>3</v>
@@ -4356,7 +4474,7 @@
         <v>18.471</v>
       </c>
       <c r="C63" s="3">
-        <v>17.656</v>
+        <v>17.655999999999999</v>
       </c>
       <c r="D63" t="s">
         <v>3</v>
@@ -4412,10 +4530,10 @@
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>19.879</v>
+        <v>19.879000000000001</v>
       </c>
       <c r="B64" s="2">
-        <v>16.739</v>
+        <v>16.739000000000001</v>
       </c>
       <c r="C64" s="3">
         <v>19.212</v>
@@ -4451,7 +4569,7 @@
         <v>1013</v>
       </c>
       <c r="N64" s="5">
-        <v>769.5204999999999</v>
+        <v>769.52049999999986</v>
       </c>
       <c r="O64" s="6">
         <v>1083</v>
@@ -4474,13 +4592,13 @@
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>18.051</v>
+        <v>18.050999999999998</v>
       </c>
       <c r="B65" s="2">
-        <v>18.056</v>
+        <v>18.056000000000001</v>
       </c>
       <c r="C65" s="3">
-        <v>20.796</v>
+        <v>20.795999999999999</v>
       </c>
       <c r="D65" t="s">
         <v>3</v>
@@ -4536,13 +4654,13 @@
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>18.432</v>
+        <v>18.431999999999999</v>
       </c>
       <c r="B66" s="2">
         <v>17.311</v>
       </c>
       <c r="C66" s="3">
-        <v>19.303</v>
+        <v>19.303000000000001</v>
       </c>
       <c r="D66" t="s">
         <v>3</v>
@@ -4601,7 +4719,7 @@
         <v>20.14</v>
       </c>
       <c r="B67" s="2">
-        <v>17.787</v>
+        <v>17.786999999999999</v>
       </c>
       <c r="C67" s="3">
         <v>19.305</v>
@@ -4660,10 +4778,10 @@
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>16.807</v>
+        <v>16.806999999999999</v>
       </c>
       <c r="B68" s="2">
-        <v>20.42</v>
+        <v>20.420000000000002</v>
       </c>
       <c r="C68" s="3">
         <v>16.113</v>
@@ -4722,10 +4840,10 @@
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>18.806</v>
+        <v>18.806000000000001</v>
       </c>
       <c r="B69" s="2">
-        <v>19.647</v>
+        <v>19.646999999999998</v>
       </c>
       <c r="C69" s="3">
         <v>18.776</v>
@@ -4784,13 +4902,13 @@
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>20.982</v>
+        <v>20.981999999999999</v>
       </c>
       <c r="B70" s="2">
-        <v>20.1</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="C70" s="3">
-        <v>17.859</v>
+        <v>17.859000000000002</v>
       </c>
       <c r="D70" t="s">
         <v>3</v>
@@ -4846,13 +4964,13 @@
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>20.267</v>
+        <v>20.266999999999999</v>
       </c>
       <c r="B71" s="2">
         <v>15.404</v>
       </c>
       <c r="C71" s="3">
-        <v>19.357</v>
+        <v>19.356999999999999</v>
       </c>
       <c r="D71" t="s">
         <v>3</v>
@@ -4908,13 +5026,13 @@
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>21.142</v>
+        <v>21.141999999999999</v>
       </c>
       <c r="B72" s="2">
         <v>19.831</v>
       </c>
       <c r="C72" s="3">
-        <v>18.833</v>
+        <v>18.832999999999998</v>
       </c>
       <c r="D72" t="s">
         <v>3</v>
@@ -4970,13 +5088,13 @@
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>19.018</v>
+        <v>19.018000000000001</v>
       </c>
       <c r="B73" s="2">
         <v>20.994</v>
       </c>
       <c r="C73" s="3">
-        <v>18.268</v>
+        <v>18.268000000000001</v>
       </c>
       <c r="D73" t="s">
         <v>3</v>
@@ -5035,7 +5153,7 @@
         <v>20.03</v>
       </c>
       <c r="B74" s="2">
-        <v>20.575</v>
+        <v>20.574999999999999</v>
       </c>
       <c r="C74" s="3">
         <v>20.63</v>
@@ -5071,7 +5189,7 @@
         <v>1013</v>
       </c>
       <c r="N74" s="5">
-        <v>769.7019999999999</v>
+        <v>769.70199999999988</v>
       </c>
       <c r="O74" s="6">
         <v>1083</v>
@@ -5100,7 +5218,7 @@
         <v>21.43</v>
       </c>
       <c r="C75" s="3">
-        <v>18.957</v>
+        <v>18.957000000000001</v>
       </c>
       <c r="D75" t="s">
         <v>3</v>
@@ -5156,13 +5274,13 @@
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>17.76</v>
+        <v>17.760000000000002</v>
       </c>
       <c r="B76" s="2">
-        <v>19.733</v>
+        <v>19.733000000000001</v>
       </c>
       <c r="C76" s="3">
-        <v>20.312</v>
+        <v>20.312000000000001</v>
       </c>
       <c r="D76" t="s">
         <v>3</v>
@@ -5218,13 +5336,13 @@
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>19.517</v>
+        <v>19.516999999999999</v>
       </c>
       <c r="B77" s="2">
-        <v>19.076</v>
+        <v>19.076000000000001</v>
       </c>
       <c r="C77" s="3">
-        <v>19.742</v>
+        <v>19.742000000000001</v>
       </c>
       <c r="D77" t="s">
         <v>3</v>
@@ -5280,10 +5398,10 @@
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>18.807</v>
+        <v>18.806999999999999</v>
       </c>
       <c r="B78" s="2">
-        <v>18.925</v>
+        <v>18.925000000000001</v>
       </c>
       <c r="C78" s="3">
         <v>19.759</v>
@@ -5342,13 +5460,13 @@
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>19.179</v>
+        <v>19.178999999999998</v>
       </c>
       <c r="B79" s="2">
         <v>17.38</v>
       </c>
       <c r="C79" s="3">
-        <v>20.589</v>
+        <v>20.588999999999999</v>
       </c>
       <c r="D79" t="s">
         <v>3</v>
@@ -5404,13 +5522,13 @@
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>18.883</v>
+        <v>18.882999999999999</v>
       </c>
       <c r="B80" s="2">
         <v>17.869</v>
       </c>
       <c r="C80" s="3">
-        <v>19.888</v>
+        <v>19.888000000000002</v>
       </c>
       <c r="D80" t="s">
         <v>3</v>
@@ -5443,7 +5561,7 @@
         <v>1013</v>
       </c>
       <c r="N80" s="5">
-        <v>769.3389999999999</v>
+        <v>769.33899999999994</v>
       </c>
       <c r="O80" s="6">
         <v>1084</v>
@@ -5472,7 +5590,7 @@
         <v>18.413</v>
       </c>
       <c r="C81" s="3">
-        <v>20.496</v>
+        <v>20.495999999999999</v>
       </c>
       <c r="D81" t="s">
         <v>3</v>
@@ -5534,7 +5652,7 @@
         <v>15.557</v>
       </c>
       <c r="C82" s="3">
-        <v>18.376</v>
+        <v>18.376000000000001</v>
       </c>
       <c r="D82" t="s">
         <v>3</v>
@@ -5593,10 +5711,10 @@
         <v>19.948</v>
       </c>
       <c r="B83" s="2">
-        <v>18.771</v>
+        <v>18.771000000000001</v>
       </c>
       <c r="C83" s="3">
-        <v>17.671</v>
+        <v>17.670999999999999</v>
       </c>
       <c r="D83" t="s">
         <v>3</v>
@@ -5652,13 +5770,13 @@
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>20.329</v>
+        <v>20.329000000000001</v>
       </c>
       <c r="B84" s="2">
-        <v>16.576</v>
+        <v>16.576000000000001</v>
       </c>
       <c r="C84" s="3">
-        <v>18.796</v>
+        <v>18.795999999999999</v>
       </c>
       <c r="D84" t="s">
         <v>3</v>
@@ -5779,7 +5897,7 @@
         <v>21.13</v>
       </c>
       <c r="B86" s="2">
-        <v>18.367</v>
+        <v>18.367000000000001</v>
       </c>
       <c r="C86" s="3">
         <v>18.791</v>
@@ -5838,13 +5956,13 @@
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>19.925</v>
+        <v>19.925000000000001</v>
       </c>
       <c r="B87" s="2">
-        <v>17.643</v>
+        <v>17.643000000000001</v>
       </c>
       <c r="C87" s="3">
-        <v>18.623</v>
+        <v>18.623000000000001</v>
       </c>
       <c r="D87" t="s">
         <v>3</v>
@@ -5903,7 +6021,7 @@
         <v>21.33</v>
       </c>
       <c r="B88" s="2">
-        <v>20.896</v>
+        <v>20.896000000000001</v>
       </c>
       <c r="C88" s="3">
         <v>17.87</v>
@@ -5965,7 +6083,7 @@
         <v>19.881</v>
       </c>
       <c r="B89" s="2">
-        <v>20.315</v>
+        <v>20.315000000000001</v>
       </c>
       <c r="C89" s="3">
         <v>19.634</v>
@@ -6024,13 +6142,13 @@
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>21.062</v>
+        <v>21.062000000000001</v>
       </c>
       <c r="B90" s="2">
         <v>18.052</v>
       </c>
       <c r="C90" s="3">
-        <v>18.014</v>
+        <v>18.013999999999999</v>
       </c>
       <c r="D90" t="s">
         <v>3</v>
@@ -6089,10 +6207,10 @@
         <v>19.25</v>
       </c>
       <c r="B91" s="2">
-        <v>18.315</v>
+        <v>18.315000000000001</v>
       </c>
       <c r="C91" s="3">
-        <v>19.065</v>
+        <v>19.065000000000001</v>
       </c>
       <c r="D91" t="s">
         <v>3</v>
@@ -6148,7 +6266,7 @@
     </row>
     <row r="92" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>21.292</v>
+        <v>21.292000000000002</v>
       </c>
       <c r="B92" s="2">
         <v>19.186</v>
@@ -6213,10 +6331,10 @@
         <v>18.145</v>
       </c>
       <c r="B93" s="2">
-        <v>21.519</v>
+        <v>21.518999999999998</v>
       </c>
       <c r="C93" s="3">
-        <v>17.746</v>
+        <v>17.745999999999999</v>
       </c>
       <c r="D93" t="s">
         <v>3</v>
@@ -6272,13 +6390,13 @@
     </row>
     <row r="94" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <v>18.726</v>
+        <v>18.725999999999999</v>
       </c>
       <c r="B94" s="2">
         <v>19.105</v>
       </c>
       <c r="C94" s="3">
-        <v>16.821</v>
+        <v>16.821000000000002</v>
       </c>
       <c r="D94" t="s">
         <v>3</v>
@@ -6334,10 +6452,10 @@
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <v>17.362</v>
+        <v>17.361999999999998</v>
       </c>
       <c r="B95" s="2">
-        <v>18.24</v>
+        <v>18.239999999999998</v>
       </c>
       <c r="C95" s="3">
         <v>19.238</v>
@@ -6396,7 +6514,7 @@
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>19.251</v>
+        <v>19.251000000000001</v>
       </c>
       <c r="B96" s="2">
         <v>18.026</v>
@@ -6456,15 +6574,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>17.938</v>
+        <v>17.937999999999999</v>
       </c>
       <c r="B97" s="2">
         <v>21.349</v>
       </c>
       <c r="C97" s="3">
-        <v>18.841</v>
+        <v>18.841000000000001</v>
       </c>
       <c r="D97" t="s">
         <v>3</v>
@@ -6518,7 +6636,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>18.314</v>
       </c>
@@ -6526,7 +6644,7 @@
         <v>21.084</v>
       </c>
       <c r="C98" s="3">
-        <v>20.883</v>
+        <v>20.882999999999999</v>
       </c>
       <c r="D98" t="s">
         <v>3</v>
@@ -6580,15 +6698,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>17.758</v>
+        <v>17.757999999999999</v>
       </c>
       <c r="B99" s="2">
         <v>21.061</v>
       </c>
       <c r="C99" s="3">
-        <v>18.028</v>
+        <v>18.027999999999999</v>
       </c>
       <c r="D99" t="s">
         <v>3</v>
@@ -6642,15 +6760,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>20.541</v>
       </c>
       <c r="B100" s="2">
-        <v>17.429</v>
+        <v>17.428999999999998</v>
       </c>
       <c r="C100" s="3">
-        <v>20.382</v>
+        <v>20.382000000000001</v>
       </c>
       <c r="D100" t="s">
         <v>3</v>
@@ -6704,15 +6822,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>19.438</v>
+        <v>19.437999999999999</v>
       </c>
       <c r="B101" s="2">
-        <v>19.014</v>
+        <v>19.013999999999999</v>
       </c>
       <c r="C101" s="3">
-        <v>19.781</v>
+        <v>19.780999999999999</v>
       </c>
       <c r="D101" t="s">
         <v>3</v>
@@ -6769,48 +6887,63 @@
     <row r="103" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A103" s="7">
         <f>AVERAGE(A2:A101)</f>
+        <v>19.096320000000006</v>
       </c>
       <c r="B103" s="7">
         <f>AVERAGE(B2:B101)</f>
+        <v>19.012349999999998</v>
       </c>
       <c r="C103" s="7">
         <f>AVERAGE(C2:C101)</f>
+        <v>18.997199999999999</v>
       </c>
       <c r="E103" s="7">
         <f>AVERAGE(E2:E101)</f>
+        <v>0</v>
       </c>
       <c r="F103" s="7">
         <f>AVERAGE(F2:F101)</f>
+        <v>0</v>
       </c>
       <c r="G103" s="7">
         <f>AVERAGE(G2:G101)</f>
+        <v>0</v>
       </c>
       <c r="I103" s="7">
         <f>AVERAGE(I2:I101)</f>
+        <v>0</v>
       </c>
       <c r="J103" s="7">
         <f>AVERAGE(J2:J101)</f>
+        <v>0</v>
       </c>
       <c r="K103" s="7">
         <f>AVERAGE(K2:K101)</f>
+        <v>0</v>
       </c>
       <c r="M103" s="7">
         <f>AVERAGE(M2:M101)</f>
+        <v>1011.70133</v>
       </c>
       <c r="N103" s="7">
         <f>AVERAGE(N2:N101)</f>
+        <v>867.50525500000015</v>
       </c>
       <c r="O103" s="7">
         <f>AVERAGE(O2:O101)</f>
+        <v>1083.6400000000001</v>
       </c>
       <c r="Q103" s="7">
         <f>AVERAGE(Q2:Q101)</f>
+        <v>36131232.299999997</v>
       </c>
       <c r="R103" s="7">
         <f>AVERAGE(R2:R101)</f>
+        <v>34149934.369999997</v>
       </c>
       <c r="S103" s="7">
         <f>AVERAGE(S2:S101)</f>
+        <v>35435320.409999996</v>
       </c>
       <c r="U103" s="8" t="s">
         <v>16</v>
@@ -6819,48 +6952,63 @@
     <row r="104" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <f>MAX(A2:A101)</f>
+        <v>21.577999999999999</v>
       </c>
       <c r="B104" s="2">
         <f>MAX(B2:B101)</f>
+        <v>21.574000000000002</v>
       </c>
       <c r="C104" s="2">
         <f>MAX(C2:C101)</f>
+        <v>24.007000000000001</v>
       </c>
       <c r="E104" s="2">
         <f>MAX(E2:E101)</f>
+        <v>0</v>
       </c>
       <c r="F104" s="2">
         <f>MAX(F2:F101)</f>
+        <v>0</v>
       </c>
       <c r="G104" s="2">
         <f>MAX(G2:G101)</f>
+        <v>0</v>
       </c>
       <c r="I104" s="2">
         <f>MAX(I2:I101)</f>
+        <v>0</v>
       </c>
       <c r="J104" s="2">
         <f>MAX(J2:J101)</f>
+        <v>0</v>
       </c>
       <c r="K104" s="2">
         <f>MAX(K2:K101)</f>
+        <v>0</v>
       </c>
       <c r="M104" s="2">
         <f>MAX(M2:M101)</f>
+        <v>1014</v>
       </c>
       <c r="N104" s="2">
         <f>MAX(N2:N101)</f>
+        <v>882</v>
       </c>
       <c r="O104" s="2">
         <f>MAX(O2:O101)</f>
+        <v>1103</v>
       </c>
       <c r="Q104" s="2">
         <f>MAX(Q2:Q101)</f>
+        <v>51553788</v>
       </c>
       <c r="R104" s="2">
         <f>MAX(R2:R101)</f>
+        <v>53584667</v>
       </c>
       <c r="S104" s="2">
         <f>MAX(S2:S101)</f>
+        <v>55676391</v>
       </c>
       <c r="U104" s="9" t="s">
         <v>17</v>
@@ -6869,69 +7017,492 @@
     <row r="105" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
         <f>MIN(A2:A101)</f>
+        <v>14.8</v>
       </c>
       <c r="B105" s="3">
         <f>MIN(B2:B101)</f>
+        <v>13.867000000000001</v>
       </c>
       <c r="C105" s="3">
         <f>MIN(C2:C101)</f>
+        <v>16.059999999999999</v>
       </c>
       <c r="E105" s="3">
         <f>MIN(E2:E101)</f>
+        <v>0</v>
       </c>
       <c r="F105" s="3">
         <f>MIN(F2:F101)</f>
+        <v>0</v>
       </c>
       <c r="G105" s="3">
         <f>MIN(G2:G101)</f>
+        <v>0</v>
       </c>
       <c r="I105" s="3">
         <f>MIN(I2:I101)</f>
+        <v>0</v>
       </c>
       <c r="J105" s="3">
         <f>MIN(J2:J101)</f>
+        <v>0</v>
       </c>
       <c r="K105" s="3">
         <f>MIN(K2:K101)</f>
+        <v>0</v>
       </c>
       <c r="M105" s="3">
         <f>MIN(M2:M101)</f>
+        <v>885.13300000000004</v>
       </c>
       <c r="N105" s="3">
         <f>MIN(N2:N101)</f>
+        <v>769.01200000000006</v>
       </c>
       <c r="O105" s="3">
         <f>MIN(O2:O101)</f>
+        <v>1083</v>
       </c>
       <c r="Q105" s="3">
         <f>MIN(Q2:Q101)</f>
+        <v>17645841</v>
       </c>
       <c r="R105" s="3">
         <f>MIN(R2:R101)</f>
+        <v>15939471</v>
       </c>
       <c r="S105" s="3">
         <f>MIN(S2:S101)</f>
+        <v>19036460</v>
       </c>
       <c r="U105" s="10" t="s">
         <v>18</v>
       </c>
     </row>
+    <row r="107" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A107" s="11">
+        <f>AVERAGE(A2:A101) + 1.96 * SQRT(SUMPRODUCT((A2:A101-AVERAGE(A2:A101))^2) / (COUNTA(A2:A101) - 1)) / SQRT(COUNTA(A2:A101))</f>
+        <v>19.386800121974272</v>
+      </c>
+      <c r="B107" s="11">
+        <f>AVERAGE(B2:B101) + 1.96 * SQRT(SUMPRODUCT((B2:B101-AVERAGE(B2:B101))^2) / (COUNTA(B2:B101) - 1)) / SQRT(COUNTA(B2:B101))</f>
+        <v>19.338166453052505</v>
+      </c>
+      <c r="C107" s="11">
+        <f>AVERAGE(C2:C101) + 1.96 * SQRT(SUMPRODUCT((C2:C101-AVERAGE(C2:C101))^2) / (COUNTA(C2:C101) - 1)) / SQRT(COUNTA(C2:C101))</f>
+        <v>19.268028592817814</v>
+      </c>
+      <c r="E107" s="11">
+        <f>AVERAGE(E2:E101) + 1.96 * SQRT(SUMPRODUCT((E2:E101-AVERAGE(E2:E101))^2) / (COUNTA(E2:E101) - 1)) / SQRT(COUNTA(E2:E101))</f>
+        <v>0</v>
+      </c>
+      <c r="F107" s="11">
+        <f>AVERAGE(F2:F101) + 1.96 * SQRT(SUMPRODUCT((F2:F101-AVERAGE(F2:F101))^2) / (COUNTA(F2:F101) - 1)) / SQRT(COUNTA(F2:F101))</f>
+        <v>0</v>
+      </c>
+      <c r="G107" s="11">
+        <f>AVERAGE(G2:G101) + 1.96 * SQRT(SUMPRODUCT((G2:G101-AVERAGE(G2:G101))^2) / (COUNTA(G2:G101) - 1)) / SQRT(COUNTA(G2:G101))</f>
+        <v>0</v>
+      </c>
+      <c r="I107" s="11">
+        <f>AVERAGE(I2:I101) + 1.96 * SQRT(SUMPRODUCT((I2:I101-AVERAGE(I2:I101))^2) / (COUNTA(I2:I101) - 1)) / SQRT(COUNTA(I2:I101))</f>
+        <v>0</v>
+      </c>
+      <c r="J107" s="11">
+        <f>AVERAGE(J2:J101) + 1.96 * SQRT(SUMPRODUCT((J2:J101-AVERAGE(J2:J101))^2) / (COUNTA(J2:J101) - 1)) / SQRT(COUNTA(J2:J101))</f>
+        <v>0</v>
+      </c>
+      <c r="K107" s="11">
+        <f>AVERAGE(K2:K101) + 1.96 * SQRT(SUMPRODUCT((K2:K101-AVERAGE(K2:K101))^2) / (COUNTA(K2:K101) - 1)) / SQRT(COUNTA(K2:K101))</f>
+        <v>0</v>
+      </c>
+      <c r="M107" s="11">
+        <f>AVERAGE(M2:M101) + 1.96 * SQRT(SUMPRODUCT((M2:M101-AVERAGE(M2:M101))^2) / (COUNTA(M2:M101) - 1)) / SQRT(COUNTA(M2:M101))</f>
+        <v>1014.2075886406915</v>
+      </c>
+      <c r="N107" s="11">
+        <f>AVERAGE(N2:N101) + 1.96 * SQRT(SUMPRODUCT((N2:N101-AVERAGE(N2:N101))^2) / (COUNTA(N2:N101) - 1)) / SQRT(COUNTA(N2:N101))</f>
+        <v>874.25684685975568</v>
+      </c>
+      <c r="O107" s="11">
+        <f>AVERAGE(O2:O101) + 1.96 * SQRT(SUMPRODUCT((O2:O101-AVERAGE(O2:O101))^2) / (COUNTA(O2:O101) - 1)) / SQRT(COUNTA(O2:O101))</f>
+        <v>1084.0536923250413</v>
+      </c>
+      <c r="Q107" s="11">
+        <f>AVERAGE(Q2:Q101) + 1.96 * SQRT(SUMPRODUCT((Q2:Q101-AVERAGE(Q2:Q101))^2) / (COUNTA(Q2:Q101) - 1)) / SQRT(COUNTA(Q2:Q101))</f>
+        <v>37802921.125821367</v>
+      </c>
+      <c r="R107" s="11">
+        <f>AVERAGE(R2:R101) + 1.96 * SQRT(SUMPRODUCT((R2:R101-AVERAGE(R2:R101))^2) / (COUNTA(R2:R101) - 1)) / SQRT(COUNTA(R2:R101))</f>
+        <v>36049608.559049763</v>
+      </c>
+      <c r="S107" s="11">
+        <f>AVERAGE(S2:S101) + 1.96 * SQRT(SUMPRODUCT((S2:S101-AVERAGE(S2:S101))^2) / (COUNTA(S2:S101) - 1)) / SQRT(COUNTA(S2:S101))</f>
+        <v>37424242.938374974</v>
+      </c>
+      <c r="U107" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="108" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A108" s="11">
+        <f>AVERAGE(A2:A101) - 1.96 * SQRT(SUMPRODUCT((A2:A101-AVERAGE(A2:A101))^2) / (COUNTA(A2:A101) - 1)) / SQRT(COUNTA(A2:A101))</f>
+        <v>18.80583987802574</v>
+      </c>
+      <c r="B108" s="11">
+        <f>AVERAGE(B2:B101) - 1.96 * SQRT(SUMPRODUCT((B2:B101-AVERAGE(B2:B101))^2) / (COUNTA(B2:B101) - 1)) / SQRT(COUNTA(B2:B101))</f>
+        <v>18.686533546947491</v>
+      </c>
+      <c r="C108" s="11">
+        <f>AVERAGE(C2:C101) - 1.96 * SQRT(SUMPRODUCT((C2:C101-AVERAGE(C2:C101))^2) / (COUNTA(C2:C101) - 1)) / SQRT(COUNTA(C2:C101))</f>
+        <v>18.726371407182185</v>
+      </c>
+      <c r="E108" s="11">
+        <f>AVERAGE(E2:E101) - 1.96 * SQRT(SUMPRODUCT((E2:E101-AVERAGE(E2:E101))^2) / (COUNTA(E2:E101) - 1)) / SQRT(COUNTA(E2:E101))</f>
+        <v>0</v>
+      </c>
+      <c r="F108" s="11">
+        <f>AVERAGE(F2:F101) - 1.96 * SQRT(SUMPRODUCT((F2:F101-AVERAGE(F2:F101))^2) / (COUNTA(F2:F101) - 1)) / SQRT(COUNTA(F2:F101))</f>
+        <v>0</v>
+      </c>
+      <c r="G108" s="11">
+        <f>AVERAGE(G2:G101) - 1.96 * SQRT(SUMPRODUCT((G2:G101-AVERAGE(G2:G101))^2) / (COUNTA(G2:G101) - 1)) / SQRT(COUNTA(G2:G101))</f>
+        <v>0</v>
+      </c>
+      <c r="I108" s="11">
+        <f>AVERAGE(I2:I101) - 1.96 * SQRT(SUMPRODUCT((I2:I101-AVERAGE(I2:I101))^2) / (COUNTA(I2:I101) - 1)) / SQRT(COUNTA(I2:I101))</f>
+        <v>0</v>
+      </c>
+      <c r="J108" s="11">
+        <f>AVERAGE(J2:J101) - 1.96 * SQRT(SUMPRODUCT((J2:J101-AVERAGE(J2:J101))^2) / (COUNTA(J2:J101) - 1)) / SQRT(COUNTA(J2:J101))</f>
+        <v>0</v>
+      </c>
+      <c r="K108" s="11">
+        <f>AVERAGE(K2:K101) - 1.96 * SQRT(SUMPRODUCT((K2:K101-AVERAGE(K2:K101))^2) / (COUNTA(K2:K101) - 1)) / SQRT(COUNTA(K2:K101))</f>
+        <v>0</v>
+      </c>
+      <c r="M108" s="11">
+        <f>AVERAGE(M2:M101) - 1.96 * SQRT(SUMPRODUCT((M2:M101-AVERAGE(M2:M101))^2) / (COUNTA(M2:M101) - 1)) / SQRT(COUNTA(M2:M101))</f>
+        <v>1009.1950713593085</v>
+      </c>
+      <c r="N108" s="11">
+        <f>AVERAGE(N2:N101) - 1.96 * SQRT(SUMPRODUCT((N2:N101-AVERAGE(N2:N101))^2) / (COUNTA(N2:N101) - 1)) / SQRT(COUNTA(N2:N101))</f>
+        <v>860.75366314024461</v>
+      </c>
+      <c r="O108" s="11">
+        <f>AVERAGE(O2:O101) - 1.96 * SQRT(SUMPRODUCT((O2:O101-AVERAGE(O2:O101))^2) / (COUNTA(O2:O101) - 1)) / SQRT(COUNTA(O2:O101))</f>
+        <v>1083.2263076749589</v>
+      </c>
+      <c r="Q108" s="11">
+        <f>AVERAGE(Q2:Q101) - 1.96 * SQRT(SUMPRODUCT((Q2:Q101-AVERAGE(Q2:Q101))^2) / (COUNTA(Q2:Q101) - 1)) / SQRT(COUNTA(Q2:Q101))</f>
+        <v>34459543.474178627</v>
+      </c>
+      <c r="R108" s="11">
+        <f>AVERAGE(R2:R101) - 1.96 * SQRT(SUMPRODUCT((R2:R101-AVERAGE(R2:R101))^2) / (COUNTA(R2:R101) - 1)) / SQRT(COUNTA(R2:R101))</f>
+        <v>32250260.180950232</v>
+      </c>
+      <c r="S108" s="11">
+        <f>AVERAGE(S2:S101) - 1.96 * SQRT(SUMPRODUCT((S2:S101-AVERAGE(S2:S101))^2) / (COUNTA(S2:S101) - 1)) / SQRT(COUNTA(S2:S101))</f>
+        <v>33446397.881625015</v>
+      </c>
+      <c r="U108" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="110" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A110" s="11">
+        <f>AVERAGE(A2:A101) + 2.58 * SQRT(SUMPRODUCT((A2:A101-AVERAGE(A2:A101))^2) / (COUNTA(A2:A101) - 1)) / SQRT(COUNTA(A2:A101))</f>
+        <v>19.478686691170211</v>
+      </c>
+      <c r="B110" s="11">
+        <f>AVERAGE(B2:B101) + 2.58 * SQRT(SUMPRODUCT((B2:B101-AVERAGE(B2:B101))^2) / (COUNTA(B2:B101) - 1)) / SQRT(COUNTA(B2:B101))</f>
+        <v>19.441230841262993</v>
+      </c>
+      <c r="C110" s="11">
+        <f>AVERAGE(C2:C101) + 2.58 * SQRT(SUMPRODUCT((C2:C101-AVERAGE(C2:C101))^2) / (COUNTA(C2:C101) - 1)) / SQRT(COUNTA(C2:C101))</f>
+        <v>19.353698861974468</v>
+      </c>
+      <c r="E110" s="11">
+        <f>AVERAGE(E2:E101) + 2.58 * SQRT(SUMPRODUCT((E2:E101-AVERAGE(E2:E101))^2) / (COUNTA(E2:E101) - 1)) / SQRT(COUNTA(E2:E101))</f>
+        <v>0</v>
+      </c>
+      <c r="F110" s="11">
+        <f>AVERAGE(F2:F101) + 2.58 * SQRT(SUMPRODUCT((F2:F101-AVERAGE(F2:F101))^2) / (COUNTA(F2:F101) - 1)) / SQRT(COUNTA(F2:F101))</f>
+        <v>0</v>
+      </c>
+      <c r="G110" s="11">
+        <f>AVERAGE(G2:G101) + 2.58 * SQRT(SUMPRODUCT((G2:G101-AVERAGE(G2:G101))^2) / (COUNTA(G2:G101) - 1)) / SQRT(COUNTA(G2:G101))</f>
+        <v>0</v>
+      </c>
+      <c r="I110" s="11">
+        <f>AVERAGE(I2:I101) + 2.58 * SQRT(SUMPRODUCT((I2:I101-AVERAGE(I2:I101))^2) / (COUNTA(I2:I101) - 1)) / SQRT(COUNTA(I2:I101))</f>
+        <v>0</v>
+      </c>
+      <c r="J110" s="11">
+        <f>AVERAGE(J2:J101) + 2.58 * SQRT(SUMPRODUCT((J2:J101-AVERAGE(J2:J101))^2) / (COUNTA(J2:J101) - 1)) / SQRT(COUNTA(J2:J101))</f>
+        <v>0</v>
+      </c>
+      <c r="K110" s="11">
+        <f>AVERAGE(K2:K101) + 2.58 * SQRT(SUMPRODUCT((K2:K101-AVERAGE(K2:K101))^2) / (COUNTA(K2:K101) - 1)) / SQRT(COUNTA(K2:K101))</f>
+        <v>0</v>
+      </c>
+      <c r="M110" s="11">
+        <f>AVERAGE(M2:M101) + 2.58 * SQRT(SUMPRODUCT((M2:M101-AVERAGE(M2:M101))^2) / (COUNTA(M2:M101) - 1)) / SQRT(COUNTA(M2:M101))</f>
+        <v>1015.0003847413183</v>
+      </c>
+      <c r="N110" s="11">
+        <f>AVERAGE(N2:N101) + 2.58 * SQRT(SUMPRODUCT((N2:N101-AVERAGE(N2:N101))^2) / (COUNTA(N2:N101) - 1)) / SQRT(COUNTA(N2:N101))</f>
+        <v>876.39255448886195</v>
+      </c>
+      <c r="O110" s="11">
+        <f>AVERAGE(O2:O101) + 2.58 * SQRT(SUMPRODUCT((O2:O101-AVERAGE(O2:O101))^2) / (COUNTA(O2:O101) - 1)) / SQRT(COUNTA(O2:O101))</f>
+        <v>1084.1845541829625</v>
+      </c>
+      <c r="Q110" s="11">
+        <f>AVERAGE(Q2:Q101) + 2.58 * SQRT(SUMPRODUCT((Q2:Q101-AVERAGE(Q2:Q101))^2) / (COUNTA(Q2:Q101) - 1)) / SQRT(COUNTA(Q2:Q101))</f>
+        <v>38331720.652356699</v>
+      </c>
+      <c r="R110" s="11">
+        <f>AVERAGE(R2:R101) + 2.58 * SQRT(SUMPRODUCT((R2:R101-AVERAGE(R2:R101))^2) / (COUNTA(R2:R101) - 1)) / SQRT(COUNTA(R2:R101))</f>
+        <v>36650525.904565506</v>
+      </c>
+      <c r="S110" s="11">
+        <f>AVERAGE(S2:S101) + 2.58 * SQRT(SUMPRODUCT((S2:S101-AVERAGE(S2:S101))^2) / (COUNTA(S2:S101) - 1)) / SQRT(COUNTA(S2:S101))</f>
+        <v>38053391.901432365</v>
+      </c>
+      <c r="U110" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="111" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A111" s="11">
+        <f>AVERAGE(A2:A101) - 2.58 * SQRT(SUMPRODUCT((A2:A101-AVERAGE(A2:A101))^2) / (COUNTA(A2:A101) - 1)) / SQRT(COUNTA(A2:A101))</f>
+        <v>18.713953308829801</v>
+      </c>
+      <c r="B111" s="11">
+        <f>AVERAGE(B2:B101) - 2.58 * SQRT(SUMPRODUCT((B2:B101-AVERAGE(B2:B101))^2) / (COUNTA(B2:B101) - 1)) / SQRT(COUNTA(B2:B101))</f>
+        <v>18.583469158737003</v>
+      </c>
+      <c r="C111" s="11">
+        <f>AVERAGE(C2:C101) - 2.58 * SQRT(SUMPRODUCT((C2:C101-AVERAGE(C2:C101))^2) / (COUNTA(C2:C101) - 1)) / SQRT(COUNTA(C2:C101))</f>
+        <v>18.640701138025531</v>
+      </c>
+      <c r="E111" s="11">
+        <f>AVERAGE(E2:E101) - 2.58 * SQRT(SUMPRODUCT((E2:E101-AVERAGE(E2:E101))^2) / (COUNTA(E2:E101) - 1)) / SQRT(COUNTA(E2:E101))</f>
+        <v>0</v>
+      </c>
+      <c r="F111" s="11">
+        <f>AVERAGE(F2:F101) - 2.58 * SQRT(SUMPRODUCT((F2:F101-AVERAGE(F2:F101))^2) / (COUNTA(F2:F101) - 1)) / SQRT(COUNTA(F2:F101))</f>
+        <v>0</v>
+      </c>
+      <c r="G111" s="11">
+        <f>AVERAGE(G2:G101) - 2.58 * SQRT(SUMPRODUCT((G2:G101-AVERAGE(G2:G101))^2) / (COUNTA(G2:G101) - 1)) / SQRT(COUNTA(G2:G101))</f>
+        <v>0</v>
+      </c>
+      <c r="I111" s="11">
+        <f>AVERAGE(I2:I101) - 2.58 * SQRT(SUMPRODUCT((I2:I101-AVERAGE(I2:I101))^2) / (COUNTA(I2:I101) - 1)) / SQRT(COUNTA(I2:I101))</f>
+        <v>0</v>
+      </c>
+      <c r="J111" s="11">
+        <f>AVERAGE(J2:J101) - 2.58 * SQRT(SUMPRODUCT((J2:J101-AVERAGE(J2:J101))^2) / (COUNTA(J2:J101) - 1)) / SQRT(COUNTA(J2:J101))</f>
+        <v>0</v>
+      </c>
+      <c r="K111" s="11">
+        <f>AVERAGE(K2:K101) - 2.58 * SQRT(SUMPRODUCT((K2:K101-AVERAGE(K2:K101))^2) / (COUNTA(K2:K101) - 1)) / SQRT(COUNTA(K2:K101))</f>
+        <v>0</v>
+      </c>
+      <c r="M111" s="11">
+        <f>AVERAGE(M2:M101) - 2.58 * SQRT(SUMPRODUCT((M2:M101-AVERAGE(M2:M101))^2) / (COUNTA(M2:M101) - 1)) / SQRT(COUNTA(M2:M101))</f>
+        <v>1008.4022752586817</v>
+      </c>
+      <c r="N111" s="11">
+        <f>AVERAGE(N2:N101) - 2.58 * SQRT(SUMPRODUCT((N2:N101-AVERAGE(N2:N101))^2) / (COUNTA(N2:N101) - 1)) / SQRT(COUNTA(N2:N101))</f>
+        <v>858.61795551113835</v>
+      </c>
+      <c r="O111" s="11">
+        <f>AVERAGE(O2:O101) - 2.58 * SQRT(SUMPRODUCT((O2:O101-AVERAGE(O2:O101))^2) / (COUNTA(O2:O101) - 1)) / SQRT(COUNTA(O2:O101))</f>
+        <v>1083.0954458170377</v>
+      </c>
+      <c r="Q111" s="11">
+        <f>AVERAGE(Q2:Q101) - 2.58 * SQRT(SUMPRODUCT((Q2:Q101-AVERAGE(Q2:Q101))^2) / (COUNTA(Q2:Q101) - 1)) / SQRT(COUNTA(Q2:Q101))</f>
+        <v>33930743.947643295</v>
+      </c>
+      <c r="R111" s="11">
+        <f>AVERAGE(R2:R101) - 2.58 * SQRT(SUMPRODUCT((R2:R101-AVERAGE(R2:R101))^2) / (COUNTA(R2:R101) - 1)) / SQRT(COUNTA(R2:R101))</f>
+        <v>31649342.835434493</v>
+      </c>
+      <c r="S111" s="11">
+        <f>AVERAGE(S2:S101) - 2.58 * SQRT(SUMPRODUCT((S2:S101-AVERAGE(S2:S101))^2) / (COUNTA(S2:S101) - 1)) / SQRT(COUNTA(S2:S101))</f>
+        <v>32817248.918567624</v>
+      </c>
+      <c r="U111" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <f>_xlfn.CONFIDENCE.NORM(0.05,_xlfn.STDEV.S(A2:A101),COUNT(A2:A101))</f>
+        <v>0.29047478433385704</v>
+      </c>
+      <c r="B113">
+        <f t="shared" ref="B113:S113" si="0">_xlfn.CONFIDENCE.NORM(0.05,_xlfn.STDEV.S(B2:B101),COUNT(B2:B101))</f>
+        <v>0.32581046609872505</v>
+      </c>
+      <c r="C113">
+        <f t="shared" si="0"/>
+        <v>0.27082361627886564</v>
+      </c>
+      <c r="E113" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F113" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G113" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H113" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I113" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="J113" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K113" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="L113" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M113">
+        <f t="shared" si="0"/>
+        <v>2.5062125876007926</v>
+      </c>
+      <c r="N113">
+        <f t="shared" si="0"/>
+        <v>6.7514677976707151</v>
+      </c>
+      <c r="O113">
+        <f t="shared" si="0"/>
+        <v>0.41368472334763057</v>
+      </c>
+      <c r="P113" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q113">
+        <f t="shared" si="0"/>
+        <v>1671658.1081469122</v>
+      </c>
+      <c r="R113">
+        <f t="shared" si="0"/>
+        <v>1899639.2820907526</v>
+      </c>
+      <c r="S113">
+        <f t="shared" si="0"/>
+        <v>1988885.9814567829</v>
+      </c>
+    </row>
+    <row r="114" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <f>_xlfn.CONFIDENCE.NORM(0.01,_xlfn.STDEV.S(A2:A101),COUNT(A2:A101))</f>
+        <v>0.38174857667335133</v>
+      </c>
+      <c r="B114">
+        <f t="shared" ref="B114:S114" si="1">_xlfn.CONFIDENCE.NORM(0.01,_xlfn.STDEV.S(B2:B101),COUNT(B2:B101))</f>
+        <v>0.42818753436276263</v>
+      </c>
+      <c r="C114">
+        <f t="shared" si="1"/>
+        <v>0.35592256409134493</v>
+      </c>
+      <c r="E114" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F114" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G114" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H114" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I114" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="J114" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K114" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="L114" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M114">
+        <f t="shared" si="1"/>
+        <v>3.2937216576355466</v>
+      </c>
+      <c r="N114">
+        <f t="shared" si="1"/>
+        <v>8.8729327336532968</v>
+      </c>
+      <c r="O114">
+        <f t="shared" si="1"/>
+        <v>0.54367388443589559</v>
+      </c>
+      <c r="P114" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q114">
+        <f t="shared" si="1"/>
+        <v>2196931.1550846701</v>
+      </c>
+      <c r="R114">
+        <f t="shared" si="1"/>
+        <v>2496549.2057907558</v>
+      </c>
+      <c r="S114">
+        <f t="shared" si="1"/>
+        <v>2613839.250549403</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U105"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:U114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
@@ -7018,10 +7589,10 @@
         <v>20.366</v>
       </c>
       <c r="B2" s="2">
-        <v>20.693</v>
+        <v>20.693000000000001</v>
       </c>
       <c r="C2" s="3">
-        <v>21.022</v>
+        <v>21.021999999999998</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -7080,7 +7651,7 @@
         <v>17.741</v>
       </c>
       <c r="B3" s="2">
-        <v>17.665</v>
+        <v>17.664999999999999</v>
       </c>
       <c r="C3" s="3">
         <v>19.523</v>
@@ -7142,7 +7713,7 @@
         <v>21.8</v>
       </c>
       <c r="B4" s="2">
-        <v>19.892</v>
+        <v>19.891999999999999</v>
       </c>
       <c r="C4" s="3">
         <v>17.73</v>
@@ -7201,13 +7772,13 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>19.002</v>
+        <v>19.001999999999999</v>
       </c>
       <c r="B5" s="2">
-        <v>19.995</v>
+        <v>19.995000000000001</v>
       </c>
       <c r="C5" s="3">
-        <v>21.365</v>
+        <v>21.364999999999998</v>
       </c>
       <c r="D5" t="s">
         <v>3</v>
@@ -7263,13 +7834,13 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>18.978</v>
+        <v>18.978000000000002</v>
       </c>
       <c r="B6" s="2">
-        <v>17.769</v>
+        <v>17.768999999999998</v>
       </c>
       <c r="C6" s="3">
-        <v>20.42</v>
+        <v>20.420000000000002</v>
       </c>
       <c r="D6" t="s">
         <v>3</v>
@@ -7328,10 +7899,10 @@
         <v>18.509</v>
       </c>
       <c r="B7" s="2">
-        <v>20.825</v>
+        <v>20.824999999999999</v>
       </c>
       <c r="C7" s="3">
-        <v>19.127</v>
+        <v>19.126999999999999</v>
       </c>
       <c r="D7" t="s">
         <v>3</v>
@@ -7387,13 +7958,13 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>21.008</v>
+        <v>21.007999999999999</v>
       </c>
       <c r="B8" s="2">
         <v>18.677</v>
       </c>
       <c r="C8" s="3">
-        <v>19.739</v>
+        <v>19.739000000000001</v>
       </c>
       <c r="D8" t="s">
         <v>3</v>
@@ -7449,10 +8020,10 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>18.989</v>
+        <v>18.989000000000001</v>
       </c>
       <c r="B9" s="2">
-        <v>16.739</v>
+        <v>16.739000000000001</v>
       </c>
       <c r="C9" s="3">
         <v>20.602</v>
@@ -7514,7 +8085,7 @@
         <v>17.34</v>
       </c>
       <c r="B10" s="2">
-        <v>19.021</v>
+        <v>19.021000000000001</v>
       </c>
       <c r="C10" s="3">
         <v>19.849</v>
@@ -7576,10 +8147,10 @@
         <v>17.901</v>
       </c>
       <c r="B11" s="2">
-        <v>19.335</v>
+        <v>19.335000000000001</v>
       </c>
       <c r="C11" s="3">
-        <v>18.554</v>
+        <v>18.553999999999998</v>
       </c>
       <c r="D11" t="s">
         <v>3</v>
@@ -7635,10 +8206,10 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>18.894</v>
+        <v>18.893999999999998</v>
       </c>
       <c r="B12" s="2">
-        <v>19.322</v>
+        <v>19.321999999999999</v>
       </c>
       <c r="C12" s="3">
         <v>17.747</v>
@@ -7697,10 +8268,10 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>20.737</v>
+        <v>20.736999999999998</v>
       </c>
       <c r="B13" s="2">
-        <v>20.082</v>
+        <v>20.082000000000001</v>
       </c>
       <c r="C13" s="3">
         <v>19.282</v>
@@ -7759,7 +8330,7 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>17.322</v>
+        <v>17.321999999999999</v>
       </c>
       <c r="B14" s="2">
         <v>20.753</v>
@@ -7821,13 +8392,13 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>20.402</v>
+        <v>20.402000000000001</v>
       </c>
       <c r="B15" s="2">
-        <v>18.371</v>
+        <v>18.370999999999999</v>
       </c>
       <c r="C15" s="3">
-        <v>17.33</v>
+        <v>17.329999999999998</v>
       </c>
       <c r="D15" t="s">
         <v>3</v>
@@ -7883,13 +8454,13 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>18.844</v>
+        <v>18.844000000000001</v>
       </c>
       <c r="B16" s="2">
-        <v>19.6</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="C16" s="3">
-        <v>17.636</v>
+        <v>17.635999999999999</v>
       </c>
       <c r="D16" t="s">
         <v>3</v>
@@ -7945,13 +8516,13 @@
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>17.932</v>
+        <v>17.931999999999999</v>
       </c>
       <c r="B17" s="2">
         <v>17.785</v>
       </c>
       <c r="C17" s="3">
-        <v>18.591</v>
+        <v>18.591000000000001</v>
       </c>
       <c r="D17" t="s">
         <v>3</v>
@@ -8007,13 +8578,13 @@
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>19.867</v>
+        <v>19.867000000000001</v>
       </c>
       <c r="B18" s="2">
-        <v>19.007</v>
+        <v>19.007000000000001</v>
       </c>
       <c r="C18" s="3">
-        <v>18.458</v>
+        <v>18.457999999999998</v>
       </c>
       <c r="D18" t="s">
         <v>3</v>
@@ -8069,13 +8640,13 @@
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>18.002</v>
+        <v>18.001999999999999</v>
       </c>
       <c r="B19" s="2">
         <v>19.53</v>
       </c>
       <c r="C19" s="3">
-        <v>20.667</v>
+        <v>20.667000000000002</v>
       </c>
       <c r="D19" t="s">
         <v>3</v>
@@ -8134,7 +8705,7 @@
         <v>18.823</v>
       </c>
       <c r="B20" s="2">
-        <v>19.891</v>
+        <v>19.890999999999998</v>
       </c>
       <c r="C20" s="3">
         <v>21.009</v>
@@ -8193,13 +8764,13 @@
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>20.095</v>
+        <v>20.094999999999999</v>
       </c>
       <c r="B21" s="2">
-        <v>17.672</v>
+        <v>17.672000000000001</v>
       </c>
       <c r="C21" s="3">
-        <v>18.56</v>
+        <v>18.559999999999999</v>
       </c>
       <c r="D21" t="s">
         <v>3</v>
@@ -8255,13 +8826,13 @@
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>21.454</v>
+        <v>21.454000000000001</v>
       </c>
       <c r="B22" s="2">
         <v>21.401</v>
       </c>
       <c r="C22" s="3">
-        <v>20.004</v>
+        <v>20.004000000000001</v>
       </c>
       <c r="D22" t="s">
         <v>3</v>
@@ -8317,13 +8888,13 @@
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>18.504</v>
+        <v>18.504000000000001</v>
       </c>
       <c r="B23" s="2">
-        <v>16.929</v>
+        <v>16.928999999999998</v>
       </c>
       <c r="C23" s="3">
-        <v>19.643</v>
+        <v>19.643000000000001</v>
       </c>
       <c r="D23" t="s">
         <v>3</v>
@@ -8379,13 +8950,13 @@
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>18.67</v>
+        <v>18.670000000000002</v>
       </c>
       <c r="B24" s="2">
         <v>18.276</v>
       </c>
       <c r="C24" s="3">
-        <v>20.786</v>
+        <v>20.786000000000001</v>
       </c>
       <c r="D24" t="s">
         <v>3</v>
@@ -8444,7 +9015,7 @@
         <v>17.907</v>
       </c>
       <c r="B25" s="2">
-        <v>17.582</v>
+        <v>17.582000000000001</v>
       </c>
       <c r="C25" s="3">
         <v>18.317</v>
@@ -8503,13 +9074,13 @@
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>19.609</v>
+        <v>19.609000000000002</v>
       </c>
       <c r="B26" s="2">
-        <v>17.429</v>
+        <v>17.428999999999998</v>
       </c>
       <c r="C26" s="3">
-        <v>19.226</v>
+        <v>19.225999999999999</v>
       </c>
       <c r="D26" t="s">
         <v>3</v>
@@ -8565,13 +9136,13 @@
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>17.322</v>
+        <v>17.321999999999999</v>
       </c>
       <c r="B27" s="2">
-        <v>19.149</v>
+        <v>19.149000000000001</v>
       </c>
       <c r="C27" s="3">
-        <v>20.438</v>
+        <v>20.437999999999999</v>
       </c>
       <c r="D27" t="s">
         <v>3</v>
@@ -8627,13 +9198,13 @@
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>18.725</v>
+        <v>18.725000000000001</v>
       </c>
       <c r="B28" s="2">
-        <v>20.269</v>
+        <v>20.268999999999998</v>
       </c>
       <c r="C28" s="3">
-        <v>20.467</v>
+        <v>20.466999999999999</v>
       </c>
       <c r="D28" t="s">
         <v>3</v>
@@ -8689,13 +9260,13 @@
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>17.903</v>
+        <v>17.902999999999999</v>
       </c>
       <c r="B29" s="2">
-        <v>19.653</v>
+        <v>19.652999999999999</v>
       </c>
       <c r="C29" s="3">
-        <v>18.173</v>
+        <v>18.172999999999998</v>
       </c>
       <c r="D29" t="s">
         <v>3</v>
@@ -8751,13 +9322,13 @@
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>20.623</v>
+        <v>20.623000000000001</v>
       </c>
       <c r="B30" s="2">
-        <v>20.487</v>
+        <v>20.486999999999998</v>
       </c>
       <c r="C30" s="3">
-        <v>19.167</v>
+        <v>19.167000000000002</v>
       </c>
       <c r="D30" t="s">
         <v>3</v>
@@ -8813,13 +9384,13 @@
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>21.685</v>
+        <v>21.684999999999999</v>
       </c>
       <c r="B31" s="2">
         <v>20.282</v>
       </c>
       <c r="C31" s="3">
-        <v>20.603</v>
+        <v>20.603000000000002</v>
       </c>
       <c r="D31" t="s">
         <v>3</v>
@@ -8875,13 +9446,13 @@
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>17.403</v>
+        <v>17.402999999999999</v>
       </c>
       <c r="B32" s="2">
         <v>19.119</v>
       </c>
       <c r="C32" s="3">
-        <v>20.054</v>
+        <v>20.053999999999998</v>
       </c>
       <c r="D32" t="s">
         <v>3</v>
@@ -8937,7 +9508,7 @@
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>19.633</v>
+        <v>19.632999999999999</v>
       </c>
       <c r="B33" s="2">
         <v>19.695</v>
@@ -9005,7 +9576,7 @@
         <v>17.198</v>
       </c>
       <c r="C34" s="3">
-        <v>19.1</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="D34" t="s">
         <v>3</v>
@@ -9123,10 +9694,10 @@
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>17.098</v>
+        <v>17.097999999999999</v>
       </c>
       <c r="B36" s="2">
-        <v>19.661</v>
+        <v>19.661000000000001</v>
       </c>
       <c r="C36" s="3">
         <v>19.09</v>
@@ -9185,13 +9756,13 @@
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>17.482</v>
+        <v>17.481999999999999</v>
       </c>
       <c r="B37" s="2">
-        <v>19.51</v>
+        <v>19.510000000000002</v>
       </c>
       <c r="C37" s="3">
-        <v>18.702</v>
+        <v>18.702000000000002</v>
       </c>
       <c r="D37" t="s">
         <v>3</v>
@@ -9247,13 +9818,13 @@
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>18.778</v>
+        <v>18.777999999999999</v>
       </c>
       <c r="B38" s="2">
-        <v>19.701</v>
+        <v>19.701000000000001</v>
       </c>
       <c r="C38" s="3">
-        <v>19.921</v>
+        <v>19.920999999999999</v>
       </c>
       <c r="D38" t="s">
         <v>3</v>
@@ -9309,13 +9880,13 @@
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>19.307</v>
+        <v>19.306999999999999</v>
       </c>
       <c r="B39" s="2">
         <v>20.22</v>
       </c>
       <c r="C39" s="3">
-        <v>19.769</v>
+        <v>19.768999999999998</v>
       </c>
       <c r="D39" t="s">
         <v>3</v>
@@ -9371,13 +9942,13 @@
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>19.847</v>
+        <v>19.847000000000001</v>
       </c>
       <c r="B40" s="2">
-        <v>18.798</v>
+        <v>18.797999999999998</v>
       </c>
       <c r="C40" s="3">
-        <v>17.527</v>
+        <v>17.527000000000001</v>
       </c>
       <c r="D40" t="s">
         <v>3</v>
@@ -9433,13 +10004,13 @@
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>19.873</v>
+        <v>19.873000000000001</v>
       </c>
       <c r="B41" s="2">
-        <v>20.493</v>
+        <v>20.492999999999999</v>
       </c>
       <c r="C41" s="3">
-        <v>18.358</v>
+        <v>18.358000000000001</v>
       </c>
       <c r="D41" t="s">
         <v>3</v>
@@ -9498,10 +10069,10 @@
         <v>17.57</v>
       </c>
       <c r="B42" s="2">
-        <v>20.778</v>
+        <v>20.777999999999999</v>
       </c>
       <c r="C42" s="3">
-        <v>18.386</v>
+        <v>18.385999999999999</v>
       </c>
       <c r="D42" t="s">
         <v>3</v>
@@ -9557,13 +10128,13 @@
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>20.984</v>
+        <v>20.984000000000002</v>
       </c>
       <c r="B43" s="2">
-        <v>18.508</v>
+        <v>18.507999999999999</v>
       </c>
       <c r="C43" s="3">
-        <v>18.953</v>
+        <v>18.952999999999999</v>
       </c>
       <c r="D43" t="s">
         <v>3</v>
@@ -9619,13 +10190,13 @@
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>18.612</v>
+        <v>18.611999999999998</v>
       </c>
       <c r="B44" s="2">
-        <v>19.498</v>
+        <v>19.498000000000001</v>
       </c>
       <c r="C44" s="3">
-        <v>20.467</v>
+        <v>20.466999999999999</v>
       </c>
       <c r="D44" t="s">
         <v>3</v>
@@ -9687,7 +10258,7 @@
         <v>18.163</v>
       </c>
       <c r="C45" s="3">
-        <v>20.999</v>
+        <v>20.998999999999999</v>
       </c>
       <c r="D45" t="s">
         <v>3</v>
@@ -9743,13 +10314,13 @@
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>18.659</v>
+        <v>18.658999999999999</v>
       </c>
       <c r="B46" s="2">
         <v>21.029</v>
       </c>
       <c r="C46" s="3">
-        <v>16.911</v>
+        <v>16.911000000000001</v>
       </c>
       <c r="D46" t="s">
         <v>3</v>
@@ -9805,13 +10376,13 @@
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>17.246</v>
+        <v>17.245999999999999</v>
       </c>
       <c r="B47" s="2">
         <v>16.497</v>
       </c>
       <c r="C47" s="3">
-        <v>20.039</v>
+        <v>20.039000000000001</v>
       </c>
       <c r="D47" t="s">
         <v>3</v>
@@ -9867,13 +10438,13 @@
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>21.187</v>
+        <v>21.187000000000001</v>
       </c>
       <c r="B48" s="2">
-        <v>21.141</v>
+        <v>21.140999999999998</v>
       </c>
       <c r="C48" s="3">
-        <v>19.174</v>
+        <v>19.173999999999999</v>
       </c>
       <c r="D48" t="s">
         <v>3</v>
@@ -9932,10 +10503,10 @@
         <v>18.939</v>
       </c>
       <c r="B49" s="2">
-        <v>18.121</v>
+        <v>18.120999999999999</v>
       </c>
       <c r="C49" s="3">
-        <v>18.417</v>
+        <v>18.417000000000002</v>
       </c>
       <c r="D49" t="s">
         <v>3</v>
@@ -9991,13 +10562,13 @@
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>21.129</v>
+        <v>21.129000000000001</v>
       </c>
       <c r="B50" s="2">
         <v>20.753</v>
       </c>
       <c r="C50" s="3">
-        <v>18.298</v>
+        <v>18.297999999999998</v>
       </c>
       <c r="D50" t="s">
         <v>3</v>
@@ -10053,13 +10624,13 @@
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>20.225</v>
+        <v>20.225000000000001</v>
       </c>
       <c r="B51" s="2">
-        <v>19.35</v>
+        <v>19.350000000000001</v>
       </c>
       <c r="C51" s="3">
-        <v>18.641</v>
+        <v>18.640999999999998</v>
       </c>
       <c r="D51" t="s">
         <v>3</v>
@@ -10115,13 +10686,13 @@
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>18.545</v>
+        <v>18.545000000000002</v>
       </c>
       <c r="B52" s="2">
-        <v>21.382</v>
+        <v>21.382000000000001</v>
       </c>
       <c r="C52" s="3">
-        <v>18.745</v>
+        <v>18.745000000000001</v>
       </c>
       <c r="D52" t="s">
         <v>3</v>
@@ -10177,13 +10748,13 @@
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>18.65</v>
+        <v>18.649999999999999</v>
       </c>
       <c r="B53" s="2">
-        <v>19.803</v>
+        <v>19.803000000000001</v>
       </c>
       <c r="C53" s="3">
-        <v>20.473</v>
+        <v>20.472999999999999</v>
       </c>
       <c r="D53" t="s">
         <v>3</v>
@@ -10245,7 +10816,7 @@
         <v>20.247</v>
       </c>
       <c r="C54" s="3">
-        <v>19.792</v>
+        <v>19.792000000000002</v>
       </c>
       <c r="D54" t="s">
         <v>3</v>
@@ -10304,10 +10875,10 @@
         <v>17.898</v>
       </c>
       <c r="B55" s="2">
-        <v>20.911</v>
+        <v>20.911000000000001</v>
       </c>
       <c r="C55" s="3">
-        <v>18.851</v>
+        <v>18.850999999999999</v>
       </c>
       <c r="D55" t="s">
         <v>3</v>
@@ -10363,7 +10934,7 @@
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>19.735</v>
+        <v>19.734999999999999</v>
       </c>
       <c r="B56" s="2">
         <v>20.753</v>
@@ -10425,13 +10996,13 @@
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>19.983</v>
+        <v>19.983000000000001</v>
       </c>
       <c r="B57" s="2">
         <v>19.852</v>
       </c>
       <c r="C57" s="3">
-        <v>18.745</v>
+        <v>18.745000000000001</v>
       </c>
       <c r="D57" t="s">
         <v>3</v>
@@ -10487,10 +11058,10 @@
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>19.417</v>
+        <v>19.417000000000002</v>
       </c>
       <c r="B58" s="2">
-        <v>20.236</v>
+        <v>20.236000000000001</v>
       </c>
       <c r="C58" s="3">
         <v>20.427</v>
@@ -10549,10 +11120,10 @@
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>19.232</v>
+        <v>19.231999999999999</v>
       </c>
       <c r="B59" s="2">
-        <v>19.422</v>
+        <v>19.422000000000001</v>
       </c>
       <c r="C59" s="3">
         <v>20.073</v>
@@ -10614,7 +11185,7 @@
         <v>19.913</v>
       </c>
       <c r="B60" s="2">
-        <v>17.534</v>
+        <v>17.533999999999999</v>
       </c>
       <c r="C60" s="3">
         <v>18.038</v>
@@ -10673,13 +11244,13 @@
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>19.842</v>
+        <v>19.841999999999999</v>
       </c>
       <c r="B61" s="2">
-        <v>21.141</v>
+        <v>21.140999999999998</v>
       </c>
       <c r="C61" s="3">
-        <v>17.74</v>
+        <v>17.739999999999998</v>
       </c>
       <c r="D61" t="s">
         <v>3</v>
@@ -10735,13 +11306,13 @@
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>19.111</v>
+        <v>19.111000000000001</v>
       </c>
       <c r="B62" s="2">
-        <v>20.455</v>
+        <v>20.454999999999998</v>
       </c>
       <c r="C62" s="3">
-        <v>19.682</v>
+        <v>19.681999999999999</v>
       </c>
       <c r="D62" t="s">
         <v>3</v>
@@ -10803,7 +11374,7 @@
         <v>18.875</v>
       </c>
       <c r="C63" s="3">
-        <v>17.452</v>
+        <v>17.452000000000002</v>
       </c>
       <c r="D63" t="s">
         <v>3</v>
@@ -10921,7 +11492,7 @@
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>19.018</v>
+        <v>19.018000000000001</v>
       </c>
       <c r="B65" s="2">
         <v>16.279</v>
@@ -10983,13 +11554,13 @@
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>20.394</v>
+        <v>20.393999999999998</v>
       </c>
       <c r="B66" s="2">
-        <v>19.399</v>
+        <v>19.399000000000001</v>
       </c>
       <c r="C66" s="3">
-        <v>20.376</v>
+        <v>20.376000000000001</v>
       </c>
       <c r="D66" t="s">
         <v>3</v>
@@ -11045,13 +11616,13 @@
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>17.83</v>
+        <v>17.829999999999998</v>
       </c>
       <c r="B67" s="2">
         <v>18.291</v>
       </c>
       <c r="C67" s="3">
-        <v>17.534</v>
+        <v>17.533999999999999</v>
       </c>
       <c r="D67" t="s">
         <v>3</v>
@@ -11110,7 +11681,7 @@
         <v>17.89</v>
       </c>
       <c r="B68" s="2">
-        <v>19.867</v>
+        <v>19.867000000000001</v>
       </c>
       <c r="C68" s="3">
         <v>17.343</v>
@@ -11172,10 +11743,10 @@
         <v>19.506</v>
       </c>
       <c r="B69" s="2">
-        <v>19.746</v>
+        <v>19.745999999999999</v>
       </c>
       <c r="C69" s="3">
-        <v>20.953</v>
+        <v>20.952999999999999</v>
       </c>
       <c r="D69" t="s">
         <v>3</v>
@@ -11231,7 +11802,7 @@
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>17.734</v>
+        <v>17.734000000000002</v>
       </c>
       <c r="B70" s="2">
         <v>18.352</v>
@@ -11293,13 +11864,13 @@
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>19.144</v>
+        <v>19.143999999999998</v>
       </c>
       <c r="B71" s="2">
-        <v>16.333</v>
+        <v>16.332999999999998</v>
       </c>
       <c r="C71" s="3">
-        <v>19.393</v>
+        <v>19.393000000000001</v>
       </c>
       <c r="D71" t="s">
         <v>3</v>
@@ -11358,10 +11929,10 @@
         <v>19.93</v>
       </c>
       <c r="B72" s="2">
-        <v>20.632</v>
+        <v>20.632000000000001</v>
       </c>
       <c r="C72" s="3">
-        <v>18.769</v>
+        <v>18.768999999999998</v>
       </c>
       <c r="D72" t="s">
         <v>3</v>
@@ -11417,13 +11988,13 @@
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>20.242</v>
+        <v>20.242000000000001</v>
       </c>
       <c r="B73" s="2">
         <v>20.625</v>
       </c>
       <c r="C73" s="3">
-        <v>18.499</v>
+        <v>18.498999999999999</v>
       </c>
       <c r="D73" t="s">
         <v>3</v>
@@ -11479,7 +12050,7 @@
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>21.042</v>
+        <v>21.042000000000002</v>
       </c>
       <c r="B74" s="2">
         <v>18.523</v>
@@ -11541,13 +12112,13 @@
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>20.661</v>
+        <v>20.661000000000001</v>
       </c>
       <c r="B75" s="2">
-        <v>20.447</v>
+        <v>20.446999999999999</v>
       </c>
       <c r="C75" s="3">
-        <v>16.069</v>
+        <v>16.068999999999999</v>
       </c>
       <c r="D75" t="s">
         <v>3</v>
@@ -11603,13 +12174,13 @@
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>20.572</v>
+        <v>20.571999999999999</v>
       </c>
       <c r="B76" s="2">
-        <v>19.021</v>
+        <v>19.021000000000001</v>
       </c>
       <c r="C76" s="3">
-        <v>20.065</v>
+        <v>20.065000000000001</v>
       </c>
       <c r="D76" t="s">
         <v>3</v>
@@ -11665,7 +12236,7 @@
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>18.505</v>
+        <v>18.504999999999999</v>
       </c>
       <c r="B77" s="2">
         <v>18.849</v>
@@ -11727,10 +12298,10 @@
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>20.486</v>
+        <v>20.486000000000001</v>
       </c>
       <c r="B78" s="2">
-        <v>18.877</v>
+        <v>18.876999999999999</v>
       </c>
       <c r="C78" s="3">
         <v>15.638</v>
@@ -11795,7 +12366,7 @@
         <v>18.715</v>
       </c>
       <c r="C79" s="3">
-        <v>18.828</v>
+        <v>18.827999999999999</v>
       </c>
       <c r="D79" t="s">
         <v>3</v>
@@ -11851,10 +12422,10 @@
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>18.461</v>
+        <v>18.460999999999999</v>
       </c>
       <c r="B80" s="2">
-        <v>20.662</v>
+        <v>20.661999999999999</v>
       </c>
       <c r="C80" s="3">
         <v>18.596</v>
@@ -11913,10 +12484,10 @@
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>18.989</v>
+        <v>18.989000000000001</v>
       </c>
       <c r="B81" s="2">
-        <v>18.264</v>
+        <v>18.263999999999999</v>
       </c>
       <c r="C81" s="3">
         <v>17.416</v>
@@ -11978,7 +12549,7 @@
         <v>19.59</v>
       </c>
       <c r="B82" s="2">
-        <v>16.778</v>
+        <v>16.777999999999999</v>
       </c>
       <c r="C82" s="3">
         <v>17.669</v>
@@ -12040,10 +12611,10 @@
         <v>19.564</v>
       </c>
       <c r="B83" s="2">
-        <v>18.671</v>
+        <v>18.670999999999999</v>
       </c>
       <c r="C83" s="3">
-        <v>19.399</v>
+        <v>19.399000000000001</v>
       </c>
       <c r="D83" t="s">
         <v>3</v>
@@ -12102,10 +12673,10 @@
         <v>18.282</v>
       </c>
       <c r="B84" s="2">
-        <v>19.173</v>
+        <v>19.172999999999998</v>
       </c>
       <c r="C84" s="3">
-        <v>18.066</v>
+        <v>18.065999999999999</v>
       </c>
       <c r="D84" t="s">
         <v>3</v>
@@ -12161,13 +12732,13 @@
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>19.589</v>
+        <v>19.588999999999999</v>
       </c>
       <c r="B85" s="2">
-        <v>17.085</v>
+        <v>17.085000000000001</v>
       </c>
       <c r="C85" s="3">
-        <v>18.254</v>
+        <v>18.254000000000001</v>
       </c>
       <c r="D85" t="s">
         <v>3</v>
@@ -12226,10 +12797,10 @@
         <v>20.46</v>
       </c>
       <c r="B86" s="2">
-        <v>17.075</v>
+        <v>17.074999999999999</v>
       </c>
       <c r="C86" s="3">
-        <v>17.289</v>
+        <v>17.289000000000001</v>
       </c>
       <c r="D86" t="s">
         <v>3</v>
@@ -12285,13 +12856,13 @@
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>20.504</v>
+        <v>20.504000000000001</v>
       </c>
       <c r="B87" s="2">
         <v>17.349</v>
       </c>
       <c r="C87" s="3">
-        <v>17.199</v>
+        <v>17.199000000000002</v>
       </c>
       <c r="D87" t="s">
         <v>3</v>
@@ -12347,13 +12918,13 @@
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <v>20.31</v>
+        <v>20.309999999999999</v>
       </c>
       <c r="B88" s="2">
         <v>16.183</v>
       </c>
       <c r="C88" s="3">
-        <v>21.065</v>
+        <v>21.065000000000001</v>
       </c>
       <c r="D88" t="s">
         <v>3</v>
@@ -12409,13 +12980,13 @@
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>20.08</v>
+        <v>20.079999999999998</v>
       </c>
       <c r="B89" s="2">
-        <v>20.394</v>
+        <v>20.393999999999998</v>
       </c>
       <c r="C89" s="3">
-        <v>18.949</v>
+        <v>18.949000000000002</v>
       </c>
       <c r="D89" t="s">
         <v>3</v>
@@ -12471,13 +13042,13 @@
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>19.043</v>
+        <v>19.042999999999999</v>
       </c>
       <c r="B90" s="2">
-        <v>19.054</v>
+        <v>19.053999999999998</v>
       </c>
       <c r="C90" s="3">
-        <v>23.995</v>
+        <v>23.995000000000001</v>
       </c>
       <c r="D90" t="s">
         <v>3</v>
@@ -12536,10 +13107,10 @@
         <v>18.599</v>
       </c>
       <c r="B91" s="2">
-        <v>17.807</v>
+        <v>17.806999999999999</v>
       </c>
       <c r="C91" s="3">
-        <v>19.002</v>
+        <v>19.001999999999999</v>
       </c>
       <c r="D91" t="s">
         <v>3</v>
@@ -12598,7 +13169,7 @@
         <v>19.523</v>
       </c>
       <c r="B92" s="2">
-        <v>19.443</v>
+        <v>19.443000000000001</v>
       </c>
       <c r="C92" s="3">
         <v>18.817</v>
@@ -12657,13 +13228,13 @@
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>19.263</v>
+        <v>19.263000000000002</v>
       </c>
       <c r="B93" s="2">
-        <v>18.021</v>
+        <v>18.021000000000001</v>
       </c>
       <c r="C93" s="3">
-        <v>19.057</v>
+        <v>19.056999999999999</v>
       </c>
       <c r="D93" t="s">
         <v>3</v>
@@ -12722,7 +13293,7 @@
         <v>17.834</v>
       </c>
       <c r="B94" s="2">
-        <v>17.075</v>
+        <v>17.074999999999999</v>
       </c>
       <c r="C94" s="3">
         <v>19.099</v>
@@ -12781,10 +13352,10 @@
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <v>17.643</v>
+        <v>17.643000000000001</v>
       </c>
       <c r="B95" s="2">
-        <v>19.018</v>
+        <v>19.018000000000001</v>
       </c>
       <c r="C95" s="3">
         <v>18.398</v>
@@ -12903,15 +13474,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>19.147</v>
+        <v>19.146999999999998</v>
       </c>
       <c r="B97" s="2">
-        <v>19.112</v>
+        <v>19.111999999999998</v>
       </c>
       <c r="C97" s="3">
-        <v>19.021</v>
+        <v>19.021000000000001</v>
       </c>
       <c r="D97" t="s">
         <v>3</v>
@@ -12965,15 +13536,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>20.175</v>
+        <v>20.175000000000001</v>
       </c>
       <c r="B98" s="2">
-        <v>17.861</v>
+        <v>17.861000000000001</v>
       </c>
       <c r="C98" s="3">
-        <v>18.249</v>
+        <v>18.248999999999999</v>
       </c>
       <c r="D98" t="s">
         <v>3</v>
@@ -13027,15 +13598,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>17.894</v>
+        <v>17.893999999999998</v>
       </c>
       <c r="B99" s="2">
-        <v>19.286</v>
+        <v>19.286000000000001</v>
       </c>
       <c r="C99" s="3">
-        <v>21.469</v>
+        <v>21.469000000000001</v>
       </c>
       <c r="D99" t="s">
         <v>3</v>
@@ -13089,9 +13660,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>20.263</v>
+        <v>20.263000000000002</v>
       </c>
       <c r="B100" s="2">
         <v>17.773</v>
@@ -13151,15 +13722,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>20.339</v>
+        <v>20.338999999999999</v>
       </c>
       <c r="B101" s="2">
         <v>18.913</v>
       </c>
       <c r="C101" s="3">
-        <v>23.915</v>
+        <v>23.914999999999999</v>
       </c>
       <c r="D101" t="s">
         <v>3</v>
@@ -13216,48 +13787,63 @@
     <row r="103" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A103" s="7">
         <f>AVERAGE(A2:A101)</f>
+        <v>19.242889999999992</v>
       </c>
       <c r="B103" s="7">
         <f>AVERAGE(B2:B101)</f>
+        <v>19.102650000000004</v>
       </c>
       <c r="C103" s="7">
         <f>AVERAGE(C2:C101)</f>
+        <v>19.142339999999997</v>
       </c>
       <c r="E103" s="7">
         <f>AVERAGE(E2:E101)</f>
+        <v>0</v>
       </c>
       <c r="F103" s="7">
         <f>AVERAGE(F2:F101)</f>
+        <v>0</v>
       </c>
       <c r="G103" s="7">
         <f>AVERAGE(G2:G101)</f>
+        <v>0</v>
       </c>
       <c r="I103" s="7">
         <f>AVERAGE(I2:I101)</f>
+        <v>0</v>
       </c>
       <c r="J103" s="7">
         <f>AVERAGE(J2:J101)</f>
+        <v>0.02</v>
       </c>
       <c r="K103" s="7">
         <f>AVERAGE(K2:K101)</f>
+        <v>0</v>
       </c>
       <c r="M103" s="7">
         <f>AVERAGE(M2:M101)</f>
+        <v>2292.92</v>
       </c>
       <c r="N103" s="7">
         <f>AVERAGE(N2:N101)</f>
+        <v>2139.31</v>
       </c>
       <c r="O103" s="7">
         <f>AVERAGE(O2:O101)</f>
+        <v>2363.8000000000002</v>
       </c>
       <c r="Q103" s="7">
         <f>AVERAGE(Q2:Q101)</f>
+        <v>36871993.869999997</v>
       </c>
       <c r="R103" s="7">
         <f>AVERAGE(R2:R101)</f>
+        <v>36690691.640000001</v>
       </c>
       <c r="S103" s="7">
         <f>AVERAGE(S2:S101)</f>
+        <v>38344382.049999997</v>
       </c>
       <c r="U103" s="8" t="s">
         <v>16</v>
@@ -13266,48 +13852,63 @@
     <row r="104" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <f>MAX(A2:A101)</f>
+        <v>21.8</v>
       </c>
       <c r="B104" s="2">
         <f>MAX(B2:B101)</f>
+        <v>21.401</v>
       </c>
       <c r="C104" s="2">
         <f>MAX(C2:C101)</f>
+        <v>23.995000000000001</v>
       </c>
       <c r="E104" s="2">
         <f>MAX(E2:E101)</f>
+        <v>0</v>
       </c>
       <c r="F104" s="2">
         <f>MAX(F2:F101)</f>
+        <v>0</v>
       </c>
       <c r="G104" s="2">
         <f>MAX(G2:G101)</f>
+        <v>0</v>
       </c>
       <c r="I104" s="2">
         <f>MAX(I2:I101)</f>
+        <v>0</v>
       </c>
       <c r="J104" s="2">
         <f>MAX(J2:J101)</f>
+        <v>2</v>
       </c>
       <c r="K104" s="2">
         <f>MAX(K2:K101)</f>
+        <v>0</v>
       </c>
       <c r="M104" s="2">
         <f>MAX(M2:M101)</f>
+        <v>2294</v>
       </c>
       <c r="N104" s="2">
         <f>MAX(N2:N101)</f>
+        <v>2142</v>
       </c>
       <c r="O104" s="2">
         <f>MAX(O2:O101)</f>
+        <v>2369</v>
       </c>
       <c r="Q104" s="2">
         <f>MAX(Q2:Q101)</f>
+        <v>52026606</v>
       </c>
       <c r="R104" s="2">
         <f>MAX(R2:R101)</f>
+        <v>54005132</v>
       </c>
       <c r="S104" s="2">
         <f>MAX(S2:S101)</f>
+        <v>53781778</v>
       </c>
       <c r="U104" s="9" t="s">
         <v>17</v>
@@ -13316,69 +13917,438 @@
     <row r="105" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
         <f>MIN(A2:A101)</f>
+        <v>17.097999999999999</v>
       </c>
       <c r="B105" s="3">
         <f>MIN(B2:B101)</f>
+        <v>16.183</v>
       </c>
       <c r="C105" s="3">
         <f>MIN(C2:C101)</f>
+        <v>15.638</v>
       </c>
       <c r="E105" s="3">
         <f>MIN(E2:E101)</f>
+        <v>0</v>
       </c>
       <c r="F105" s="3">
         <f>MIN(F2:F101)</f>
+        <v>0</v>
       </c>
       <c r="G105" s="3">
         <f>MIN(G2:G101)</f>
+        <v>0</v>
       </c>
       <c r="I105" s="3">
         <f>MIN(I2:I101)</f>
+        <v>0</v>
       </c>
       <c r="J105" s="3">
         <f>MIN(J2:J101)</f>
+        <v>0</v>
       </c>
       <c r="K105" s="3">
         <f>MIN(K2:K101)</f>
+        <v>0</v>
       </c>
       <c r="M105" s="3">
         <f>MIN(M2:M101)</f>
+        <v>2292</v>
       </c>
       <c r="N105" s="3">
         <f>MIN(N2:N101)</f>
+        <v>2139</v>
       </c>
       <c r="O105" s="3">
         <f>MIN(O2:O101)</f>
+        <v>2363</v>
       </c>
       <c r="Q105" s="3">
         <f>MIN(Q2:Q101)</f>
+        <v>22074795</v>
       </c>
       <c r="R105" s="3">
         <f>MIN(R2:R101)</f>
+        <v>21344275</v>
       </c>
       <c r="S105" s="3">
         <f>MIN(S2:S101)</f>
+        <v>22088750</v>
       </c>
       <c r="U105" s="10" t="s">
         <v>18</v>
       </c>
     </row>
+    <row r="107" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A107" s="11">
+        <f>AVERAGE(A2:A101) + 1.96 * SQRT(SUMPRODUCT((A2:A101-AVERAGE(A2:A101))^2) / (COUNTA(A2:A101) - 1)) / SQRT(COUNTA(A2:A101))</f>
+        <v>19.471662962025281</v>
+      </c>
+      <c r="B107" s="11">
+        <f>AVERAGE(B2:B101) + 1.96 * SQRT(SUMPRODUCT((B2:B101-AVERAGE(B2:B101))^2) / (COUNTA(B2:B101) - 1)) / SQRT(COUNTA(B2:B101))</f>
+        <v>19.360156476591694</v>
+      </c>
+      <c r="C107" s="11">
+        <f>AVERAGE(C2:C101) + 1.96 * SQRT(SUMPRODUCT((C2:C101-AVERAGE(C2:C101))^2) / (COUNTA(C2:C101) - 1)) / SQRT(COUNTA(C2:C101))</f>
+        <v>19.415149834777676</v>
+      </c>
+      <c r="E107" s="11">
+        <f>AVERAGE(E2:E101) + 1.96 * SQRT(SUMPRODUCT((E2:E101-AVERAGE(E2:E101))^2) / (COUNTA(E2:E101) - 1)) / SQRT(COUNTA(E2:E101))</f>
+        <v>0</v>
+      </c>
+      <c r="F107" s="11">
+        <f>AVERAGE(F2:F101) + 1.96 * SQRT(SUMPRODUCT((F2:F101-AVERAGE(F2:F101))^2) / (COUNTA(F2:F101) - 1)) / SQRT(COUNTA(F2:F101))</f>
+        <v>0</v>
+      </c>
+      <c r="G107" s="11">
+        <f>AVERAGE(G2:G101) + 1.96 * SQRT(SUMPRODUCT((G2:G101-AVERAGE(G2:G101))^2) / (COUNTA(G2:G101) - 1)) / SQRT(COUNTA(G2:G101))</f>
+        <v>0</v>
+      </c>
+      <c r="I107" s="11">
+        <f>AVERAGE(I2:I101) + 1.96 * SQRT(SUMPRODUCT((I2:I101-AVERAGE(I2:I101))^2) / (COUNTA(I2:I101) - 1)) / SQRT(COUNTA(I2:I101))</f>
+        <v>0</v>
+      </c>
+      <c r="J107" s="11">
+        <f>AVERAGE(J2:J101) + 1.96 * SQRT(SUMPRODUCT((J2:J101-AVERAGE(J2:J101))^2) / (COUNTA(J2:J101) - 1)) / SQRT(COUNTA(J2:J101))</f>
+        <v>5.9199999999999989E-2</v>
+      </c>
+      <c r="K107" s="11">
+        <f>AVERAGE(K2:K101) + 1.96 * SQRT(SUMPRODUCT((K2:K101-AVERAGE(K2:K101))^2) / (COUNTA(K2:K101) - 1)) / SQRT(COUNTA(K2:K101))</f>
+        <v>0</v>
+      </c>
+      <c r="M107" s="11">
+        <f>AVERAGE(M2:M101) + 1.96 * SQRT(SUMPRODUCT((M2:M101-AVERAGE(M2:M101))^2) / (COUNTA(M2:M101) - 1)) / SQRT(COUNTA(M2:M101))</f>
+        <v>2292.9863938174071</v>
+      </c>
+      <c r="N107" s="11">
+        <f>AVERAGE(N2:N101) + 1.96 * SQRT(SUMPRODUCT((N2:N101-AVERAGE(N2:N101))^2) / (COUNTA(N2:N101) - 1)) / SQRT(COUNTA(N2:N101))</f>
+        <v>2139.4484388513229</v>
+      </c>
+      <c r="O107" s="11">
+        <f>AVERAGE(O2:O101) + 1.96 * SQRT(SUMPRODUCT((O2:O101-AVERAGE(O2:O101))^2) / (COUNTA(O2:O101) - 1)) / SQRT(COUNTA(O2:O101))</f>
+        <v>2364.012161935485</v>
+      </c>
+      <c r="Q107" s="11">
+        <f>AVERAGE(Q2:Q101) + 1.96 * SQRT(SUMPRODUCT((Q2:Q101-AVERAGE(Q2:Q101))^2) / (COUNTA(Q2:Q101) - 1)) / SQRT(COUNTA(Q2:Q101))</f>
+        <v>38429216.743799433</v>
+      </c>
+      <c r="R107" s="11">
+        <f>AVERAGE(R2:R101) + 1.96 * SQRT(SUMPRODUCT((R2:R101-AVERAGE(R2:R101))^2) / (COUNTA(R2:R101) - 1)) / SQRT(COUNTA(R2:R101))</f>
+        <v>38405703.093939662</v>
+      </c>
+      <c r="S107" s="11">
+        <f>AVERAGE(S2:S101) + 1.96 * SQRT(SUMPRODUCT((S2:S101-AVERAGE(S2:S101))^2) / (COUNTA(S2:S101) - 1)) / SQRT(COUNTA(S2:S101))</f>
+        <v>40091562.049664795</v>
+      </c>
+      <c r="U107" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="108" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A108" s="11">
+        <f>AVERAGE(A2:A101) - 1.96 * SQRT(SUMPRODUCT((A2:A101-AVERAGE(A2:A101))^2) / (COUNTA(A2:A101) - 1)) / SQRT(COUNTA(A2:A101))</f>
+        <v>19.014117037974703</v>
+      </c>
+      <c r="B108" s="11">
+        <f>AVERAGE(B2:B101) - 1.96 * SQRT(SUMPRODUCT((B2:B101-AVERAGE(B2:B101))^2) / (COUNTA(B2:B101) - 1)) / SQRT(COUNTA(B2:B101))</f>
+        <v>18.845143523408314</v>
+      </c>
+      <c r="C108" s="11">
+        <f>AVERAGE(C2:C101) - 1.96 * SQRT(SUMPRODUCT((C2:C101-AVERAGE(C2:C101))^2) / (COUNTA(C2:C101) - 1)) / SQRT(COUNTA(C2:C101))</f>
+        <v>18.869530165222319</v>
+      </c>
+      <c r="E108" s="11">
+        <f>AVERAGE(E2:E101) - 1.96 * SQRT(SUMPRODUCT((E2:E101-AVERAGE(E2:E101))^2) / (COUNTA(E2:E101) - 1)) / SQRT(COUNTA(E2:E101))</f>
+        <v>0</v>
+      </c>
+      <c r="F108" s="11">
+        <f>AVERAGE(F2:F101) - 1.96 * SQRT(SUMPRODUCT((F2:F101-AVERAGE(F2:F101))^2) / (COUNTA(F2:F101) - 1)) / SQRT(COUNTA(F2:F101))</f>
+        <v>0</v>
+      </c>
+      <c r="G108" s="11">
+        <f>AVERAGE(G2:G101) - 1.96 * SQRT(SUMPRODUCT((G2:G101-AVERAGE(G2:G101))^2) / (COUNTA(G2:G101) - 1)) / SQRT(COUNTA(G2:G101))</f>
+        <v>0</v>
+      </c>
+      <c r="I108" s="11">
+        <f>AVERAGE(I2:I101) - 1.96 * SQRT(SUMPRODUCT((I2:I101-AVERAGE(I2:I101))^2) / (COUNTA(I2:I101) - 1)) / SQRT(COUNTA(I2:I101))</f>
+        <v>0</v>
+      </c>
+      <c r="J108" s="11">
+        <f>AVERAGE(J2:J101) - 1.96 * SQRT(SUMPRODUCT((J2:J101-AVERAGE(J2:J101))^2) / (COUNTA(J2:J101) - 1)) / SQRT(COUNTA(J2:J101))</f>
+        <v>-1.9199999999999984E-2</v>
+      </c>
+      <c r="K108" s="11">
+        <f>AVERAGE(K2:K101) - 1.96 * SQRT(SUMPRODUCT((K2:K101-AVERAGE(K2:K101))^2) / (COUNTA(K2:K101) - 1)) / SQRT(COUNTA(K2:K101))</f>
+        <v>0</v>
+      </c>
+      <c r="M108" s="11">
+        <f>AVERAGE(M2:M101) - 1.96 * SQRT(SUMPRODUCT((M2:M101-AVERAGE(M2:M101))^2) / (COUNTA(M2:M101) - 1)) / SQRT(COUNTA(M2:M101))</f>
+        <v>2292.853606182593</v>
+      </c>
+      <c r="N108" s="11">
+        <f>AVERAGE(N2:N101) - 1.96 * SQRT(SUMPRODUCT((N2:N101-AVERAGE(N2:N101))^2) / (COUNTA(N2:N101) - 1)) / SQRT(COUNTA(N2:N101))</f>
+        <v>2139.171561148677</v>
+      </c>
+      <c r="O108" s="11">
+        <f>AVERAGE(O2:O101) - 1.96 * SQRT(SUMPRODUCT((O2:O101-AVERAGE(O2:O101))^2) / (COUNTA(O2:O101) - 1)) / SQRT(COUNTA(O2:O101))</f>
+        <v>2363.5878380645154</v>
+      </c>
+      <c r="Q108" s="11">
+        <f>AVERAGE(Q2:Q101) - 1.96 * SQRT(SUMPRODUCT((Q2:Q101-AVERAGE(Q2:Q101))^2) / (COUNTA(Q2:Q101) - 1)) / SQRT(COUNTA(Q2:Q101))</f>
+        <v>35314770.996200562</v>
+      </c>
+      <c r="R108" s="11">
+        <f>AVERAGE(R2:R101) - 1.96 * SQRT(SUMPRODUCT((R2:R101-AVERAGE(R2:R101))^2) / (COUNTA(R2:R101) - 1)) / SQRT(COUNTA(R2:R101))</f>
+        <v>34975680.186060339</v>
+      </c>
+      <c r="S108" s="11">
+        <f>AVERAGE(S2:S101) - 1.96 * SQRT(SUMPRODUCT((S2:S101-AVERAGE(S2:S101))^2) / (COUNTA(S2:S101) - 1)) / SQRT(COUNTA(S2:S101))</f>
+        <v>36597202.050335199</v>
+      </c>
+      <c r="U108" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="110" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A110" s="11">
+        <f>AVERAGE(A2:A101) + 2.58 * SQRT(SUMPRODUCT((A2:A101-AVERAGE(A2:A101))^2) / (COUNTA(A2:A101) - 1)) / SQRT(COUNTA(A2:A101))</f>
+        <v>19.544029919400629</v>
+      </c>
+      <c r="B110" s="11">
+        <f>AVERAGE(B2:B101) + 2.58 * SQRT(SUMPRODUCT((B2:B101-AVERAGE(B2:B101))^2) / (COUNTA(B2:B101) - 1)) / SQRT(COUNTA(B2:B101))</f>
+        <v>19.441612606942126</v>
+      </c>
+      <c r="C110" s="11">
+        <f>AVERAGE(C2:C101) + 2.58 * SQRT(SUMPRODUCT((C2:C101-AVERAGE(C2:C101))^2) / (COUNTA(C2:C101) - 1)) / SQRT(COUNTA(C2:C101))</f>
+        <v>19.5014468233298</v>
+      </c>
+      <c r="E110" s="11">
+        <f>AVERAGE(E2:E101) + 2.58 * SQRT(SUMPRODUCT((E2:E101-AVERAGE(E2:E101))^2) / (COUNTA(E2:E101) - 1)) / SQRT(COUNTA(E2:E101))</f>
+        <v>0</v>
+      </c>
+      <c r="F110" s="11">
+        <f>AVERAGE(F2:F101) + 2.58 * SQRT(SUMPRODUCT((F2:F101-AVERAGE(F2:F101))^2) / (COUNTA(F2:F101) - 1)) / SQRT(COUNTA(F2:F101))</f>
+        <v>0</v>
+      </c>
+      <c r="G110" s="11">
+        <f>AVERAGE(G2:G101) + 2.58 * SQRT(SUMPRODUCT((G2:G101-AVERAGE(G2:G101))^2) / (COUNTA(G2:G101) - 1)) / SQRT(COUNTA(G2:G101))</f>
+        <v>0</v>
+      </c>
+      <c r="I110" s="11">
+        <f>AVERAGE(I2:I101) + 2.58 * SQRT(SUMPRODUCT((I2:I101-AVERAGE(I2:I101))^2) / (COUNTA(I2:I101) - 1)) / SQRT(COUNTA(I2:I101))</f>
+        <v>0</v>
+      </c>
+      <c r="J110" s="11">
+        <f>AVERAGE(J2:J101) + 2.58 * SQRT(SUMPRODUCT((J2:J101-AVERAGE(J2:J101))^2) / (COUNTA(J2:J101) - 1)) / SQRT(COUNTA(J2:J101))</f>
+        <v>7.1599999999999983E-2</v>
+      </c>
+      <c r="K110" s="11">
+        <f>AVERAGE(K2:K101) + 2.58 * SQRT(SUMPRODUCT((K2:K101-AVERAGE(K2:K101))^2) / (COUNTA(K2:K101) - 1)) / SQRT(COUNTA(K2:K101))</f>
+        <v>0</v>
+      </c>
+      <c r="M110" s="11">
+        <f>AVERAGE(M2:M101) + 2.58 * SQRT(SUMPRODUCT((M2:M101-AVERAGE(M2:M101))^2) / (COUNTA(M2:M101) - 1)) / SQRT(COUNTA(M2:M101))</f>
+        <v>2293.0073959433216</v>
+      </c>
+      <c r="N110" s="11">
+        <f>AVERAGE(N2:N101) + 2.58 * SQRT(SUMPRODUCT((N2:N101-AVERAGE(N2:N101))^2) / (COUNTA(N2:N101) - 1)) / SQRT(COUNTA(N2:N101))</f>
+        <v>2139.4922307328634</v>
+      </c>
+      <c r="O110" s="11">
+        <f>AVERAGE(O2:O101) + 2.58 * SQRT(SUMPRODUCT((O2:O101-AVERAGE(O2:O101))^2) / (COUNTA(O2:O101) - 1)) / SQRT(COUNTA(O2:O101))</f>
+        <v>2364.079274384465</v>
+      </c>
+      <c r="Q110" s="11">
+        <f>AVERAGE(Q2:Q101) + 2.58 * SQRT(SUMPRODUCT((Q2:Q101-AVERAGE(Q2:Q101))^2) / (COUNTA(Q2:Q101) - 1)) / SQRT(COUNTA(Q2:Q101))</f>
+        <v>38921807.652858436</v>
+      </c>
+      <c r="R110" s="11">
+        <f>AVERAGE(R2:R101) + 2.58 * SQRT(SUMPRODUCT((R2:R101-AVERAGE(R2:R101))^2) / (COUNTA(R2:R101) - 1)) / SQRT(COUNTA(R2:R101))</f>
+        <v>38948206.717124656</v>
+      </c>
+      <c r="S110" s="11">
+        <f>AVERAGE(S2:S101) + 2.58 * SQRT(SUMPRODUCT((S2:S101-AVERAGE(S2:S101))^2) / (COUNTA(S2:S101) - 1)) / SQRT(COUNTA(S2:S101))</f>
+        <v>40644241.43731387</v>
+      </c>
+      <c r="U110" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="111" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A111" s="11">
+        <f>AVERAGE(A2:A101) - 2.58 * SQRT(SUMPRODUCT((A2:A101-AVERAGE(A2:A101))^2) / (COUNTA(A2:A101) - 1)) / SQRT(COUNTA(A2:A101))</f>
+        <v>18.941750080599355</v>
+      </c>
+      <c r="B111" s="11">
+        <f>AVERAGE(B2:B101) - 2.58 * SQRT(SUMPRODUCT((B2:B101-AVERAGE(B2:B101))^2) / (COUNTA(B2:B101) - 1)) / SQRT(COUNTA(B2:B101))</f>
+        <v>18.763687393057882</v>
+      </c>
+      <c r="C111" s="11">
+        <f>AVERAGE(C2:C101) - 2.58 * SQRT(SUMPRODUCT((C2:C101-AVERAGE(C2:C101))^2) / (COUNTA(C2:C101) - 1)) / SQRT(COUNTA(C2:C101))</f>
+        <v>18.783233176670194</v>
+      </c>
+      <c r="E111" s="11">
+        <f>AVERAGE(E2:E101) - 2.58 * SQRT(SUMPRODUCT((E2:E101-AVERAGE(E2:E101))^2) / (COUNTA(E2:E101) - 1)) / SQRT(COUNTA(E2:E101))</f>
+        <v>0</v>
+      </c>
+      <c r="F111" s="11">
+        <f>AVERAGE(F2:F101) - 2.58 * SQRT(SUMPRODUCT((F2:F101-AVERAGE(F2:F101))^2) / (COUNTA(F2:F101) - 1)) / SQRT(COUNTA(F2:F101))</f>
+        <v>0</v>
+      </c>
+      <c r="G111" s="11">
+        <f>AVERAGE(G2:G101) - 2.58 * SQRT(SUMPRODUCT((G2:G101-AVERAGE(G2:G101))^2) / (COUNTA(G2:G101) - 1)) / SQRT(COUNTA(G2:G101))</f>
+        <v>0</v>
+      </c>
+      <c r="I111" s="11">
+        <f>AVERAGE(I2:I101) - 2.58 * SQRT(SUMPRODUCT((I2:I101-AVERAGE(I2:I101))^2) / (COUNTA(I2:I101) - 1)) / SQRT(COUNTA(I2:I101))</f>
+        <v>0</v>
+      </c>
+      <c r="J111" s="11">
+        <f>AVERAGE(J2:J101) - 2.58 * SQRT(SUMPRODUCT((J2:J101-AVERAGE(J2:J101))^2) / (COUNTA(J2:J101) - 1)) / SQRT(COUNTA(J2:J101))</f>
+        <v>-3.1599999999999975E-2</v>
+      </c>
+      <c r="K111" s="11">
+        <f>AVERAGE(K2:K101) - 2.58 * SQRT(SUMPRODUCT((K2:K101-AVERAGE(K2:K101))^2) / (COUNTA(K2:K101) - 1)) / SQRT(COUNTA(K2:K101))</f>
+        <v>0</v>
+      </c>
+      <c r="M111" s="11">
+        <f>AVERAGE(M2:M101) - 2.58 * SQRT(SUMPRODUCT((M2:M101-AVERAGE(M2:M101))^2) / (COUNTA(M2:M101) - 1)) / SQRT(COUNTA(M2:M101))</f>
+        <v>2292.8326040566785</v>
+      </c>
+      <c r="N111" s="11">
+        <f>AVERAGE(N2:N101) - 2.58 * SQRT(SUMPRODUCT((N2:N101-AVERAGE(N2:N101))^2) / (COUNTA(N2:N101) - 1)) / SQRT(COUNTA(N2:N101))</f>
+        <v>2139.1277692671365</v>
+      </c>
+      <c r="O111" s="11">
+        <f>AVERAGE(O2:O101) - 2.58 * SQRT(SUMPRODUCT((O2:O101-AVERAGE(O2:O101))^2) / (COUNTA(O2:O101) - 1)) / SQRT(COUNTA(O2:O101))</f>
+        <v>2363.5207256155354</v>
+      </c>
+      <c r="Q111" s="11">
+        <f>AVERAGE(Q2:Q101) - 2.58 * SQRT(SUMPRODUCT((Q2:Q101-AVERAGE(Q2:Q101))^2) / (COUNTA(Q2:Q101) - 1)) / SQRT(COUNTA(Q2:Q101))</f>
+        <v>34822180.087141559</v>
+      </c>
+      <c r="R111" s="11">
+        <f>AVERAGE(R2:R101) - 2.58 * SQRT(SUMPRODUCT((R2:R101-AVERAGE(R2:R101))^2) / (COUNTA(R2:R101) - 1)) / SQRT(COUNTA(R2:R101))</f>
+        <v>34433176.562875345</v>
+      </c>
+      <c r="S111" s="11">
+        <f>AVERAGE(S2:S101) - 2.58 * SQRT(SUMPRODUCT((S2:S101-AVERAGE(S2:S101))^2) / (COUNTA(S2:S101) - 1)) / SQRT(COUNTA(S2:S101))</f>
+        <v>36044522.662686124</v>
+      </c>
+      <c r="U111" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>23</v>
+      </c>
+      <c r="B113" t="s">
+        <v>24</v>
+      </c>
+      <c r="C113" t="s">
+        <v>25</v>
+      </c>
+      <c r="E113" t="s">
+        <v>26</v>
+      </c>
+      <c r="F113" t="s">
+        <v>27</v>
+      </c>
+      <c r="G113" t="s">
+        <v>28</v>
+      </c>
+      <c r="I113" t="s">
+        <v>29</v>
+      </c>
+      <c r="J113" t="s">
+        <v>30</v>
+      </c>
+      <c r="K113" t="s">
+        <v>31</v>
+      </c>
+      <c r="M113" t="s">
+        <v>32</v>
+      </c>
+      <c r="N113" t="s">
+        <v>33</v>
+      </c>
+      <c r="O113" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q113" t="s">
+        <v>35</v>
+      </c>
+      <c r="R113" t="s">
+        <v>36</v>
+      </c>
+      <c r="S113" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="114" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>38</v>
+      </c>
+      <c r="B114" t="s">
+        <v>39</v>
+      </c>
+      <c r="C114" t="s">
+        <v>40</v>
+      </c>
+      <c r="E114" t="s">
+        <v>41</v>
+      </c>
+      <c r="F114" t="s">
+        <v>42</v>
+      </c>
+      <c r="G114" t="s">
+        <v>43</v>
+      </c>
+      <c r="I114" t="s">
+        <v>44</v>
+      </c>
+      <c r="J114" t="s">
+        <v>45</v>
+      </c>
+      <c r="K114" t="s">
+        <v>46</v>
+      </c>
+      <c r="M114" t="s">
+        <v>47</v>
+      </c>
+      <c r="N114" t="s">
+        <v>48</v>
+      </c>
+      <c r="O114" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q114" t="s">
+        <v>50</v>
+      </c>
+      <c r="R114" t="s">
+        <v>51</v>
+      </c>
+      <c r="S114" t="s">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U105"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:U114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
@@ -13465,10 +14435,10 @@
         <v>19.288</v>
       </c>
       <c r="B2" s="2">
-        <v>19.295</v>
+        <v>19.295000000000002</v>
       </c>
       <c r="C2" s="3">
-        <v>17.156</v>
+        <v>17.155999999999999</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -13524,7 +14494,7 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>18.755</v>
+        <v>18.754999999999999</v>
       </c>
       <c r="B3" s="2">
         <v>19.209</v>
@@ -13586,10 +14556,10 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>18.4</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="B4" s="2">
-        <v>20.091</v>
+        <v>20.091000000000001</v>
       </c>
       <c r="C4" s="3">
         <v>17.244</v>
@@ -13648,13 +14618,13 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>20.392</v>
+        <v>20.391999999999999</v>
       </c>
       <c r="B5" s="2">
-        <v>18.639</v>
+        <v>18.638999999999999</v>
       </c>
       <c r="C5" s="3">
-        <v>16.182</v>
+        <v>16.181999999999999</v>
       </c>
       <c r="D5" t="s">
         <v>3</v>
@@ -13710,10 +14680,10 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>19.876</v>
+        <v>19.876000000000001</v>
       </c>
       <c r="B6" s="2">
-        <v>21.216</v>
+        <v>21.216000000000001</v>
       </c>
       <c r="C6" s="3">
         <v>19.52</v>
@@ -13778,7 +14748,7 @@
         <v>18.936</v>
       </c>
       <c r="C7" s="3">
-        <v>16.315</v>
+        <v>16.315000000000001</v>
       </c>
       <c r="D7" t="s">
         <v>3</v>
@@ -13834,13 +14804,13 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>19.624</v>
+        <v>19.623999999999999</v>
       </c>
       <c r="B8" s="2">
         <v>19.02</v>
       </c>
       <c r="C8" s="3">
-        <v>18.553</v>
+        <v>18.553000000000001</v>
       </c>
       <c r="D8" t="s">
         <v>3</v>
@@ -13896,7 +14866,7 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>18.583</v>
+        <v>18.582999999999998</v>
       </c>
       <c r="B9" s="2">
         <v>18.573</v>
@@ -13958,7 +14928,7 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>20.736</v>
+        <v>20.736000000000001</v>
       </c>
       <c r="B10" s="2">
         <v>21.395</v>
@@ -14020,13 +14990,13 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>20.781</v>
+        <v>20.780999999999999</v>
       </c>
       <c r="B11" s="2">
-        <v>19.429</v>
+        <v>19.428999999999998</v>
       </c>
       <c r="C11" s="3">
-        <v>20.726</v>
+        <v>20.725999999999999</v>
       </c>
       <c r="D11" t="s">
         <v>3</v>
@@ -14082,10 +15052,10 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>19.816</v>
+        <v>19.815999999999999</v>
       </c>
       <c r="B12" s="2">
-        <v>20.17</v>
+        <v>20.170000000000002</v>
       </c>
       <c r="C12" s="3">
         <v>19.544</v>
@@ -14147,10 +15117,10 @@
         <v>20.724</v>
       </c>
       <c r="B13" s="2">
-        <v>16.487</v>
+        <v>16.486999999999998</v>
       </c>
       <c r="C13" s="3">
-        <v>19.848</v>
+        <v>19.847999999999999</v>
       </c>
       <c r="D13" t="s">
         <v>3</v>
@@ -14206,13 +15176,13 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>20.344</v>
+        <v>20.344000000000001</v>
       </c>
       <c r="B14" s="2">
-        <v>18.513</v>
+        <v>18.513000000000002</v>
       </c>
       <c r="C14" s="3">
-        <v>19.028</v>
+        <v>19.027999999999999</v>
       </c>
       <c r="D14" t="s">
         <v>3</v>
@@ -14268,13 +15238,13 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>19.147</v>
+        <v>19.146999999999998</v>
       </c>
       <c r="B15" s="2">
         <v>16.145</v>
       </c>
       <c r="C15" s="3">
-        <v>19.08</v>
+        <v>19.079999999999998</v>
       </c>
       <c r="D15" t="s">
         <v>3</v>
@@ -14336,7 +15306,7 @@
         <v>21.07</v>
       </c>
       <c r="C16" s="3">
-        <v>19.4</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="D16" t="s">
         <v>3</v>
@@ -14454,10 +15424,10 @@
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>20.106</v>
+        <v>20.106000000000002</v>
       </c>
       <c r="B18" s="2">
-        <v>17.859</v>
+        <v>17.859000000000002</v>
       </c>
       <c r="C18" s="3">
         <v>18.613</v>
@@ -14516,13 +15486,13 @@
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>20.737</v>
+        <v>20.736999999999998</v>
       </c>
       <c r="B19" s="2">
-        <v>17.781</v>
+        <v>17.780999999999999</v>
       </c>
       <c r="C19" s="3">
-        <v>19.255</v>
+        <v>19.254999999999999</v>
       </c>
       <c r="D19" t="s">
         <v>3</v>
@@ -14584,7 +15554,7 @@
         <v>17.224</v>
       </c>
       <c r="C20" s="3">
-        <v>19.891</v>
+        <v>19.890999999999998</v>
       </c>
       <c r="D20" t="s">
         <v>3</v>
@@ -14640,10 +15610,10 @@
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>20.847</v>
+        <v>20.847000000000001</v>
       </c>
       <c r="B21" s="2">
-        <v>17.579</v>
+        <v>17.579000000000001</v>
       </c>
       <c r="C21" s="3">
         <v>17.192</v>
@@ -14702,13 +15672,13 @@
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>20.768</v>
+        <v>20.768000000000001</v>
       </c>
       <c r="B22" s="2">
-        <v>18.485</v>
+        <v>18.484999999999999</v>
       </c>
       <c r="C22" s="3">
-        <v>18.322</v>
+        <v>18.321999999999999</v>
       </c>
       <c r="D22" t="s">
         <v>3</v>
@@ -14764,13 +15734,13 @@
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>18.912</v>
+        <v>18.911999999999999</v>
       </c>
       <c r="B23" s="2">
         <v>18.497</v>
       </c>
       <c r="C23" s="3">
-        <v>20.24</v>
+        <v>20.239999999999998</v>
       </c>
       <c r="D23" t="s">
         <v>3</v>
@@ -14826,10 +15796,10 @@
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>17.931</v>
+        <v>17.931000000000001</v>
       </c>
       <c r="B24" s="2">
-        <v>17.493</v>
+        <v>17.492999999999999</v>
       </c>
       <c r="C24" s="3">
         <v>18.442</v>
@@ -14888,13 +15858,13 @@
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>19.328</v>
+        <v>19.327999999999999</v>
       </c>
       <c r="B25" s="2">
-        <v>19.528</v>
+        <v>19.527999999999999</v>
       </c>
       <c r="C25" s="3">
-        <v>20.185</v>
+        <v>20.184999999999999</v>
       </c>
       <c r="D25" t="s">
         <v>3</v>
@@ -14950,13 +15920,13 @@
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>21.463</v>
+        <v>21.463000000000001</v>
       </c>
       <c r="B26" s="2">
-        <v>19.653</v>
+        <v>19.652999999999999</v>
       </c>
       <c r="C26" s="3">
-        <v>20.441</v>
+        <v>20.440999999999999</v>
       </c>
       <c r="D26" t="s">
         <v>3</v>
@@ -15015,7 +15985,7 @@
         <v>19.497</v>
       </c>
       <c r="B27" s="2">
-        <v>19.339</v>
+        <v>19.338999999999999</v>
       </c>
       <c r="C27" s="3">
         <v>17.721</v>
@@ -15074,13 +16044,13 @@
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>19.568</v>
+        <v>19.568000000000001</v>
       </c>
       <c r="B28" s="2">
-        <v>19.499</v>
+        <v>19.498999999999999</v>
       </c>
       <c r="C28" s="3">
-        <v>18.351</v>
+        <v>18.350999999999999</v>
       </c>
       <c r="D28" t="s">
         <v>3</v>
@@ -15136,13 +16106,13 @@
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>19.678</v>
+        <v>19.678000000000001</v>
       </c>
       <c r="B29" s="2">
-        <v>21.309</v>
+        <v>21.309000000000001</v>
       </c>
       <c r="C29" s="3">
-        <v>18.071</v>
+        <v>18.071000000000002</v>
       </c>
       <c r="D29" t="s">
         <v>3</v>
@@ -15198,13 +16168,13 @@
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>19.557</v>
+        <v>19.556999999999999</v>
       </c>
       <c r="B30" s="2">
         <v>21.259</v>
       </c>
       <c r="C30" s="3">
-        <v>20.923</v>
+        <v>20.922999999999998</v>
       </c>
       <c r="D30" t="s">
         <v>3</v>
@@ -15260,10 +16230,10 @@
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>19.925</v>
+        <v>19.925000000000001</v>
       </c>
       <c r="B31" s="2">
-        <v>20.289</v>
+        <v>20.289000000000001</v>
       </c>
       <c r="C31" s="3">
         <v>21.613</v>
@@ -15322,13 +16292,13 @@
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>19.197</v>
+        <v>19.196999999999999</v>
       </c>
       <c r="B32" s="2">
-        <v>19.563</v>
+        <v>19.562999999999999</v>
       </c>
       <c r="C32" s="3">
-        <v>19.888</v>
+        <v>19.888000000000002</v>
       </c>
       <c r="D32" t="s">
         <v>3</v>
@@ -15384,13 +16354,13 @@
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>19.225</v>
+        <v>19.225000000000001</v>
       </c>
       <c r="B33" s="2">
-        <v>17.469</v>
+        <v>17.469000000000001</v>
       </c>
       <c r="C33" s="3">
-        <v>19.328</v>
+        <v>19.327999999999999</v>
       </c>
       <c r="D33" t="s">
         <v>3</v>
@@ -15446,10 +16416,10 @@
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>20.635</v>
+        <v>20.635000000000002</v>
       </c>
       <c r="B34" s="2">
-        <v>18.845</v>
+        <v>18.844999999999999</v>
       </c>
       <c r="C34" s="3">
         <v>17.95</v>
@@ -15508,7 +16478,7 @@
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>21.219</v>
+        <v>21.219000000000001</v>
       </c>
       <c r="B35" s="2">
         <v>20.058</v>
@@ -15570,13 +16540,13 @@
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>20.06</v>
+        <v>20.059999999999999</v>
       </c>
       <c r="B36" s="2">
-        <v>19.191</v>
+        <v>19.190999999999999</v>
       </c>
       <c r="C36" s="3">
-        <v>19.673</v>
+        <v>19.672999999999998</v>
       </c>
       <c r="D36" t="s">
         <v>3</v>
@@ -15632,10 +16602,10 @@
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>19.329</v>
+        <v>19.329000000000001</v>
       </c>
       <c r="B37" s="2">
-        <v>19.071</v>
+        <v>19.071000000000002</v>
       </c>
       <c r="C37" s="3">
         <v>20.57</v>
@@ -15694,7 +16664,7 @@
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>21.193</v>
+        <v>21.193000000000001</v>
       </c>
       <c r="B38" s="2">
         <v>19.625</v>
@@ -15756,13 +16726,13 @@
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>18.473</v>
+        <v>18.472999999999999</v>
       </c>
       <c r="B39" s="2">
         <v>19.651</v>
       </c>
       <c r="C39" s="3">
-        <v>19.082</v>
+        <v>19.082000000000001</v>
       </c>
       <c r="D39" t="s">
         <v>3</v>
@@ -15818,13 +16788,13 @@
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>19.828</v>
+        <v>19.827999999999999</v>
       </c>
       <c r="B40" s="2">
-        <v>17.425</v>
+        <v>17.425000000000001</v>
       </c>
       <c r="C40" s="3">
-        <v>21.016</v>
+        <v>21.015999999999998</v>
       </c>
       <c r="D40" t="s">
         <v>3</v>
@@ -15883,7 +16853,7 @@
         <v>19.564</v>
       </c>
       <c r="B41" s="2">
-        <v>20.197</v>
+        <v>20.196999999999999</v>
       </c>
       <c r="C41" s="3">
         <v>17.404</v>
@@ -15942,10 +16912,10 @@
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>18.319</v>
+        <v>18.318999999999999</v>
       </c>
       <c r="B42" s="2">
-        <v>19.263</v>
+        <v>19.263000000000002</v>
       </c>
       <c r="C42" s="3">
         <v>18.503</v>
@@ -16004,13 +16974,13 @@
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>21.167</v>
+        <v>21.167000000000002</v>
       </c>
       <c r="B43" s="2">
         <v>18.794</v>
       </c>
       <c r="C43" s="3">
-        <v>19.083</v>
+        <v>19.082999999999998</v>
       </c>
       <c r="D43" t="s">
         <v>3</v>
@@ -16066,13 +17036,13 @@
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>19.664</v>
+        <v>19.664000000000001</v>
       </c>
       <c r="B44" s="2">
-        <v>17.891</v>
+        <v>17.890999999999998</v>
       </c>
       <c r="C44" s="3">
-        <v>19.216</v>
+        <v>19.216000000000001</v>
       </c>
       <c r="D44" t="s">
         <v>3</v>
@@ -16131,10 +17101,10 @@
         <v>18.78</v>
       </c>
       <c r="B45" s="2">
-        <v>20.464</v>
+        <v>20.463999999999999</v>
       </c>
       <c r="C45" s="3">
-        <v>20.149</v>
+        <v>20.149000000000001</v>
       </c>
       <c r="D45" t="s">
         <v>3</v>
@@ -16190,13 +17160,13 @@
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>18.011</v>
+        <v>18.010999999999999</v>
       </c>
       <c r="B46" s="2">
-        <v>17.329</v>
+        <v>17.329000000000001</v>
       </c>
       <c r="C46" s="3">
-        <v>21.162</v>
+        <v>21.161999999999999</v>
       </c>
       <c r="D46" t="s">
         <v>3</v>
@@ -16252,7 +17222,7 @@
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>18.545</v>
+        <v>18.545000000000002</v>
       </c>
       <c r="B47" s="2">
         <v>19.718</v>
@@ -16314,7 +17284,7 @@
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>20.821</v>
+        <v>20.821000000000002</v>
       </c>
       <c r="B48" s="2">
         <v>16.073</v>
@@ -16376,10 +17346,10 @@
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>18.703</v>
+        <v>18.702999999999999</v>
       </c>
       <c r="B49" s="2">
-        <v>17.207</v>
+        <v>17.207000000000001</v>
       </c>
       <c r="C49" s="3">
         <v>21.003</v>
@@ -16438,13 +17408,13 @@
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>19.672</v>
+        <v>19.672000000000001</v>
       </c>
       <c r="B50" s="2">
-        <v>18.986</v>
+        <v>18.986000000000001</v>
       </c>
       <c r="C50" s="3">
-        <v>19.06</v>
+        <v>19.059999999999999</v>
       </c>
       <c r="D50" t="s">
         <v>3</v>
@@ -16500,13 +17470,13 @@
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>19.309</v>
+        <v>19.309000000000001</v>
       </c>
       <c r="B51" s="2">
         <v>18.84</v>
       </c>
       <c r="C51" s="3">
-        <v>18.941</v>
+        <v>18.940999999999999</v>
       </c>
       <c r="D51" t="s">
         <v>3</v>
@@ -16562,13 +17532,13 @@
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>18.829</v>
+        <v>18.829000000000001</v>
       </c>
       <c r="B52" s="2">
-        <v>18.917</v>
+        <v>18.917000000000002</v>
       </c>
       <c r="C52" s="3">
-        <v>18.382</v>
+        <v>18.382000000000001</v>
       </c>
       <c r="D52" t="s">
         <v>3</v>
@@ -16624,7 +17594,7 @@
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>21.292</v>
+        <v>21.292000000000002</v>
       </c>
       <c r="B53" s="2">
         <v>21.343</v>
@@ -16686,13 +17656,13 @@
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>19.545</v>
+        <v>19.545000000000002</v>
       </c>
       <c r="B54" s="2">
-        <v>19.408</v>
+        <v>19.408000000000001</v>
       </c>
       <c r="C54" s="3">
-        <v>19.915</v>
+        <v>19.914999999999999</v>
       </c>
       <c r="D54" t="s">
         <v>3</v>
@@ -16751,10 +17721,10 @@
         <v>19.224</v>
       </c>
       <c r="B55" s="2">
-        <v>20.031</v>
+        <v>20.030999999999999</v>
       </c>
       <c r="C55" s="3">
-        <v>17.429</v>
+        <v>17.428999999999998</v>
       </c>
       <c r="D55" t="s">
         <v>3</v>
@@ -16816,7 +17786,7 @@
         <v>19.45</v>
       </c>
       <c r="C56" s="3">
-        <v>20.607</v>
+        <v>20.606999999999999</v>
       </c>
       <c r="D56" t="s">
         <v>3</v>
@@ -16872,13 +17842,13 @@
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>20.534</v>
+        <v>20.533999999999999</v>
       </c>
       <c r="B57" s="2">
         <v>19.125</v>
       </c>
       <c r="C57" s="3">
-        <v>19.879</v>
+        <v>19.879000000000001</v>
       </c>
       <c r="D57" t="s">
         <v>3</v>
@@ -16934,13 +17904,13 @@
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>21.554</v>
+        <v>21.553999999999998</v>
       </c>
       <c r="B58" s="2">
         <v>21.19</v>
       </c>
       <c r="C58" s="3">
-        <v>19.585</v>
+        <v>19.585000000000001</v>
       </c>
       <c r="D58" t="s">
         <v>3</v>
@@ -16996,13 +17966,13 @@
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>20.422</v>
+        <v>20.422000000000001</v>
       </c>
       <c r="B59" s="2">
-        <v>20.307</v>
+        <v>20.306999999999999</v>
       </c>
       <c r="C59" s="3">
-        <v>18.525</v>
+        <v>18.524999999999999</v>
       </c>
       <c r="D59" t="s">
         <v>3</v>
@@ -17058,13 +18028,13 @@
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>19.264</v>
+        <v>19.263999999999999</v>
       </c>
       <c r="B60" s="2">
-        <v>19.014</v>
+        <v>19.013999999999999</v>
       </c>
       <c r="C60" s="3">
-        <v>16.845</v>
+        <v>16.844999999999999</v>
       </c>
       <c r="D60" t="s">
         <v>3</v>
@@ -17120,7 +18090,7 @@
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>19.833</v>
+        <v>19.832999999999998</v>
       </c>
       <c r="B61" s="2">
         <v>20.616</v>
@@ -17182,13 +18152,13 @@
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>20.899</v>
+        <v>20.899000000000001</v>
       </c>
       <c r="B62" s="2">
-        <v>17.612</v>
+        <v>17.611999999999998</v>
       </c>
       <c r="C62" s="3">
-        <v>17.859</v>
+        <v>17.859000000000002</v>
       </c>
       <c r="D62" t="s">
         <v>3</v>
@@ -17244,13 +18214,13 @@
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>18.281</v>
+        <v>18.280999999999999</v>
       </c>
       <c r="B63" s="2">
-        <v>19.065</v>
+        <v>19.065000000000001</v>
       </c>
       <c r="C63" s="3">
-        <v>20.155</v>
+        <v>20.155000000000001</v>
       </c>
       <c r="D63" t="s">
         <v>3</v>
@@ -17309,7 +18279,7 @@
         <v>19.78</v>
       </c>
       <c r="B64" s="2">
-        <v>17.767</v>
+        <v>17.766999999999999</v>
       </c>
       <c r="C64" s="3">
         <v>20.331</v>
@@ -17368,13 +18338,13 @@
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>21.196</v>
+        <v>21.196000000000002</v>
       </c>
       <c r="B65" s="2">
         <v>17.718</v>
       </c>
       <c r="C65" s="3">
-        <v>18.568</v>
+        <v>18.568000000000001</v>
       </c>
       <c r="D65" t="s">
         <v>3</v>
@@ -17430,13 +18400,13 @@
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>19.303</v>
+        <v>19.303000000000001</v>
       </c>
       <c r="B66" s="2">
-        <v>21.152</v>
+        <v>21.152000000000001</v>
       </c>
       <c r="C66" s="3">
-        <v>21.076</v>
+        <v>21.076000000000001</v>
       </c>
       <c r="D66" t="s">
         <v>3</v>
@@ -17495,10 +18465,10 @@
         <v>19.343</v>
       </c>
       <c r="B67" s="2">
-        <v>21.234</v>
+        <v>21.234000000000002</v>
       </c>
       <c r="C67" s="3">
-        <v>19.818</v>
+        <v>19.818000000000001</v>
       </c>
       <c r="D67" t="s">
         <v>3</v>
@@ -17557,10 +18527,10 @@
         <v>20.83</v>
       </c>
       <c r="B68" s="2">
-        <v>20.339</v>
+        <v>20.338999999999999</v>
       </c>
       <c r="C68" s="3">
-        <v>19.246</v>
+        <v>19.245999999999999</v>
       </c>
       <c r="D68" t="s">
         <v>3</v>
@@ -17616,13 +18586,13 @@
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>19.931</v>
+        <v>19.931000000000001</v>
       </c>
       <c r="B69" s="2">
         <v>18.823</v>
       </c>
       <c r="C69" s="3">
-        <v>19.386</v>
+        <v>19.385999999999999</v>
       </c>
       <c r="D69" t="s">
         <v>3</v>
@@ -17678,13 +18648,13 @@
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>18.767</v>
+        <v>18.766999999999999</v>
       </c>
       <c r="B70" s="2">
         <v>18.032</v>
       </c>
       <c r="C70" s="3">
-        <v>20.286</v>
+        <v>20.286000000000001</v>
       </c>
       <c r="D70" t="s">
         <v>3</v>
@@ -17746,7 +18716,7 @@
         <v>18.71</v>
       </c>
       <c r="C71" s="3">
-        <v>18.191</v>
+        <v>18.190999999999999</v>
       </c>
       <c r="D71" t="s">
         <v>3</v>
@@ -17802,13 +18772,13 @@
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>19.344</v>
+        <v>19.344000000000001</v>
       </c>
       <c r="B72" s="2">
         <v>18.038</v>
       </c>
       <c r="C72" s="3">
-        <v>17.627</v>
+        <v>17.626999999999999</v>
       </c>
       <c r="D72" t="s">
         <v>3</v>
@@ -17867,10 +18837,10 @@
         <v>21.093</v>
       </c>
       <c r="B73" s="2">
-        <v>19.899</v>
+        <v>19.899000000000001</v>
       </c>
       <c r="C73" s="3">
-        <v>17.909</v>
+        <v>17.908999999999999</v>
       </c>
       <c r="D73" t="s">
         <v>3</v>
@@ -17926,13 +18896,13 @@
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>18.931</v>
+        <v>18.931000000000001</v>
       </c>
       <c r="B74" s="2">
-        <v>18.524</v>
+        <v>18.524000000000001</v>
       </c>
       <c r="C74" s="3">
-        <v>18.858</v>
+        <v>18.858000000000001</v>
       </c>
       <c r="D74" t="s">
         <v>3</v>
@@ -17988,10 +18958,10 @@
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>19.592</v>
+        <v>19.591999999999999</v>
       </c>
       <c r="B75" s="2">
-        <v>18.764</v>
+        <v>18.763999999999999</v>
       </c>
       <c r="C75" s="3">
         <v>18.18</v>
@@ -18050,13 +19020,13 @@
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>19.454</v>
+        <v>19.454000000000001</v>
       </c>
       <c r="B76" s="2">
-        <v>17.391</v>
+        <v>17.390999999999998</v>
       </c>
       <c r="C76" s="3">
-        <v>17.652</v>
+        <v>17.652000000000001</v>
       </c>
       <c r="D76" t="s">
         <v>3</v>
@@ -18112,13 +19082,13 @@
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>18.405</v>
+        <v>18.405000000000001</v>
       </c>
       <c r="B77" s="2">
-        <v>18.925</v>
+        <v>18.925000000000001</v>
       </c>
       <c r="C77" s="3">
-        <v>17.85</v>
+        <v>17.850000000000001</v>
       </c>
       <c r="D77" t="s">
         <v>3</v>
@@ -18174,13 +19144,13 @@
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>20.522</v>
+        <v>20.521999999999998</v>
       </c>
       <c r="B78" s="2">
-        <v>17.816</v>
+        <v>17.815999999999999</v>
       </c>
       <c r="C78" s="3">
-        <v>18.847</v>
+        <v>18.847000000000001</v>
       </c>
       <c r="D78" t="s">
         <v>3</v>
@@ -18236,10 +19206,10 @@
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>20.059</v>
+        <v>20.059000000000001</v>
       </c>
       <c r="B79" s="2">
-        <v>18.829</v>
+        <v>18.829000000000001</v>
       </c>
       <c r="C79" s="3">
         <v>19.311</v>
@@ -18298,7 +19268,7 @@
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>18.876</v>
+        <v>18.876000000000001</v>
       </c>
       <c r="B80" s="2">
         <v>19.477</v>
@@ -18360,13 +19330,13 @@
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>20.545</v>
+        <v>20.545000000000002</v>
       </c>
       <c r="B81" s="2">
-        <v>16.071</v>
+        <v>16.071000000000002</v>
       </c>
       <c r="C81" s="3">
-        <v>19.171</v>
+        <v>19.170999999999999</v>
       </c>
       <c r="D81" t="s">
         <v>3</v>
@@ -18422,7 +19392,7 @@
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>18.804</v>
+        <v>18.803999999999998</v>
       </c>
       <c r="B82" s="2">
         <v>20.93</v>
@@ -18487,10 +19457,10 @@
         <v>20.241</v>
       </c>
       <c r="B83" s="2">
-        <v>21.595</v>
+        <v>21.594999999999999</v>
       </c>
       <c r="C83" s="3">
-        <v>17.861</v>
+        <v>17.861000000000001</v>
       </c>
       <c r="D83" t="s">
         <v>3</v>
@@ -18549,10 +19519,10 @@
         <v>19.72</v>
       </c>
       <c r="B84" s="2">
-        <v>19.321</v>
+        <v>19.321000000000002</v>
       </c>
       <c r="C84" s="3">
-        <v>17.01</v>
+        <v>17.010000000000002</v>
       </c>
       <c r="D84" t="s">
         <v>3</v>
@@ -18608,10 +19578,10 @@
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>21.048</v>
+        <v>21.047999999999998</v>
       </c>
       <c r="B85" s="2">
-        <v>20.607</v>
+        <v>20.606999999999999</v>
       </c>
       <c r="C85" s="3">
         <v>17.43</v>
@@ -18670,13 +19640,13 @@
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>20.731</v>
+        <v>20.731000000000002</v>
       </c>
       <c r="B86" s="2">
         <v>20.907</v>
       </c>
       <c r="C86" s="3">
-        <v>17.856</v>
+        <v>17.856000000000002</v>
       </c>
       <c r="D86" t="s">
         <v>3</v>
@@ -18732,13 +19702,13 @@
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>18.893</v>
+        <v>18.893000000000001</v>
       </c>
       <c r="B87" s="2">
-        <v>16.828</v>
+        <v>16.827999999999999</v>
       </c>
       <c r="C87" s="3">
-        <v>17.335</v>
+        <v>17.335000000000001</v>
       </c>
       <c r="D87" t="s">
         <v>3</v>
@@ -18797,10 +19767,10 @@
         <v>20.53</v>
       </c>
       <c r="B88" s="2">
-        <v>17.733</v>
+        <v>17.733000000000001</v>
       </c>
       <c r="C88" s="3">
-        <v>18.385</v>
+        <v>18.385000000000002</v>
       </c>
       <c r="D88" t="s">
         <v>3</v>
@@ -18862,7 +19832,7 @@
         <v>21.285</v>
       </c>
       <c r="C89" s="3">
-        <v>19.853</v>
+        <v>19.853000000000002</v>
       </c>
       <c r="D89" t="s">
         <v>3</v>
@@ -18918,13 +19888,13 @@
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>20.139</v>
+        <v>20.138999999999999</v>
       </c>
       <c r="B90" s="2">
-        <v>19.437</v>
+        <v>19.437000000000001</v>
       </c>
       <c r="C90" s="3">
-        <v>18.579</v>
+        <v>18.579000000000001</v>
       </c>
       <c r="D90" t="s">
         <v>3</v>
@@ -18983,10 +19953,10 @@
         <v>18.331</v>
       </c>
       <c r="B91" s="2">
-        <v>19.255</v>
+        <v>19.254999999999999</v>
       </c>
       <c r="C91" s="3">
-        <v>17.493</v>
+        <v>17.492999999999999</v>
       </c>
       <c r="D91" t="s">
         <v>3</v>
@@ -19042,13 +20012,13 @@
     </row>
     <row r="92" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>17.854</v>
+        <v>17.853999999999999</v>
       </c>
       <c r="B92" s="2">
-        <v>20.999</v>
+        <v>20.998999999999999</v>
       </c>
       <c r="C92" s="3">
-        <v>17.909</v>
+        <v>17.908999999999999</v>
       </c>
       <c r="D92" t="s">
         <v>3</v>
@@ -19104,13 +20074,13 @@
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>19.496</v>
+        <v>19.495999999999999</v>
       </c>
       <c r="B93" s="2">
-        <v>17.675</v>
+        <v>17.675000000000001</v>
       </c>
       <c r="C93" s="3">
-        <v>20.008</v>
+        <v>20.007999999999999</v>
       </c>
       <c r="D93" t="s">
         <v>3</v>
@@ -19169,10 +20139,10 @@
         <v>19.16</v>
       </c>
       <c r="B94" s="2">
-        <v>18.313</v>
+        <v>18.312999999999999</v>
       </c>
       <c r="C94" s="3">
-        <v>16.211</v>
+        <v>16.210999999999999</v>
       </c>
       <c r="D94" t="s">
         <v>3</v>
@@ -19228,10 +20198,10 @@
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <v>18.267</v>
+        <v>18.266999999999999</v>
       </c>
       <c r="B95" s="2">
-        <v>17.519</v>
+        <v>17.518999999999998</v>
       </c>
       <c r="C95" s="3">
         <v>17.779</v>
@@ -19290,10 +20260,10 @@
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>20.578</v>
+        <v>20.577999999999999</v>
       </c>
       <c r="B96" s="2">
-        <v>18.725</v>
+        <v>18.725000000000001</v>
       </c>
       <c r="C96" s="3">
         <v>17.631</v>
@@ -19350,9 +20320,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>19.386</v>
+        <v>19.385999999999999</v>
       </c>
       <c r="B97" s="2">
         <v>21.21</v>
@@ -19412,12 +20382,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>19.869</v>
       </c>
       <c r="B98" s="2">
-        <v>17.612</v>
+        <v>17.611999999999998</v>
       </c>
       <c r="C98" s="3">
         <v>20.49</v>
@@ -19474,15 +20444,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>21.079</v>
+        <v>21.079000000000001</v>
       </c>
       <c r="B99" s="2">
-        <v>18.127</v>
+        <v>18.126999999999999</v>
       </c>
       <c r="C99" s="3">
-        <v>18.917</v>
+        <v>18.917000000000002</v>
       </c>
       <c r="D99" t="s">
         <v>3</v>
@@ -19536,7 +20506,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>19.253</v>
       </c>
@@ -19544,7 +20514,7 @@
         <v>18.47</v>
       </c>
       <c r="C100" s="3">
-        <v>16.861</v>
+        <v>16.861000000000001</v>
       </c>
       <c r="D100" t="s">
         <v>3</v>
@@ -19598,15 +20568,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>20.679</v>
+        <v>20.678999999999998</v>
       </c>
       <c r="B101" s="2">
         <v>17.302</v>
       </c>
       <c r="C101" s="3">
-        <v>19.296</v>
+        <v>19.295999999999999</v>
       </c>
       <c r="D101" t="s">
         <v>3</v>
@@ -19663,48 +20633,63 @@
     <row r="103" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A103" s="7">
         <f>AVERAGE(A2:A101)</f>
+        <v>19.718550000000004</v>
       </c>
       <c r="B103" s="7">
         <f>AVERAGE(B2:B101)</f>
+        <v>19.051049999999996</v>
       </c>
       <c r="C103" s="7">
         <f>AVERAGE(C2:C101)</f>
+        <v>18.883020000000005</v>
       </c>
       <c r="E103" s="7">
         <f>AVERAGE(E2:E101)</f>
+        <v>0</v>
       </c>
       <c r="F103" s="7">
         <f>AVERAGE(F2:F101)</f>
+        <v>0</v>
       </c>
       <c r="G103" s="7">
         <f>AVERAGE(G2:G101)</f>
+        <v>0</v>
       </c>
       <c r="I103" s="7">
         <f>AVERAGE(I2:I101)</f>
+        <v>33.630000000000003</v>
       </c>
       <c r="J103" s="7">
         <f>AVERAGE(J2:J101)</f>
+        <v>127.11</v>
       </c>
       <c r="K103" s="7">
         <f>AVERAGE(K2:K101)</f>
+        <v>33.505000000000003</v>
       </c>
       <c r="M103" s="7">
         <f>AVERAGE(M2:M101)</f>
+        <v>14612.95</v>
       </c>
       <c r="N103" s="7">
         <f>AVERAGE(N2:N101)</f>
+        <v>14479.46</v>
       </c>
       <c r="O103" s="7">
         <f>AVERAGE(O2:O101)</f>
+        <v>14683.7</v>
       </c>
       <c r="Q103" s="7">
         <f>AVERAGE(Q2:Q101)</f>
+        <v>54965725.729999997</v>
       </c>
       <c r="R103" s="7">
         <f>AVERAGE(R2:R101)</f>
+        <v>107962976.8</v>
       </c>
       <c r="S103" s="7">
         <f>AVERAGE(S2:S101)</f>
+        <v>53219074.789999999</v>
       </c>
       <c r="U103" s="8" t="s">
         <v>16</v>
@@ -19713,48 +20698,63 @@
     <row r="104" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <f>MAX(A2:A101)</f>
+        <v>21.553999999999998</v>
       </c>
       <c r="B104" s="2">
         <f>MAX(B2:B101)</f>
+        <v>21.594999999999999</v>
       </c>
       <c r="C104" s="2">
         <f>MAX(C2:C101)</f>
+        <v>21.613</v>
       </c>
       <c r="E104" s="2">
         <f>MAX(E2:E101)</f>
+        <v>0</v>
       </c>
       <c r="F104" s="2">
         <f>MAX(F2:F101)</f>
+        <v>0</v>
       </c>
       <c r="G104" s="2">
         <f>MAX(G2:G101)</f>
+        <v>0</v>
       </c>
       <c r="I104" s="2">
         <f>MAX(I2:I101)</f>
+        <v>42.5</v>
       </c>
       <c r="J104" s="2">
         <f>MAX(J2:J101)</f>
+        <v>148</v>
       </c>
       <c r="K104" s="2">
         <f>MAX(K2:K101)</f>
+        <v>43</v>
       </c>
       <c r="M104" s="2">
         <f>MAX(M2:M101)</f>
+        <v>14614</v>
       </c>
       <c r="N104" s="2">
         <f>MAX(N2:N101)</f>
+        <v>14482</v>
       </c>
       <c r="O104" s="2">
         <f>MAX(O2:O101)</f>
+        <v>14703</v>
       </c>
       <c r="Q104" s="2">
         <f>MAX(Q2:Q101)</f>
+        <v>71396411</v>
       </c>
       <c r="R104" s="2">
         <f>MAX(R2:R101)</f>
+        <v>135963480</v>
       </c>
       <c r="S104" s="2">
         <f>MAX(S2:S101)</f>
+        <v>71548092</v>
       </c>
       <c r="U104" s="9" t="s">
         <v>17</v>
@@ -19763,69 +20763,438 @@
     <row r="105" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
         <f>MIN(A2:A101)</f>
+        <v>17.853999999999999</v>
       </c>
       <c r="B105" s="3">
         <f>MIN(B2:B101)</f>
+        <v>16.071000000000002</v>
       </c>
       <c r="C105" s="3">
         <f>MIN(C2:C101)</f>
+        <v>16.181999999999999</v>
       </c>
       <c r="E105" s="3">
         <f>MIN(E2:E101)</f>
+        <v>0</v>
       </c>
       <c r="F105" s="3">
         <f>MIN(F2:F101)</f>
+        <v>0</v>
       </c>
       <c r="G105" s="3">
         <f>MIN(G2:G101)</f>
+        <v>0</v>
       </c>
       <c r="I105" s="3">
         <f>MIN(I2:I101)</f>
+        <v>27.5</v>
       </c>
       <c r="J105" s="3">
         <f>MIN(J2:J101)</f>
+        <v>115</v>
       </c>
       <c r="K105" s="3">
         <f>MIN(K2:K101)</f>
+        <v>29</v>
       </c>
       <c r="M105" s="3">
         <f>MIN(M2:M101)</f>
+        <v>14612</v>
       </c>
       <c r="N105" s="3">
         <f>MIN(N2:N101)</f>
+        <v>14479</v>
       </c>
       <c r="O105" s="3">
         <f>MIN(O2:O101)</f>
+        <v>14683</v>
       </c>
       <c r="Q105" s="3">
         <f>MIN(Q2:Q101)</f>
+        <v>32190786</v>
       </c>
       <c r="R105" s="3">
         <f>MIN(R2:R101)</f>
+        <v>94127290</v>
       </c>
       <c r="S105" s="3">
         <f>MIN(S2:S101)</f>
+        <v>35118639</v>
       </c>
       <c r="U105" s="10" t="s">
         <v>18</v>
       </c>
     </row>
+    <row r="107" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A107" s="11">
+        <f>AVERAGE(A2:A101) + 1.96 * SQRT(SUMPRODUCT((A2:A101-AVERAGE(A2:A101))^2) / (COUNTA(A2:A101) - 1)) / SQRT(COUNTA(A2:A101))</f>
+        <v>19.900616790234974</v>
+      </c>
+      <c r="B107" s="11">
+        <f>AVERAGE(B2:B101) + 1.96 * SQRT(SUMPRODUCT((B2:B101-AVERAGE(B2:B101))^2) / (COUNTA(B2:B101) - 1)) / SQRT(COUNTA(B2:B101))</f>
+        <v>19.315985000545222</v>
+      </c>
+      <c r="C107" s="11">
+        <f>AVERAGE(C2:C101) + 1.96 * SQRT(SUMPRODUCT((C2:C101-AVERAGE(C2:C101))^2) / (COUNTA(C2:C101) - 1)) / SQRT(COUNTA(C2:C101))</f>
+        <v>19.123396694675645</v>
+      </c>
+      <c r="E107" s="11">
+        <f>AVERAGE(E2:E101) + 1.96 * SQRT(SUMPRODUCT((E2:E101-AVERAGE(E2:E101))^2) / (COUNTA(E2:E101) - 1)) / SQRT(COUNTA(E2:E101))</f>
+        <v>0</v>
+      </c>
+      <c r="F107" s="11">
+        <f>AVERAGE(F2:F101) + 1.96 * SQRT(SUMPRODUCT((F2:F101-AVERAGE(F2:F101))^2) / (COUNTA(F2:F101) - 1)) / SQRT(COUNTA(F2:F101))</f>
+        <v>0</v>
+      </c>
+      <c r="G107" s="11">
+        <f>AVERAGE(G2:G101) + 1.96 * SQRT(SUMPRODUCT((G2:G101-AVERAGE(G2:G101))^2) / (COUNTA(G2:G101) - 1)) / SQRT(COUNTA(G2:G101))</f>
+        <v>0</v>
+      </c>
+      <c r="I107" s="11">
+        <f>AVERAGE(I2:I101) + 1.96 * SQRT(SUMPRODUCT((I2:I101-AVERAGE(I2:I101))^2) / (COUNTA(I2:I101) - 1)) / SQRT(COUNTA(I2:I101))</f>
+        <v>34.310764669287046</v>
+      </c>
+      <c r="J107" s="11">
+        <f>AVERAGE(J2:J101) + 1.96 * SQRT(SUMPRODUCT((J2:J101-AVERAGE(J2:J101))^2) / (COUNTA(J2:J101) - 1)) / SQRT(COUNTA(J2:J101))</f>
+        <v>128.46839782572312</v>
+      </c>
+      <c r="K107" s="11">
+        <f>AVERAGE(K2:K101) + 1.96 * SQRT(SUMPRODUCT((K2:K101-AVERAGE(K2:K101))^2) / (COUNTA(K2:K101) - 1)) / SQRT(COUNTA(K2:K101))</f>
+        <v>34.093411489014315</v>
+      </c>
+      <c r="M107" s="11">
+        <f>AVERAGE(M2:M101) + 1.96 * SQRT(SUMPRODUCT((M2:M101-AVERAGE(M2:M101))^2) / (COUNTA(M2:M101) - 1)) / SQRT(COUNTA(M2:M101))</f>
+        <v>14613.014586642144</v>
+      </c>
+      <c r="N107" s="11">
+        <f>AVERAGE(N2:N101) + 1.96 * SQRT(SUMPRODUCT((N2:N101-AVERAGE(N2:N101))^2) / (COUNTA(N2:N101) - 1)) / SQRT(COUNTA(N2:N101))</f>
+        <v>14479.608513354839</v>
+      </c>
+      <c r="O107" s="11">
+        <f>AVERAGE(O2:O101) + 1.96 * SQRT(SUMPRODUCT((O2:O101-AVERAGE(O2:O101))^2) / (COUNTA(O2:O101) - 1)) / SQRT(COUNTA(O2:O101))</f>
+        <v>14684.107054360653</v>
+      </c>
+      <c r="Q107" s="11">
+        <f>AVERAGE(Q2:Q101) + 1.96 * SQRT(SUMPRODUCT((Q2:Q101-AVERAGE(Q2:Q101))^2) / (COUNTA(Q2:Q101) - 1)) / SQRT(COUNTA(Q2:Q101))</f>
+        <v>56724707.809838548</v>
+      </c>
+      <c r="R107" s="11">
+        <f>AVERAGE(R2:R101) + 1.96 * SQRT(SUMPRODUCT((R2:R101-AVERAGE(R2:R101))^2) / (COUNTA(R2:R101) - 1)) / SQRT(COUNTA(R2:R101))</f>
+        <v>109842067.40463045</v>
+      </c>
+      <c r="S107" s="11">
+        <f>AVERAGE(S2:S101) + 1.96 * SQRT(SUMPRODUCT((S2:S101-AVERAGE(S2:S101))^2) / (COUNTA(S2:S101) - 1)) / SQRT(COUNTA(S2:S101))</f>
+        <v>55062708.99561815</v>
+      </c>
+      <c r="U107" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="108" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A108" s="11">
+        <f>AVERAGE(A2:A101) - 1.96 * SQRT(SUMPRODUCT((A2:A101-AVERAGE(A2:A101))^2) / (COUNTA(A2:A101) - 1)) / SQRT(COUNTA(A2:A101))</f>
+        <v>19.536483209765034</v>
+      </c>
+      <c r="B108" s="11">
+        <f>AVERAGE(B2:B101) - 1.96 * SQRT(SUMPRODUCT((B2:B101-AVERAGE(B2:B101))^2) / (COUNTA(B2:B101) - 1)) / SQRT(COUNTA(B2:B101))</f>
+        <v>18.786114999454771</v>
+      </c>
+      <c r="C108" s="11">
+        <f>AVERAGE(C2:C101) - 1.96 * SQRT(SUMPRODUCT((C2:C101-AVERAGE(C2:C101))^2) / (COUNTA(C2:C101) - 1)) / SQRT(COUNTA(C2:C101))</f>
+        <v>18.642643305324366</v>
+      </c>
+      <c r="E108" s="11">
+        <f>AVERAGE(E2:E101) - 1.96 * SQRT(SUMPRODUCT((E2:E101-AVERAGE(E2:E101))^2) / (COUNTA(E2:E101) - 1)) / SQRT(COUNTA(E2:E101))</f>
+        <v>0</v>
+      </c>
+      <c r="F108" s="11">
+        <f>AVERAGE(F2:F101) - 1.96 * SQRT(SUMPRODUCT((F2:F101-AVERAGE(F2:F101))^2) / (COUNTA(F2:F101) - 1)) / SQRT(COUNTA(F2:F101))</f>
+        <v>0</v>
+      </c>
+      <c r="G108" s="11">
+        <f>AVERAGE(G2:G101) - 1.96 * SQRT(SUMPRODUCT((G2:G101-AVERAGE(G2:G101))^2) / (COUNTA(G2:G101) - 1)) / SQRT(COUNTA(G2:G101))</f>
+        <v>0</v>
+      </c>
+      <c r="I108" s="11">
+        <f>AVERAGE(I2:I101) - 1.96 * SQRT(SUMPRODUCT((I2:I101-AVERAGE(I2:I101))^2) / (COUNTA(I2:I101) - 1)) / SQRT(COUNTA(I2:I101))</f>
+        <v>32.949235330712959</v>
+      </c>
+      <c r="J108" s="11">
+        <f>AVERAGE(J2:J101) - 1.96 * SQRT(SUMPRODUCT((J2:J101-AVERAGE(J2:J101))^2) / (COUNTA(J2:J101) - 1)) / SQRT(COUNTA(J2:J101))</f>
+        <v>125.75160217427688</v>
+      </c>
+      <c r="K108" s="11">
+        <f>AVERAGE(K2:K101) - 1.96 * SQRT(SUMPRODUCT((K2:K101-AVERAGE(K2:K101))^2) / (COUNTA(K2:K101) - 1)) / SQRT(COUNTA(K2:K101))</f>
+        <v>32.91658851098569</v>
+      </c>
+      <c r="M108" s="11">
+        <f>AVERAGE(M2:M101) - 1.96 * SQRT(SUMPRODUCT((M2:M101-AVERAGE(M2:M101))^2) / (COUNTA(M2:M101) - 1)) / SQRT(COUNTA(M2:M101))</f>
+        <v>14612.885413357857</v>
+      </c>
+      <c r="N108" s="11">
+        <f>AVERAGE(N2:N101) - 1.96 * SQRT(SUMPRODUCT((N2:N101-AVERAGE(N2:N101))^2) / (COUNTA(N2:N101) - 1)) / SQRT(COUNTA(N2:N101))</f>
+        <v>14479.31148664516</v>
+      </c>
+      <c r="O108" s="11">
+        <f>AVERAGE(O2:O101) - 1.96 * SQRT(SUMPRODUCT((O2:O101-AVERAGE(O2:O101))^2) / (COUNTA(O2:O101) - 1)) / SQRT(COUNTA(O2:O101))</f>
+        <v>14683.292945639349</v>
+      </c>
+      <c r="Q108" s="11">
+        <f>AVERAGE(Q2:Q101) - 1.96 * SQRT(SUMPRODUCT((Q2:Q101-AVERAGE(Q2:Q101))^2) / (COUNTA(Q2:Q101) - 1)) / SQRT(COUNTA(Q2:Q101))</f>
+        <v>53206743.650161445</v>
+      </c>
+      <c r="R108" s="11">
+        <f>AVERAGE(R2:R101) - 1.96 * SQRT(SUMPRODUCT((R2:R101-AVERAGE(R2:R101))^2) / (COUNTA(R2:R101) - 1)) / SQRT(COUNTA(R2:R101))</f>
+        <v>106083886.19536954</v>
+      </c>
+      <c r="S108" s="11">
+        <f>AVERAGE(S2:S101) - 1.96 * SQRT(SUMPRODUCT((S2:S101-AVERAGE(S2:S101))^2) / (COUNTA(S2:S101) - 1)) / SQRT(COUNTA(S2:S101))</f>
+        <v>51375440.584381849</v>
+      </c>
+      <c r="U108" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="110" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A110" s="11">
+        <f>AVERAGE(A2:A101) + 2.58 * SQRT(SUMPRODUCT((A2:A101-AVERAGE(A2:A101))^2) / (COUNTA(A2:A101) - 1)) / SQRT(COUNTA(A2:A101))</f>
+        <v>19.95820934632971</v>
+      </c>
+      <c r="B110" s="11">
+        <f>AVERAGE(B2:B101) + 2.58 * SQRT(SUMPRODUCT((B2:B101-AVERAGE(B2:B101))^2) / (COUNTA(B2:B101) - 1)) / SQRT(COUNTA(B2:B101))</f>
+        <v>19.399790970105446</v>
+      </c>
+      <c r="C110" s="11">
+        <f>AVERAGE(C2:C101) + 2.58 * SQRT(SUMPRODUCT((C2:C101-AVERAGE(C2:C101))^2) / (COUNTA(C2:C101) - 1)) / SQRT(COUNTA(C2:C101))</f>
+        <v>19.199434220542429</v>
+      </c>
+      <c r="E110" s="11">
+        <f>AVERAGE(E2:E101) + 2.58 * SQRT(SUMPRODUCT((E2:E101-AVERAGE(E2:E101))^2) / (COUNTA(E2:E101) - 1)) / SQRT(COUNTA(E2:E101))</f>
+        <v>0</v>
+      </c>
+      <c r="F110" s="11">
+        <f>AVERAGE(F2:F101) + 2.58 * SQRT(SUMPRODUCT((F2:F101-AVERAGE(F2:F101))^2) / (COUNTA(F2:F101) - 1)) / SQRT(COUNTA(F2:F101))</f>
+        <v>0</v>
+      </c>
+      <c r="G110" s="11">
+        <f>AVERAGE(G2:G101) + 2.58 * SQRT(SUMPRODUCT((G2:G101-AVERAGE(G2:G101))^2) / (COUNTA(G2:G101) - 1)) / SQRT(COUNTA(G2:G101))</f>
+        <v>0</v>
+      </c>
+      <c r="I110" s="11">
+        <f>AVERAGE(I2:I101) + 2.58 * SQRT(SUMPRODUCT((I2:I101-AVERAGE(I2:I101))^2) / (COUNTA(I2:I101) - 1)) / SQRT(COUNTA(I2:I101))</f>
+        <v>34.526108595286004</v>
+      </c>
+      <c r="J110" s="11">
+        <f>AVERAGE(J2:J101) + 2.58 * SQRT(SUMPRODUCT((J2:J101-AVERAGE(J2:J101))^2) / (COUNTA(J2:J101) - 1)) / SQRT(COUNTA(J2:J101))</f>
+        <v>128.89809509712532</v>
+      </c>
+      <c r="K110" s="11">
+        <f>AVERAGE(K2:K101) + 2.58 * SQRT(SUMPRODUCT((K2:K101-AVERAGE(K2:K101))^2) / (COUNTA(K2:K101) - 1)) / SQRT(COUNTA(K2:K101))</f>
+        <v>34.279541653906598</v>
+      </c>
+      <c r="M110" s="11">
+        <f>AVERAGE(M2:M101) + 2.58 * SQRT(SUMPRODUCT((M2:M101-AVERAGE(M2:M101))^2) / (COUNTA(M2:M101) - 1)) / SQRT(COUNTA(M2:M101))</f>
+        <v>14613.035017110578</v>
+      </c>
+      <c r="N110" s="11">
+        <f>AVERAGE(N2:N101) + 2.58 * SQRT(SUMPRODUCT((N2:N101-AVERAGE(N2:N101))^2) / (COUNTA(N2:N101) - 1)) / SQRT(COUNTA(N2:N101))</f>
+        <v>14479.655492069125</v>
+      </c>
+      <c r="O110" s="11">
+        <f>AVERAGE(O2:O101) + 2.58 * SQRT(SUMPRODUCT((O2:O101-AVERAGE(O2:O101))^2) / (COUNTA(O2:O101) - 1)) / SQRT(COUNTA(O2:O101))</f>
+        <v>14684.235816454328</v>
+      </c>
+      <c r="Q110" s="11">
+        <f>AVERAGE(Q2:Q101) + 2.58 * SQRT(SUMPRODUCT((Q2:Q101-AVERAGE(Q2:Q101))^2) / (COUNTA(Q2:Q101) - 1)) / SQRT(COUNTA(Q2:Q101))</f>
+        <v>57281120.50856299</v>
+      </c>
+      <c r="R110" s="11">
+        <f>AVERAGE(R2:R101) + 2.58 * SQRT(SUMPRODUCT((R2:R101-AVERAGE(R2:R101))^2) / (COUNTA(R2:R101) - 1)) / SQRT(COUNTA(R2:R101))</f>
+        <v>110436473.61629927</v>
+      </c>
+      <c r="S110" s="11">
+        <f>AVERAGE(S2:S101) + 2.58 * SQRT(SUMPRODUCT((S2:S101-AVERAGE(S2:S101))^2) / (COUNTA(S2:S101) - 1)) / SQRT(COUNTA(S2:S101))</f>
+        <v>55645899.407599397</v>
+      </c>
+      <c r="U110" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="111" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A111" s="11">
+        <f>AVERAGE(A2:A101) - 2.58 * SQRT(SUMPRODUCT((A2:A101-AVERAGE(A2:A101))^2) / (COUNTA(A2:A101) - 1)) / SQRT(COUNTA(A2:A101))</f>
+        <v>19.478890653670298</v>
+      </c>
+      <c r="B111" s="11">
+        <f>AVERAGE(B2:B101) - 2.58 * SQRT(SUMPRODUCT((B2:B101-AVERAGE(B2:B101))^2) / (COUNTA(B2:B101) - 1)) / SQRT(COUNTA(B2:B101))</f>
+        <v>18.702309029894547</v>
+      </c>
+      <c r="C111" s="11">
+        <f>AVERAGE(C2:C101) - 2.58 * SQRT(SUMPRODUCT((C2:C101-AVERAGE(C2:C101))^2) / (COUNTA(C2:C101) - 1)) / SQRT(COUNTA(C2:C101))</f>
+        <v>18.566605779457582</v>
+      </c>
+      <c r="E111" s="11">
+        <f>AVERAGE(E2:E101) - 2.58 * SQRT(SUMPRODUCT((E2:E101-AVERAGE(E2:E101))^2) / (COUNTA(E2:E101) - 1)) / SQRT(COUNTA(E2:E101))</f>
+        <v>0</v>
+      </c>
+      <c r="F111" s="11">
+        <f>AVERAGE(F2:F101) - 2.58 * SQRT(SUMPRODUCT((F2:F101-AVERAGE(F2:F101))^2) / (COUNTA(F2:F101) - 1)) / SQRT(COUNTA(F2:F101))</f>
+        <v>0</v>
+      </c>
+      <c r="G111" s="11">
+        <f>AVERAGE(G2:G101) - 2.58 * SQRT(SUMPRODUCT((G2:G101-AVERAGE(G2:G101))^2) / (COUNTA(G2:G101) - 1)) / SQRT(COUNTA(G2:G101))</f>
+        <v>0</v>
+      </c>
+      <c r="I111" s="11">
+        <f>AVERAGE(I2:I101) - 2.58 * SQRT(SUMPRODUCT((I2:I101-AVERAGE(I2:I101))^2) / (COUNTA(I2:I101) - 1)) / SQRT(COUNTA(I2:I101))</f>
+        <v>32.733891404714001</v>
+      </c>
+      <c r="J111" s="11">
+        <f>AVERAGE(J2:J101) - 2.58 * SQRT(SUMPRODUCT((J2:J101-AVERAGE(J2:J101))^2) / (COUNTA(J2:J101) - 1)) / SQRT(COUNTA(J2:J101))</f>
+        <v>125.32190490287468</v>
+      </c>
+      <c r="K111" s="11">
+        <f>AVERAGE(K2:K101) - 2.58 * SQRT(SUMPRODUCT((K2:K101-AVERAGE(K2:K101))^2) / (COUNTA(K2:K101) - 1)) / SQRT(COUNTA(K2:K101))</f>
+        <v>32.730458346093407</v>
+      </c>
+      <c r="M111" s="11">
+        <f>AVERAGE(M2:M101) - 2.58 * SQRT(SUMPRODUCT((M2:M101-AVERAGE(M2:M101))^2) / (COUNTA(M2:M101) - 1)) / SQRT(COUNTA(M2:M101))</f>
+        <v>14612.864982889423</v>
+      </c>
+      <c r="N111" s="11">
+        <f>AVERAGE(N2:N101) - 2.58 * SQRT(SUMPRODUCT((N2:N101-AVERAGE(N2:N101))^2) / (COUNTA(N2:N101) - 1)) / SQRT(COUNTA(N2:N101))</f>
+        <v>14479.264507930873</v>
+      </c>
+      <c r="O111" s="11">
+        <f>AVERAGE(O2:O101) - 2.58 * SQRT(SUMPRODUCT((O2:O101-AVERAGE(O2:O101))^2) / (COUNTA(O2:O101) - 1)) / SQRT(COUNTA(O2:O101))</f>
+        <v>14683.164183545674</v>
+      </c>
+      <c r="Q111" s="11">
+        <f>AVERAGE(Q2:Q101) - 2.58 * SQRT(SUMPRODUCT((Q2:Q101-AVERAGE(Q2:Q101))^2) / (COUNTA(Q2:Q101) - 1)) / SQRT(COUNTA(Q2:Q101))</f>
+        <v>52650330.951437004</v>
+      </c>
+      <c r="R111" s="11">
+        <f>AVERAGE(R2:R101) - 2.58 * SQRT(SUMPRODUCT((R2:R101-AVERAGE(R2:R101))^2) / (COUNTA(R2:R101) - 1)) / SQRT(COUNTA(R2:R101))</f>
+        <v>105489479.98370072</v>
+      </c>
+      <c r="S111" s="11">
+        <f>AVERAGE(S2:S101) - 2.58 * SQRT(SUMPRODUCT((S2:S101-AVERAGE(S2:S101))^2) / (COUNTA(S2:S101) - 1)) / SQRT(COUNTA(S2:S101))</f>
+        <v>50792250.172400601</v>
+      </c>
+      <c r="U111" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>23</v>
+      </c>
+      <c r="B113" t="s">
+        <v>24</v>
+      </c>
+      <c r="C113" t="s">
+        <v>25</v>
+      </c>
+      <c r="E113" t="s">
+        <v>26</v>
+      </c>
+      <c r="F113" t="s">
+        <v>27</v>
+      </c>
+      <c r="G113" t="s">
+        <v>28</v>
+      </c>
+      <c r="I113" t="s">
+        <v>29</v>
+      </c>
+      <c r="J113" t="s">
+        <v>30</v>
+      </c>
+      <c r="K113" t="s">
+        <v>31</v>
+      </c>
+      <c r="M113" t="s">
+        <v>32</v>
+      </c>
+      <c r="N113" t="s">
+        <v>33</v>
+      </c>
+      <c r="O113" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q113" t="s">
+        <v>35</v>
+      </c>
+      <c r="R113" t="s">
+        <v>36</v>
+      </c>
+      <c r="S113" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="114" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>38</v>
+      </c>
+      <c r="B114" t="s">
+        <v>39</v>
+      </c>
+      <c r="C114" t="s">
+        <v>40</v>
+      </c>
+      <c r="E114" t="s">
+        <v>41</v>
+      </c>
+      <c r="F114" t="s">
+        <v>42</v>
+      </c>
+      <c r="G114" t="s">
+        <v>43</v>
+      </c>
+      <c r="I114" t="s">
+        <v>44</v>
+      </c>
+      <c r="J114" t="s">
+        <v>45</v>
+      </c>
+      <c r="K114" t="s">
+        <v>46</v>
+      </c>
+      <c r="M114" t="s">
+        <v>47</v>
+      </c>
+      <c r="N114" t="s">
+        <v>48</v>
+      </c>
+      <c r="O114" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q114" t="s">
+        <v>50</v>
+      </c>
+      <c r="R114" t="s">
+        <v>51</v>
+      </c>
+      <c r="S114" t="s">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U105"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:U114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
@@ -19909,13 +21278,13 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>21.475</v>
+        <v>21.475000000000001</v>
       </c>
       <c r="B2" s="2">
-        <v>18.982</v>
+        <v>18.981999999999999</v>
       </c>
       <c r="C2" s="3">
-        <v>19.987</v>
+        <v>19.986999999999998</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -19971,10 +21340,10 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>21.728</v>
+        <v>21.728000000000002</v>
       </c>
       <c r="B3" s="2">
-        <v>21.196</v>
+        <v>21.196000000000002</v>
       </c>
       <c r="C3" s="3">
         <v>20.39</v>
@@ -20095,13 +21464,13 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>18.854</v>
+        <v>18.853999999999999</v>
       </c>
       <c r="B5" s="2">
-        <v>19.483</v>
+        <v>19.483000000000001</v>
       </c>
       <c r="C5" s="3">
-        <v>19.533</v>
+        <v>19.533000000000001</v>
       </c>
       <c r="D5" t="s">
         <v>3</v>
@@ -20163,7 +21532,7 @@
         <v>19.718</v>
       </c>
       <c r="C6" s="3">
-        <v>17.981</v>
+        <v>17.981000000000002</v>
       </c>
       <c r="D6" t="s">
         <v>3</v>
@@ -20219,10 +21588,10 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>20.646</v>
+        <v>20.646000000000001</v>
       </c>
       <c r="B7" s="2">
-        <v>19.848</v>
+        <v>19.847999999999999</v>
       </c>
       <c r="C7" s="3">
         <v>19.387</v>
@@ -20281,13 +21650,13 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>19.263</v>
+        <v>19.263000000000002</v>
       </c>
       <c r="B8" s="2">
-        <v>17.758</v>
+        <v>17.757999999999999</v>
       </c>
       <c r="C8" s="3">
-        <v>15.873</v>
+        <v>15.872999999999999</v>
       </c>
       <c r="D8" t="s">
         <v>3</v>
@@ -20343,10 +21712,10 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>18.668</v>
+        <v>18.667999999999999</v>
       </c>
       <c r="B9" s="2">
-        <v>17.475</v>
+        <v>17.475000000000001</v>
       </c>
       <c r="C9" s="3">
         <v>18.7</v>
@@ -20405,7 +21774,7 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>20.065</v>
+        <v>20.065000000000001</v>
       </c>
       <c r="B10" s="2">
         <v>21.212</v>
@@ -20473,7 +21842,7 @@
         <v>21.2</v>
       </c>
       <c r="C11" s="3">
-        <v>19.018</v>
+        <v>19.018000000000001</v>
       </c>
       <c r="D11" t="s">
         <v>3</v>
@@ -20529,13 +21898,13 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>19.487</v>
+        <v>19.486999999999998</v>
       </c>
       <c r="B12" s="2">
         <v>19.526</v>
       </c>
       <c r="C12" s="3">
-        <v>17.734</v>
+        <v>17.734000000000002</v>
       </c>
       <c r="D12" t="s">
         <v>3</v>
@@ -20591,10 +21960,10 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>18.028</v>
+        <v>18.027999999999999</v>
       </c>
       <c r="B13" s="2">
-        <v>21.197</v>
+        <v>21.196999999999999</v>
       </c>
       <c r="C13" s="3">
         <v>16.529</v>
@@ -20659,7 +22028,7 @@
         <v>17.948</v>
       </c>
       <c r="C14" s="3">
-        <v>20.298</v>
+        <v>20.297999999999998</v>
       </c>
       <c r="D14" t="s">
         <v>3</v>
@@ -20715,13 +22084,13 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>20.092</v>
+        <v>20.091999999999999</v>
       </c>
       <c r="B15" s="2">
-        <v>20.316</v>
+        <v>20.315999999999999</v>
       </c>
       <c r="C15" s="3">
-        <v>21.146</v>
+        <v>21.146000000000001</v>
       </c>
       <c r="D15" t="s">
         <v>3</v>
@@ -20777,13 +22146,13 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>19.554</v>
+        <v>19.553999999999998</v>
       </c>
       <c r="B16" s="2">
         <v>18.131</v>
       </c>
       <c r="C16" s="3">
-        <v>18.432</v>
+        <v>18.431999999999999</v>
       </c>
       <c r="D16" t="s">
         <v>3</v>
@@ -20839,10 +22208,10 @@
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>18.484</v>
+        <v>18.484000000000002</v>
       </c>
       <c r="B17" s="2">
-        <v>18.687</v>
+        <v>18.687000000000001</v>
       </c>
       <c r="C17" s="3">
         <v>20.48</v>
@@ -20904,10 +22273,10 @@
         <v>18.613</v>
       </c>
       <c r="B18" s="2">
-        <v>18.858</v>
+        <v>18.858000000000001</v>
       </c>
       <c r="C18" s="3">
-        <v>23.815</v>
+        <v>23.815000000000001</v>
       </c>
       <c r="D18" t="s">
         <v>3</v>
@@ -20966,10 +22335,10 @@
         <v>19.538</v>
       </c>
       <c r="B19" s="2">
-        <v>19.004</v>
+        <v>19.004000000000001</v>
       </c>
       <c r="C19" s="3">
-        <v>18.233</v>
+        <v>18.233000000000001</v>
       </c>
       <c r="D19" t="s">
         <v>3</v>
@@ -21025,13 +22394,13 @@
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>20.019</v>
+        <v>20.018999999999998</v>
       </c>
       <c r="B20" s="2">
-        <v>18.547</v>
+        <v>18.547000000000001</v>
       </c>
       <c r="C20" s="3">
-        <v>20.132</v>
+        <v>20.132000000000001</v>
       </c>
       <c r="D20" t="s">
         <v>3</v>
@@ -21087,10 +22456,10 @@
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>19.639</v>
+        <v>19.638999999999999</v>
       </c>
       <c r="B21" s="2">
-        <v>18.156</v>
+        <v>18.155999999999999</v>
       </c>
       <c r="C21" s="3">
         <v>17.544</v>
@@ -21149,13 +22518,13 @@
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>21.338</v>
+        <v>21.338000000000001</v>
       </c>
       <c r="B22" s="2">
-        <v>20.611</v>
+        <v>20.611000000000001</v>
       </c>
       <c r="C22" s="3">
-        <v>19.612</v>
+        <v>19.611999999999998</v>
       </c>
       <c r="D22" t="s">
         <v>3</v>
@@ -21211,10 +22580,10 @@
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>18.99</v>
+        <v>18.989999999999998</v>
       </c>
       <c r="B23" s="2">
-        <v>18.396</v>
+        <v>18.396000000000001</v>
       </c>
       <c r="C23" s="3">
         <v>23.317</v>
@@ -21276,7 +22645,7 @@
         <v>17.709</v>
       </c>
       <c r="B24" s="2">
-        <v>18.99</v>
+        <v>18.989999999999998</v>
       </c>
       <c r="C24" s="3">
         <v>20.602</v>
@@ -21335,13 +22704,13 @@
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>19.467</v>
+        <v>19.466999999999999</v>
       </c>
       <c r="B25" s="2">
-        <v>19.109</v>
+        <v>19.109000000000002</v>
       </c>
       <c r="C25" s="3">
-        <v>18.798</v>
+        <v>18.797999999999998</v>
       </c>
       <c r="D25" t="s">
         <v>3</v>
@@ -21397,10 +22766,10 @@
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>19.498</v>
+        <v>19.498000000000001</v>
       </c>
       <c r="B26" s="2">
-        <v>21.075</v>
+        <v>21.074999999999999</v>
       </c>
       <c r="C26" s="3">
         <v>23.637</v>
@@ -21459,7 +22828,7 @@
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>19.002</v>
+        <v>19.001999999999999</v>
       </c>
       <c r="B27" s="2">
         <v>20.43</v>
@@ -21521,7 +22890,7 @@
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>21.001</v>
+        <v>21.001000000000001</v>
       </c>
       <c r="B28" s="2">
         <v>19.788</v>
@@ -21586,7 +22955,7 @@
         <v>19.044</v>
       </c>
       <c r="B29" s="2">
-        <v>18.138</v>
+        <v>18.138000000000002</v>
       </c>
       <c r="C29" s="3">
         <v>19.099</v>
@@ -21645,13 +23014,13 @@
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>20.008</v>
+        <v>20.007999999999999</v>
       </c>
       <c r="B30" s="2">
-        <v>21.489</v>
+        <v>21.489000000000001</v>
       </c>
       <c r="C30" s="3">
-        <v>18.194</v>
+        <v>18.193999999999999</v>
       </c>
       <c r="D30" t="s">
         <v>3</v>
@@ -21707,10 +23076,10 @@
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>20.636</v>
+        <v>20.635999999999999</v>
       </c>
       <c r="B31" s="2">
-        <v>18.153</v>
+        <v>18.152999999999999</v>
       </c>
       <c r="C31" s="3">
         <v>19.55</v>
@@ -21769,13 +23138,13 @@
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>19.498</v>
+        <v>19.498000000000001</v>
       </c>
       <c r="B32" s="2">
         <v>21.41</v>
       </c>
       <c r="C32" s="3">
-        <v>20.057</v>
+        <v>20.056999999999999</v>
       </c>
       <c r="D32" t="s">
         <v>3</v>
@@ -21831,7 +23200,7 @@
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>19.054</v>
+        <v>19.053999999999998</v>
       </c>
       <c r="B33" s="2">
         <v>19.631</v>
@@ -21896,7 +23265,7 @@
         <v>24.05</v>
       </c>
       <c r="B34" s="2">
-        <v>20.252</v>
+        <v>20.251999999999999</v>
       </c>
       <c r="C34" s="3">
         <v>18.817</v>
@@ -21955,13 +23324,13 @@
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>20.347</v>
+        <v>20.347000000000001</v>
       </c>
       <c r="B35" s="2">
-        <v>18.017</v>
+        <v>18.016999999999999</v>
       </c>
       <c r="C35" s="3">
-        <v>20.682</v>
+        <v>20.681999999999999</v>
       </c>
       <c r="D35" t="s">
         <v>3</v>
@@ -22020,7 +23389,7 @@
         <v>19.846</v>
       </c>
       <c r="B36" s="2">
-        <v>21.249</v>
+        <v>21.248999999999999</v>
       </c>
       <c r="C36" s="3">
         <v>19.814</v>
@@ -22079,13 +23448,13 @@
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>18.066</v>
+        <v>18.065999999999999</v>
       </c>
       <c r="B37" s="2">
-        <v>20.367</v>
+        <v>20.367000000000001</v>
       </c>
       <c r="C37" s="3">
-        <v>18.332</v>
+        <v>18.332000000000001</v>
       </c>
       <c r="D37" t="s">
         <v>3</v>
@@ -22144,10 +23513,10 @@
         <v>19.093</v>
       </c>
       <c r="B38" s="2">
-        <v>20.112</v>
+        <v>20.111999999999998</v>
       </c>
       <c r="C38" s="3">
-        <v>17.107</v>
+        <v>17.106999999999999</v>
       </c>
       <c r="D38" t="s">
         <v>3</v>
@@ -22206,10 +23575,10 @@
         <v>19.404</v>
       </c>
       <c r="B39" s="2">
-        <v>20.281</v>
+        <v>20.280999999999999</v>
       </c>
       <c r="C39" s="3">
-        <v>17.484</v>
+        <v>17.484000000000002</v>
       </c>
       <c r="D39" t="s">
         <v>3</v>
@@ -22268,10 +23637,10 @@
         <v>19.163</v>
       </c>
       <c r="B40" s="2">
-        <v>20.546</v>
+        <v>20.545999999999999</v>
       </c>
       <c r="C40" s="3">
-        <v>19.435</v>
+        <v>19.434999999999999</v>
       </c>
       <c r="D40" t="s">
         <v>3</v>
@@ -22330,10 +23699,10 @@
         <v>20.206</v>
       </c>
       <c r="B41" s="2">
-        <v>20.024</v>
+        <v>20.024000000000001</v>
       </c>
       <c r="C41" s="3">
-        <v>18.899</v>
+        <v>18.899000000000001</v>
       </c>
       <c r="D41" t="s">
         <v>3</v>
@@ -22389,13 +23758,13 @@
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>19.696</v>
+        <v>19.696000000000002</v>
       </c>
       <c r="B42" s="2">
-        <v>17.716</v>
+        <v>17.716000000000001</v>
       </c>
       <c r="C42" s="3">
-        <v>17.392</v>
+        <v>17.391999999999999</v>
       </c>
       <c r="D42" t="s">
         <v>3</v>
@@ -22513,10 +23882,10 @@
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>20.812</v>
+        <v>20.812000000000001</v>
       </c>
       <c r="B44" s="2">
-        <v>21.196</v>
+        <v>21.196000000000002</v>
       </c>
       <c r="C44" s="3">
         <v>16.375</v>
@@ -22581,7 +23950,7 @@
         <v>20.189</v>
       </c>
       <c r="C45" s="3">
-        <v>17.447</v>
+        <v>17.446999999999999</v>
       </c>
       <c r="D45" t="s">
         <v>3</v>
@@ -22640,10 +24009,10 @@
         <v>19.157</v>
       </c>
       <c r="B46" s="2">
-        <v>18.826</v>
+        <v>18.826000000000001</v>
       </c>
       <c r="C46" s="3">
-        <v>21.025</v>
+        <v>21.024999999999999</v>
       </c>
       <c r="D46" t="s">
         <v>3</v>
@@ -22699,7 +24068,7 @@
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>21.344</v>
+        <v>21.344000000000001</v>
       </c>
       <c r="B47" s="2">
         <v>17.794</v>
@@ -22761,13 +24130,13 @@
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>18.063</v>
+        <v>18.062999999999999</v>
       </c>
       <c r="B48" s="2">
-        <v>18.051</v>
+        <v>18.050999999999998</v>
       </c>
       <c r="C48" s="3">
-        <v>23.905</v>
+        <v>23.905000000000001</v>
       </c>
       <c r="D48" t="s">
         <v>3</v>
@@ -22823,13 +24192,13 @@
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>19.266</v>
+        <v>19.265999999999998</v>
       </c>
       <c r="B49" s="2">
-        <v>19.301</v>
+        <v>19.300999999999998</v>
       </c>
       <c r="C49" s="3">
-        <v>20.267</v>
+        <v>20.266999999999999</v>
       </c>
       <c r="D49" t="s">
         <v>3</v>
@@ -22888,7 +24257,7 @@
         <v>20.762</v>
       </c>
       <c r="B50" s="2">
-        <v>19.005</v>
+        <v>19.004999999999999</v>
       </c>
       <c r="C50" s="3">
         <v>22.17</v>
@@ -22950,10 +24319,10 @@
         <v>20.76</v>
       </c>
       <c r="B51" s="2">
-        <v>19.742</v>
+        <v>19.742000000000001</v>
       </c>
       <c r="C51" s="3">
-        <v>25.048</v>
+        <v>25.047999999999998</v>
       </c>
       <c r="D51" t="s">
         <v>3</v>
@@ -23012,10 +24381,10 @@
         <v>18.238</v>
       </c>
       <c r="B52" s="2">
-        <v>18.252</v>
+        <v>18.251999999999999</v>
       </c>
       <c r="C52" s="3">
-        <v>23.207</v>
+        <v>23.207000000000001</v>
       </c>
       <c r="D52" t="s">
         <v>3</v>
@@ -23074,7 +24443,7 @@
         <v>19</v>
       </c>
       <c r="B53" s="2">
-        <v>21.021</v>
+        <v>21.021000000000001</v>
       </c>
       <c r="C53" s="3">
         <v>18.523</v>
@@ -23133,13 +24502,13 @@
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>19.106</v>
+        <v>19.106000000000002</v>
       </c>
       <c r="B54" s="2">
-        <v>21.107</v>
+        <v>21.106999999999999</v>
       </c>
       <c r="C54" s="3">
-        <v>19.704</v>
+        <v>19.704000000000001</v>
       </c>
       <c r="D54" t="s">
         <v>3</v>
@@ -23195,13 +24564,13 @@
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>18.106</v>
+        <v>18.106000000000002</v>
       </c>
       <c r="B55" s="2">
-        <v>19.787</v>
+        <v>19.786999999999999</v>
       </c>
       <c r="C55" s="3">
-        <v>21.754</v>
+        <v>21.754000000000001</v>
       </c>
       <c r="D55" t="s">
         <v>3</v>
@@ -23263,7 +24632,7 @@
         <v>19.378</v>
       </c>
       <c r="C56" s="3">
-        <v>16.938</v>
+        <v>16.937999999999999</v>
       </c>
       <c r="D56" t="s">
         <v>3</v>
@@ -23325,7 +24694,7 @@
         <v>17.532</v>
       </c>
       <c r="C57" s="3">
-        <v>19.156</v>
+        <v>19.155999999999999</v>
       </c>
       <c r="D57" t="s">
         <v>3</v>
@@ -23381,13 +24750,13 @@
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>20.379</v>
+        <v>20.379000000000001</v>
       </c>
       <c r="B58" s="2">
-        <v>21.027</v>
+        <v>21.027000000000001</v>
       </c>
       <c r="C58" s="3">
-        <v>19.339</v>
+        <v>19.338999999999999</v>
       </c>
       <c r="D58" t="s">
         <v>3</v>
@@ -23449,7 +24818,7 @@
         <v>18.032</v>
       </c>
       <c r="C59" s="3">
-        <v>19.556</v>
+        <v>19.556000000000001</v>
       </c>
       <c r="D59" t="s">
         <v>3</v>
@@ -23505,13 +24874,13 @@
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>20.135</v>
+        <v>20.135000000000002</v>
       </c>
       <c r="B60" s="2">
-        <v>20.232</v>
+        <v>20.231999999999999</v>
       </c>
       <c r="C60" s="3">
-        <v>20.998</v>
+        <v>20.998000000000001</v>
       </c>
       <c r="D60" t="s">
         <v>3</v>
@@ -23567,13 +24936,13 @@
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>20.642</v>
+        <v>20.641999999999999</v>
       </c>
       <c r="B61" s="2">
-        <v>21.097</v>
+        <v>21.097000000000001</v>
       </c>
       <c r="C61" s="3">
-        <v>21.882</v>
+        <v>21.882000000000001</v>
       </c>
       <c r="D61" t="s">
         <v>3</v>
@@ -23629,13 +24998,13 @@
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>18.67</v>
+        <v>18.670000000000002</v>
       </c>
       <c r="B62" s="2">
-        <v>20.586</v>
+        <v>20.585999999999999</v>
       </c>
       <c r="C62" s="3">
-        <v>19.376</v>
+        <v>19.376000000000001</v>
       </c>
       <c r="D62" t="s">
         <v>3</v>
@@ -23694,7 +25063,7 @@
         <v>18.116</v>
       </c>
       <c r="B63" s="2">
-        <v>21.531</v>
+        <v>21.530999999999999</v>
       </c>
       <c r="C63" s="3">
         <v>20.898</v>
@@ -23756,10 +25125,10 @@
         <v>18.302</v>
       </c>
       <c r="B64" s="2">
-        <v>21.338</v>
+        <v>21.338000000000001</v>
       </c>
       <c r="C64" s="3">
-        <v>17.767</v>
+        <v>17.766999999999999</v>
       </c>
       <c r="D64" t="s">
         <v>3</v>
@@ -23939,13 +25308,13 @@
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>19.015</v>
+        <v>19.015000000000001</v>
       </c>
       <c r="B67" s="2">
         <v>19.445</v>
       </c>
       <c r="C67" s="3">
-        <v>19.748</v>
+        <v>19.748000000000001</v>
       </c>
       <c r="D67" t="s">
         <v>3</v>
@@ -24001,10 +25370,10 @@
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>19.508</v>
+        <v>19.507999999999999</v>
       </c>
       <c r="B68" s="2">
-        <v>18.037</v>
+        <v>18.036999999999999</v>
       </c>
       <c r="C68" s="3">
         <v>22.073</v>
@@ -24063,13 +25432,13 @@
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>19.202</v>
+        <v>19.202000000000002</v>
       </c>
       <c r="B69" s="2">
-        <v>20.306</v>
+        <v>20.306000000000001</v>
       </c>
       <c r="C69" s="3">
-        <v>17.925</v>
+        <v>17.925000000000001</v>
       </c>
       <c r="D69" t="s">
         <v>3</v>
@@ -24125,13 +25494,13 @@
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>20.457</v>
+        <v>20.457000000000001</v>
       </c>
       <c r="B70" s="2">
-        <v>20.315</v>
+        <v>20.315000000000001</v>
       </c>
       <c r="C70" s="3">
-        <v>17.121</v>
+        <v>17.120999999999999</v>
       </c>
       <c r="D70" t="s">
         <v>3</v>
@@ -24187,13 +25556,13 @@
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>17.826</v>
+        <v>17.826000000000001</v>
       </c>
       <c r="B71" s="2">
-        <v>17.007</v>
+        <v>17.007000000000001</v>
       </c>
       <c r="C71" s="3">
-        <v>19.184</v>
+        <v>19.184000000000001</v>
       </c>
       <c r="D71" t="s">
         <v>3</v>
@@ -24249,7 +25618,7 @@
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>21.079</v>
+        <v>21.079000000000001</v>
       </c>
       <c r="B72" s="2">
         <v>17.788</v>
@@ -24311,10 +25680,10 @@
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>20.821</v>
+        <v>20.821000000000002</v>
       </c>
       <c r="B73" s="2">
-        <v>18.444</v>
+        <v>18.443999999999999</v>
       </c>
       <c r="C73" s="3">
         <v>20.433</v>
@@ -24376,7 +25745,7 @@
         <v>19.468</v>
       </c>
       <c r="B74" s="2">
-        <v>18.129</v>
+        <v>18.129000000000001</v>
       </c>
       <c r="C74" s="3">
         <v>23.567</v>
@@ -24435,13 +25804,13 @@
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>17.955</v>
+        <v>17.954999999999998</v>
       </c>
       <c r="B75" s="2">
-        <v>18.059</v>
+        <v>18.059000000000001</v>
       </c>
       <c r="C75" s="3">
-        <v>18.934</v>
+        <v>18.934000000000001</v>
       </c>
       <c r="D75" t="s">
         <v>3</v>
@@ -24497,10 +25866,10 @@
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>19.022</v>
+        <v>19.021999999999998</v>
       </c>
       <c r="B76" s="2">
-        <v>19.914</v>
+        <v>19.914000000000001</v>
       </c>
       <c r="C76" s="3">
         <v>20.669</v>
@@ -24559,13 +25928,13 @@
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>18.049</v>
+        <v>18.048999999999999</v>
       </c>
       <c r="B77" s="2">
-        <v>21.068</v>
+        <v>21.068000000000001</v>
       </c>
       <c r="C77" s="3">
-        <v>22.892</v>
+        <v>22.891999999999999</v>
       </c>
       <c r="D77" t="s">
         <v>3</v>
@@ -24624,10 +25993,10 @@
         <v>20.689</v>
       </c>
       <c r="B78" s="2">
-        <v>21.513</v>
+        <v>21.513000000000002</v>
       </c>
       <c r="C78" s="3">
-        <v>20.796</v>
+        <v>20.795999999999999</v>
       </c>
       <c r="D78" t="s">
         <v>3</v>
@@ -24686,10 +26055,10 @@
         <v>20.753</v>
       </c>
       <c r="B79" s="2">
-        <v>20.261</v>
+        <v>20.260999999999999</v>
       </c>
       <c r="C79" s="3">
-        <v>19.054</v>
+        <v>19.053999999999998</v>
       </c>
       <c r="D79" t="s">
         <v>3</v>
@@ -24751,7 +26120,7 @@
         <v>18.61</v>
       </c>
       <c r="C80" s="3">
-        <v>17.257</v>
+        <v>17.257000000000001</v>
       </c>
       <c r="D80" t="s">
         <v>3</v>
@@ -24807,13 +26176,13 @@
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>20.307</v>
+        <v>20.306999999999999</v>
       </c>
       <c r="B81" s="2">
         <v>19.593</v>
       </c>
       <c r="C81" s="3">
-        <v>19.49</v>
+        <v>19.489999999999998</v>
       </c>
       <c r="D81" t="s">
         <v>3</v>
@@ -24931,13 +26300,13 @@
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>19.518</v>
+        <v>19.518000000000001</v>
       </c>
       <c r="B83" s="2">
-        <v>19.519</v>
+        <v>19.518999999999998</v>
       </c>
       <c r="C83" s="3">
-        <v>17.614</v>
+        <v>17.614000000000001</v>
       </c>
       <c r="D83" t="s">
         <v>3</v>
@@ -24996,7 +26365,7 @@
         <v>20.689</v>
       </c>
       <c r="B84" s="2">
-        <v>21.139</v>
+        <v>21.138999999999999</v>
       </c>
       <c r="C84" s="3">
         <v>17.79</v>
@@ -25058,7 +26427,7 @@
         <v>20.875</v>
       </c>
       <c r="B85" s="2">
-        <v>17.345</v>
+        <v>17.344999999999999</v>
       </c>
       <c r="C85" s="3">
         <v>17.04</v>
@@ -25117,13 +26486,13 @@
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>20.589</v>
+        <v>20.588999999999999</v>
       </c>
       <c r="B86" s="2">
-        <v>17.313</v>
+        <v>17.312999999999999</v>
       </c>
       <c r="C86" s="3">
-        <v>21.711</v>
+        <v>21.710999999999999</v>
       </c>
       <c r="D86" t="s">
         <v>3</v>
@@ -25182,7 +26551,7 @@
         <v>19.37</v>
       </c>
       <c r="B87" s="2">
-        <v>18.018</v>
+        <v>18.018000000000001</v>
       </c>
       <c r="C87" s="3">
         <v>19.863</v>
@@ -25244,10 +26613,10 @@
         <v>19.22</v>
       </c>
       <c r="B88" s="2">
-        <v>20.542</v>
+        <v>20.542000000000002</v>
       </c>
       <c r="C88" s="3">
-        <v>20.821</v>
+        <v>20.821000000000002</v>
       </c>
       <c r="D88" t="s">
         <v>3</v>
@@ -25306,10 +26675,10 @@
         <v>19.198</v>
       </c>
       <c r="B89" s="2">
-        <v>18.176</v>
+        <v>18.175999999999998</v>
       </c>
       <c r="C89" s="3">
-        <v>20.783</v>
+        <v>20.783000000000001</v>
       </c>
       <c r="D89" t="s">
         <v>3</v>
@@ -25365,13 +26734,13 @@
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>20.653</v>
+        <v>20.652999999999999</v>
       </c>
       <c r="B90" s="2">
-        <v>18.013</v>
+        <v>18.013000000000002</v>
       </c>
       <c r="C90" s="3">
-        <v>16.014</v>
+        <v>16.013999999999999</v>
       </c>
       <c r="D90" t="s">
         <v>3</v>
@@ -25427,13 +26796,13 @@
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>18.934</v>
+        <v>18.934000000000001</v>
       </c>
       <c r="B91" s="2">
-        <v>19.638</v>
+        <v>19.638000000000002</v>
       </c>
       <c r="C91" s="3">
-        <v>18.517</v>
+        <v>18.516999999999999</v>
       </c>
       <c r="D91" t="s">
         <v>3</v>
@@ -25492,10 +26861,10 @@
         <v>19.067</v>
       </c>
       <c r="B92" s="2">
-        <v>20.406</v>
+        <v>20.405999999999999</v>
       </c>
       <c r="C92" s="3">
-        <v>23.672</v>
+        <v>23.672000000000001</v>
       </c>
       <c r="D92" t="s">
         <v>3</v>
@@ -25551,10 +26920,10 @@
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>18.254</v>
+        <v>18.254000000000001</v>
       </c>
       <c r="B93" s="2">
-        <v>19.799</v>
+        <v>19.798999999999999</v>
       </c>
       <c r="C93" s="3">
         <v>19.465</v>
@@ -25675,10 +27044,10 @@
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <v>18.449</v>
+        <v>18.449000000000002</v>
       </c>
       <c r="B95" s="2">
-        <v>21.107</v>
+        <v>21.106999999999999</v>
       </c>
       <c r="C95" s="3">
         <v>18</v>
@@ -25737,13 +27106,13 @@
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>20.394</v>
+        <v>20.393999999999998</v>
       </c>
       <c r="B96" s="2">
         <v>18.87</v>
       </c>
       <c r="C96" s="3">
-        <v>18.388</v>
+        <v>18.388000000000002</v>
       </c>
       <c r="D96" t="s">
         <v>3</v>
@@ -25797,7 +27166,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>20.613</v>
       </c>
@@ -25805,7 +27174,7 @@
         <v>19.302</v>
       </c>
       <c r="C97" s="3">
-        <v>16.917</v>
+        <v>16.917000000000002</v>
       </c>
       <c r="D97" t="s">
         <v>3</v>
@@ -25859,15 +27228,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>20.371</v>
+        <v>20.370999999999999</v>
       </c>
       <c r="B98" s="2">
-        <v>19.236</v>
+        <v>19.236000000000001</v>
       </c>
       <c r="C98" s="3">
-        <v>18.316</v>
+        <v>18.315999999999999</v>
       </c>
       <c r="D98" t="s">
         <v>3</v>
@@ -25921,12 +27290,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>18.578</v>
+        <v>18.577999999999999</v>
       </c>
       <c r="B99" s="2">
-        <v>18.275</v>
+        <v>18.274999999999999</v>
       </c>
       <c r="C99" s="3">
         <v>19.02</v>
@@ -25983,15 +27352,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>18.59</v>
       </c>
       <c r="B100" s="2">
-        <v>19.115</v>
+        <v>19.114999999999998</v>
       </c>
       <c r="C100" s="3">
-        <v>18.897</v>
+        <v>18.896999999999998</v>
       </c>
       <c r="D100" t="s">
         <v>3</v>
@@ -26045,12 +27414,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>19.589</v>
+        <v>19.588999999999999</v>
       </c>
       <c r="B101" s="2">
-        <v>18.874</v>
+        <v>18.873999999999999</v>
       </c>
       <c r="C101" s="3">
         <v>17.747</v>
@@ -26110,48 +27479,63 @@
     <row r="103" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A103" s="7">
         <f>AVERAGE(A2:A101)</f>
+        <v>19.605840000000001</v>
       </c>
       <c r="B103" s="7">
         <f>AVERAGE(B2:B101)</f>
+        <v>19.461859999999991</v>
       </c>
       <c r="C103" s="7">
         <f>AVERAGE(C2:C101)</f>
+        <v>19.49606</v>
       </c>
       <c r="E103" s="7">
         <f>AVERAGE(E2:E101)</f>
+        <v>0</v>
       </c>
       <c r="F103" s="7">
         <f>AVERAGE(F2:F101)</f>
+        <v>0</v>
       </c>
       <c r="G103" s="7">
         <f>AVERAGE(G2:G101)</f>
+        <v>0</v>
       </c>
       <c r="I103" s="7">
         <f>AVERAGE(I2:I101)</f>
+        <v>279.41500000000002</v>
       </c>
       <c r="J103" s="7">
         <f>AVERAGE(J2:J101)</f>
+        <v>1958.7349999999999</v>
       </c>
       <c r="K103" s="7">
         <f>AVERAGE(K2:K101)</f>
+        <v>217.34</v>
       </c>
       <c r="M103" s="7">
         <f>AVERAGE(M2:M101)</f>
+        <v>138572.96</v>
       </c>
       <c r="N103" s="7">
         <f>AVERAGE(N2:N101)</f>
+        <v>138439.37</v>
       </c>
       <c r="O103" s="7">
         <f>AVERAGE(O2:O101)</f>
+        <v>138643.66</v>
       </c>
       <c r="Q103" s="7">
         <f>AVERAGE(Q2:Q101)</f>
+        <v>204186638.53999999</v>
       </c>
       <c r="R103" s="7">
         <f>AVERAGE(R2:R101)</f>
+        <v>837548396.44000006</v>
       </c>
       <c r="S103" s="7">
         <f>AVERAGE(S2:S101)</f>
+        <v>481934053.39999998</v>
       </c>
       <c r="U103" s="8" t="s">
         <v>16</v>
@@ -26160,48 +27544,63 @@
     <row r="104" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <f>MAX(A2:A101)</f>
+        <v>24.05</v>
       </c>
       <c r="B104" s="2">
         <f>MAX(B2:B101)</f>
+        <v>21.530999999999999</v>
       </c>
       <c r="C104" s="2">
         <f>MAX(C2:C101)</f>
+        <v>25.047999999999998</v>
       </c>
       <c r="E104" s="2">
         <f>MAX(E2:E101)</f>
+        <v>0</v>
       </c>
       <c r="F104" s="2">
         <f>MAX(F2:F101)</f>
+        <v>0</v>
       </c>
       <c r="G104" s="2">
         <f>MAX(G2:G101)</f>
+        <v>0</v>
       </c>
       <c r="I104" s="2">
         <f>MAX(I2:I101)</f>
+        <v>302</v>
       </c>
       <c r="J104" s="2">
         <f>MAX(J2:J101)</f>
+        <v>2183</v>
       </c>
       <c r="K104" s="2">
         <f>MAX(K2:K101)</f>
+        <v>234</v>
       </c>
       <c r="M104" s="2">
         <f>MAX(M2:M101)</f>
+        <v>138574</v>
       </c>
       <c r="N104" s="2">
         <f>MAX(N2:N101)</f>
+        <v>138443</v>
       </c>
       <c r="O104" s="2">
         <f>MAX(O2:O101)</f>
+        <v>138649</v>
       </c>
       <c r="Q104" s="2">
         <f>MAX(Q2:Q101)</f>
+        <v>222498086</v>
       </c>
       <c r="R104" s="2">
         <f>MAX(R2:R101)</f>
+        <v>869990386</v>
       </c>
       <c r="S104" s="2">
         <f>MAX(S2:S101)</f>
+        <v>577711423</v>
       </c>
       <c r="U104" s="9" t="s">
         <v>17</v>
@@ -26210,55 +27609,424 @@
     <row r="105" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
         <f>MIN(A2:A101)</f>
+        <v>17.709</v>
       </c>
       <c r="B105" s="3">
         <f>MIN(B2:B101)</f>
+        <v>17.007000000000001</v>
       </c>
       <c r="C105" s="3">
         <f>MIN(C2:C101)</f>
+        <v>15.35</v>
       </c>
       <c r="E105" s="3">
         <f>MIN(E2:E101)</f>
+        <v>0</v>
       </c>
       <c r="F105" s="3">
         <f>MIN(F2:F101)</f>
+        <v>0</v>
       </c>
       <c r="G105" s="3">
         <f>MIN(G2:G101)</f>
+        <v>0</v>
       </c>
       <c r="I105" s="3">
         <f>MIN(I2:I101)</f>
+        <v>259.5</v>
       </c>
       <c r="J105" s="3">
         <f>MIN(J2:J101)</f>
+        <v>1862</v>
       </c>
       <c r="K105" s="3">
         <f>MIN(K2:K101)</f>
+        <v>196.5</v>
       </c>
       <c r="M105" s="3">
         <f>MIN(M2:M101)</f>
+        <v>138572</v>
       </c>
       <c r="N105" s="3">
         <f>MIN(N2:N101)</f>
+        <v>138438</v>
       </c>
       <c r="O105" s="3">
         <f>MIN(O2:O101)</f>
+        <v>138643</v>
       </c>
       <c r="Q105" s="3">
         <f>MIN(Q2:Q101)</f>
+        <v>193090873</v>
       </c>
       <c r="R105" s="3">
         <f>MIN(R2:R101)</f>
+        <v>800190975</v>
       </c>
       <c r="S105" s="3">
         <f>MIN(S2:S101)</f>
+        <v>195236319</v>
       </c>
       <c r="U105" s="10" t="s">
         <v>18</v>
       </c>
     </row>
+    <row r="107" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A107" s="11">
+        <f>AVERAGE(A2:A101) + 1.96 * SQRT(SUMPRODUCT((A2:A101-AVERAGE(A2:A101))^2) / (COUNTA(A2:A101) - 1)) / SQRT(COUNTA(A2:A101))</f>
+        <v>19.815295201781584</v>
+      </c>
+      <c r="B107" s="11">
+        <f>AVERAGE(B2:B101) + 1.96 * SQRT(SUMPRODUCT((B2:B101-AVERAGE(B2:B101))^2) / (COUNTA(B2:B101) - 1)) / SQRT(COUNTA(B2:B101))</f>
+        <v>19.706154322961947</v>
+      </c>
+      <c r="C107" s="11">
+        <f>AVERAGE(C2:C101) + 1.96 * SQRT(SUMPRODUCT((C2:C101-AVERAGE(C2:C101))^2) / (COUNTA(C2:C101) - 1)) / SQRT(COUNTA(C2:C101))</f>
+        <v>19.889755797315878</v>
+      </c>
+      <c r="E107" s="11">
+        <f>AVERAGE(E2:E101) + 1.96 * SQRT(SUMPRODUCT((E2:E101-AVERAGE(E2:E101))^2) / (COUNTA(E2:E101) - 1)) / SQRT(COUNTA(E2:E101))</f>
+        <v>0</v>
+      </c>
+      <c r="F107" s="11">
+        <f>AVERAGE(F2:F101) + 1.96 * SQRT(SUMPRODUCT((F2:F101-AVERAGE(F2:F101))^2) / (COUNTA(F2:F101) - 1)) / SQRT(COUNTA(F2:F101))</f>
+        <v>0</v>
+      </c>
+      <c r="G107" s="11">
+        <f>AVERAGE(G2:G101) + 1.96 * SQRT(SUMPRODUCT((G2:G101-AVERAGE(G2:G101))^2) / (COUNTA(G2:G101) - 1)) / SQRT(COUNTA(G2:G101))</f>
+        <v>0</v>
+      </c>
+      <c r="I107" s="11">
+        <f>AVERAGE(I2:I101) + 1.96 * SQRT(SUMPRODUCT((I2:I101-AVERAGE(I2:I101))^2) / (COUNTA(I2:I101) - 1)) / SQRT(COUNTA(I2:I101))</f>
+        <v>281.01460904453359</v>
+      </c>
+      <c r="J107" s="11">
+        <f>AVERAGE(J2:J101) + 1.96 * SQRT(SUMPRODUCT((J2:J101-AVERAGE(J2:J101))^2) / (COUNTA(J2:J101) - 1)) / SQRT(COUNTA(J2:J101))</f>
+        <v>1970.7110283140187</v>
+      </c>
+      <c r="K107" s="11">
+        <f>AVERAGE(K2:K101) + 1.96 * SQRT(SUMPRODUCT((K2:K101-AVERAGE(K2:K101))^2) / (COUNTA(K2:K101) - 1)) / SQRT(COUNTA(K2:K101))</f>
+        <v>218.89681632866956</v>
+      </c>
+      <c r="M107" s="11">
+        <f>AVERAGE(M2:M101) + 1.96 * SQRT(SUMPRODUCT((M2:M101-AVERAGE(M2:M101))^2) / (COUNTA(M2:M101) - 1)) / SQRT(COUNTA(M2:M101))</f>
+        <v>138573.00760415904</v>
+      </c>
+      <c r="N107" s="11">
+        <f>AVERAGE(N2:N101) + 1.96 * SQRT(SUMPRODUCT((N2:N101-AVERAGE(N2:N101))^2) / (COUNTA(N2:N101) - 1)) / SQRT(COUNTA(N2:N101))</f>
+        <v>138439.52424252711</v>
+      </c>
+      <c r="O107" s="11">
+        <f>AVERAGE(O2:O101) + 1.96 * SQRT(SUMPRODUCT((O2:O101-AVERAGE(O2:O101))^2) / (COUNTA(O2:O101) - 1)) / SQRT(COUNTA(O2:O101))</f>
+        <v>138643.88150356361</v>
+      </c>
+      <c r="Q107" s="11">
+        <f>AVERAGE(Q2:Q101) + 1.96 * SQRT(SUMPRODUCT((Q2:Q101-AVERAGE(Q2:Q101))^2) / (COUNTA(Q2:Q101) - 1)) / SQRT(COUNTA(Q2:Q101))</f>
+        <v>205356078.19553047</v>
+      </c>
+      <c r="R107" s="11">
+        <f>AVERAGE(R2:R101) + 1.96 * SQRT(SUMPRODUCT((R2:R101-AVERAGE(R2:R101))^2) / (COUNTA(R2:R101) - 1)) / SQRT(COUNTA(R2:R101))</f>
+        <v>840561449.71560681</v>
+      </c>
+      <c r="S107" s="11">
+        <f>AVERAGE(S2:S101) + 1.96 * SQRT(SUMPRODUCT((S2:S101-AVERAGE(S2:S101))^2) / (COUNTA(S2:S101) - 1)) / SQRT(COUNTA(S2:S101))</f>
+        <v>510708151.2518096</v>
+      </c>
+      <c r="U107" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="108" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A108" s="11">
+        <f>AVERAGE(A2:A101) - 1.96 * SQRT(SUMPRODUCT((A2:A101-AVERAGE(A2:A101))^2) / (COUNTA(A2:A101) - 1)) / SQRT(COUNTA(A2:A101))</f>
+        <v>19.396384798218417</v>
+      </c>
+      <c r="B108" s="11">
+        <f>AVERAGE(B2:B101) - 1.96 * SQRT(SUMPRODUCT((B2:B101-AVERAGE(B2:B101))^2) / (COUNTA(B2:B101) - 1)) / SQRT(COUNTA(B2:B101))</f>
+        <v>19.217565677038035</v>
+      </c>
+      <c r="C108" s="11">
+        <f>AVERAGE(C2:C101) - 1.96 * SQRT(SUMPRODUCT((C2:C101-AVERAGE(C2:C101))^2) / (COUNTA(C2:C101) - 1)) / SQRT(COUNTA(C2:C101))</f>
+        <v>19.102364202684122</v>
+      </c>
+      <c r="E108" s="11">
+        <f>AVERAGE(E2:E101) - 1.96 * SQRT(SUMPRODUCT((E2:E101-AVERAGE(E2:E101))^2) / (COUNTA(E2:E101) - 1)) / SQRT(COUNTA(E2:E101))</f>
+        <v>0</v>
+      </c>
+      <c r="F108" s="11">
+        <f>AVERAGE(F2:F101) - 1.96 * SQRT(SUMPRODUCT((F2:F101-AVERAGE(F2:F101))^2) / (COUNTA(F2:F101) - 1)) / SQRT(COUNTA(F2:F101))</f>
+        <v>0</v>
+      </c>
+      <c r="G108" s="11">
+        <f>AVERAGE(G2:G101) - 1.96 * SQRT(SUMPRODUCT((G2:G101-AVERAGE(G2:G101))^2) / (COUNTA(G2:G101) - 1)) / SQRT(COUNTA(G2:G101))</f>
+        <v>0</v>
+      </c>
+      <c r="I108" s="11">
+        <f>AVERAGE(I2:I101) - 1.96 * SQRT(SUMPRODUCT((I2:I101-AVERAGE(I2:I101))^2) / (COUNTA(I2:I101) - 1)) / SQRT(COUNTA(I2:I101))</f>
+        <v>277.81539095546646</v>
+      </c>
+      <c r="J108" s="11">
+        <f>AVERAGE(J2:J101) - 1.96 * SQRT(SUMPRODUCT((J2:J101-AVERAGE(J2:J101))^2) / (COUNTA(J2:J101) - 1)) / SQRT(COUNTA(J2:J101))</f>
+        <v>1946.7589716859811</v>
+      </c>
+      <c r="K108" s="11">
+        <f>AVERAGE(K2:K101) - 1.96 * SQRT(SUMPRODUCT((K2:K101-AVERAGE(K2:K101))^2) / (COUNTA(K2:K101) - 1)) / SQRT(COUNTA(K2:K101))</f>
+        <v>215.78318367133045</v>
+      </c>
+      <c r="M108" s="11">
+        <f>AVERAGE(M2:M101) - 1.96 * SQRT(SUMPRODUCT((M2:M101-AVERAGE(M2:M101))^2) / (COUNTA(M2:M101) - 1)) / SQRT(COUNTA(M2:M101))</f>
+        <v>138572.91239584095</v>
+      </c>
+      <c r="N108" s="11">
+        <f>AVERAGE(N2:N101) - 1.96 * SQRT(SUMPRODUCT((N2:N101-AVERAGE(N2:N101))^2) / (COUNTA(N2:N101) - 1)) / SQRT(COUNTA(N2:N101))</f>
+        <v>138439.21575747288</v>
+      </c>
+      <c r="O108" s="11">
+        <f>AVERAGE(O2:O101) - 1.96 * SQRT(SUMPRODUCT((O2:O101-AVERAGE(O2:O101))^2) / (COUNTA(O2:O101) - 1)) / SQRT(COUNTA(O2:O101))</f>
+        <v>138643.4384964364</v>
+      </c>
+      <c r="Q108" s="11">
+        <f>AVERAGE(Q2:Q101) - 1.96 * SQRT(SUMPRODUCT((Q2:Q101-AVERAGE(Q2:Q101))^2) / (COUNTA(Q2:Q101) - 1)) / SQRT(COUNTA(Q2:Q101))</f>
+        <v>203017198.88446951</v>
+      </c>
+      <c r="R108" s="11">
+        <f>AVERAGE(R2:R101) - 1.96 * SQRT(SUMPRODUCT((R2:R101-AVERAGE(R2:R101))^2) / (COUNTA(R2:R101) - 1)) / SQRT(COUNTA(R2:R101))</f>
+        <v>834535343.16439331</v>
+      </c>
+      <c r="S108" s="11">
+        <f>AVERAGE(S2:S101) - 1.96 * SQRT(SUMPRODUCT((S2:S101-AVERAGE(S2:S101))^2) / (COUNTA(S2:S101) - 1)) / SQRT(COUNTA(S2:S101))</f>
+        <v>453159955.54819036</v>
+      </c>
+      <c r="U108" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="110" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A110" s="11">
+        <f>AVERAGE(A2:A101) + 2.58 * SQRT(SUMPRODUCT((A2:A101-AVERAGE(A2:A101))^2) / (COUNTA(A2:A101) - 1)) / SQRT(COUNTA(A2:A101))</f>
+        <v>19.881551439079839</v>
+      </c>
+      <c r="B110" s="11">
+        <f>AVERAGE(B2:B101) + 2.58 * SQRT(SUMPRODUCT((B2:B101-AVERAGE(B2:B101))^2) / (COUNTA(B2:B101) - 1)) / SQRT(COUNTA(B2:B101))</f>
+        <v>19.783431098592771</v>
+      </c>
+      <c r="C110" s="11">
+        <f>AVERAGE(C2:C101) + 2.58 * SQRT(SUMPRODUCT((C2:C101-AVERAGE(C2:C101))^2) / (COUNTA(C2:C101) - 1)) / SQRT(COUNTA(C2:C101))</f>
+        <v>20.01429222299743</v>
+      </c>
+      <c r="E110" s="11">
+        <f>AVERAGE(E2:E101) + 2.58 * SQRT(SUMPRODUCT((E2:E101-AVERAGE(E2:E101))^2) / (COUNTA(E2:E101) - 1)) / SQRT(COUNTA(E2:E101))</f>
+        <v>0</v>
+      </c>
+      <c r="F110" s="11">
+        <f>AVERAGE(F2:F101) + 2.58 * SQRT(SUMPRODUCT((F2:F101-AVERAGE(F2:F101))^2) / (COUNTA(F2:F101) - 1)) / SQRT(COUNTA(F2:F101))</f>
+        <v>0</v>
+      </c>
+      <c r="G110" s="11">
+        <f>AVERAGE(G2:G101) + 2.58 * SQRT(SUMPRODUCT((G2:G101-AVERAGE(G2:G101))^2) / (COUNTA(G2:G101) - 1)) / SQRT(COUNTA(G2:G101))</f>
+        <v>0</v>
+      </c>
+      <c r="I110" s="11">
+        <f>AVERAGE(I2:I101) + 2.58 * SQRT(SUMPRODUCT((I2:I101-AVERAGE(I2:I101))^2) / (COUNTA(I2:I101) - 1)) / SQRT(COUNTA(I2:I101))</f>
+        <v>281.52060782392681</v>
+      </c>
+      <c r="J110" s="11">
+        <f>AVERAGE(J2:J101) + 2.58 * SQRT(SUMPRODUCT((J2:J101-AVERAGE(J2:J101))^2) / (COUNTA(J2:J101) - 1)) / SQRT(COUNTA(J2:J101))</f>
+        <v>1974.4993638011065</v>
+      </c>
+      <c r="K110" s="11">
+        <f>AVERAGE(K2:K101) + 2.58 * SQRT(SUMPRODUCT((K2:K101-AVERAGE(K2:K101))^2) / (COUNTA(K2:K101) - 1)) / SQRT(COUNTA(K2:K101))</f>
+        <v>219.38927863671807</v>
+      </c>
+      <c r="M110" s="11">
+        <f>AVERAGE(M2:M101) + 2.58 * SQRT(SUMPRODUCT((M2:M101-AVERAGE(M2:M101))^2) / (COUNTA(M2:M101) - 1)) / SQRT(COUNTA(M2:M101))</f>
+        <v>138573.02266261753</v>
+      </c>
+      <c r="N110" s="11">
+        <f>AVERAGE(N2:N101) + 2.58 * SQRT(SUMPRODUCT((N2:N101-AVERAGE(N2:N101))^2) / (COUNTA(N2:N101) - 1)) / SQRT(COUNTA(N2:N101))</f>
+        <v>138439.57303353059</v>
+      </c>
+      <c r="O110" s="11">
+        <f>AVERAGE(O2:O101) + 2.58 * SQRT(SUMPRODUCT((O2:O101-AVERAGE(O2:O101))^2) / (COUNTA(O2:O101) - 1)) / SQRT(COUNTA(O2:O101))</f>
+        <v>138643.95157101739</v>
+      </c>
+      <c r="Q110" s="11">
+        <f>AVERAGE(Q2:Q101) + 2.58 * SQRT(SUMPRODUCT((Q2:Q101-AVERAGE(Q2:Q101))^2) / (COUNTA(Q2:Q101) - 1)) / SQRT(COUNTA(Q2:Q101))</f>
+        <v>205726002.98452482</v>
+      </c>
+      <c r="R110" s="11">
+        <f>AVERAGE(R2:R101) + 2.58 * SQRT(SUMPRODUCT((R2:R101-AVERAGE(R2:R101))^2) / (COUNTA(R2:R101) - 1)) / SQRT(COUNTA(R2:R101))</f>
+        <v>841514558.40482938</v>
+      </c>
+      <c r="S110" s="11">
+        <f>AVERAGE(S2:S101) + 2.58 * SQRT(SUMPRODUCT((S2:S101-AVERAGE(S2:S101))^2) / (COUNTA(S2:S101) - 1)) / SQRT(COUNTA(S2:S101))</f>
+        <v>519810161.79676974</v>
+      </c>
+      <c r="U110" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="111" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A111" s="11">
+        <f>AVERAGE(A2:A101) - 2.58 * SQRT(SUMPRODUCT((A2:A101-AVERAGE(A2:A101))^2) / (COUNTA(A2:A101) - 1)) / SQRT(COUNTA(A2:A101))</f>
+        <v>19.330128560920162</v>
+      </c>
+      <c r="B111" s="11">
+        <f>AVERAGE(B2:B101) - 2.58 * SQRT(SUMPRODUCT((B2:B101-AVERAGE(B2:B101))^2) / (COUNTA(B2:B101) - 1)) / SQRT(COUNTA(B2:B101))</f>
+        <v>19.14028890140721</v>
+      </c>
+      <c r="C111" s="11">
+        <f>AVERAGE(C2:C101) - 2.58 * SQRT(SUMPRODUCT((C2:C101-AVERAGE(C2:C101))^2) / (COUNTA(C2:C101) - 1)) / SQRT(COUNTA(C2:C101))</f>
+        <v>18.97782777700257</v>
+      </c>
+      <c r="E111" s="11">
+        <f>AVERAGE(E2:E101) - 2.58 * SQRT(SUMPRODUCT((E2:E101-AVERAGE(E2:E101))^2) / (COUNTA(E2:E101) - 1)) / SQRT(COUNTA(E2:E101))</f>
+        <v>0</v>
+      </c>
+      <c r="F111" s="11">
+        <f>AVERAGE(F2:F101) - 2.58 * SQRT(SUMPRODUCT((F2:F101-AVERAGE(F2:F101))^2) / (COUNTA(F2:F101) - 1)) / SQRT(COUNTA(F2:F101))</f>
+        <v>0</v>
+      </c>
+      <c r="G111" s="11">
+        <f>AVERAGE(G2:G101) - 2.58 * SQRT(SUMPRODUCT((G2:G101-AVERAGE(G2:G101))^2) / (COUNTA(G2:G101) - 1)) / SQRT(COUNTA(G2:G101))</f>
+        <v>0</v>
+      </c>
+      <c r="I111" s="11">
+        <f>AVERAGE(I2:I101) - 2.58 * SQRT(SUMPRODUCT((I2:I101-AVERAGE(I2:I101))^2) / (COUNTA(I2:I101) - 1)) / SQRT(COUNTA(I2:I101))</f>
+        <v>277.30939217607323</v>
+      </c>
+      <c r="J111" s="11">
+        <f>AVERAGE(J2:J101) - 2.58 * SQRT(SUMPRODUCT((J2:J101-AVERAGE(J2:J101))^2) / (COUNTA(J2:J101) - 1)) / SQRT(COUNTA(J2:J101))</f>
+        <v>1942.9706361988933</v>
+      </c>
+      <c r="K111" s="11">
+        <f>AVERAGE(K2:K101) - 2.58 * SQRT(SUMPRODUCT((K2:K101-AVERAGE(K2:K101))^2) / (COUNTA(K2:K101) - 1)) / SQRT(COUNTA(K2:K101))</f>
+        <v>215.29072136328193</v>
+      </c>
+      <c r="M111" s="11">
+        <f>AVERAGE(M2:M101) - 2.58 * SQRT(SUMPRODUCT((M2:M101-AVERAGE(M2:M101))^2) / (COUNTA(M2:M101) - 1)) / SQRT(COUNTA(M2:M101))</f>
+        <v>138572.89733738246</v>
+      </c>
+      <c r="N111" s="11">
+        <f>AVERAGE(N2:N101) - 2.58 * SQRT(SUMPRODUCT((N2:N101-AVERAGE(N2:N101))^2) / (COUNTA(N2:N101) - 1)) / SQRT(COUNTA(N2:N101))</f>
+        <v>138439.16696646941</v>
+      </c>
+      <c r="O111" s="11">
+        <f>AVERAGE(O2:O101) - 2.58 * SQRT(SUMPRODUCT((O2:O101-AVERAGE(O2:O101))^2) / (COUNTA(O2:O101) - 1)) / SQRT(COUNTA(O2:O101))</f>
+        <v>138643.36842898262</v>
+      </c>
+      <c r="Q111" s="11">
+        <f>AVERAGE(Q2:Q101) - 2.58 * SQRT(SUMPRODUCT((Q2:Q101-AVERAGE(Q2:Q101))^2) / (COUNTA(Q2:Q101) - 1)) / SQRT(COUNTA(Q2:Q101))</f>
+        <v>202647274.09547517</v>
+      </c>
+      <c r="R111" s="11">
+        <f>AVERAGE(R2:R101) - 2.58 * SQRT(SUMPRODUCT((R2:R101-AVERAGE(R2:R101))^2) / (COUNTA(R2:R101) - 1)) / SQRT(COUNTA(R2:R101))</f>
+        <v>833582234.47517073</v>
+      </c>
+      <c r="S111" s="11">
+        <f>AVERAGE(S2:S101) - 2.58 * SQRT(SUMPRODUCT((S2:S101-AVERAGE(S2:S101))^2) / (COUNTA(S2:S101) - 1)) / SQRT(COUNTA(S2:S101))</f>
+        <v>444057945.00323021</v>
+      </c>
+      <c r="U111" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>23</v>
+      </c>
+      <c r="B113" t="s">
+        <v>24</v>
+      </c>
+      <c r="C113" t="s">
+        <v>25</v>
+      </c>
+      <c r="E113" t="s">
+        <v>26</v>
+      </c>
+      <c r="F113" t="s">
+        <v>27</v>
+      </c>
+      <c r="G113" t="s">
+        <v>28</v>
+      </c>
+      <c r="I113" t="s">
+        <v>29</v>
+      </c>
+      <c r="J113" t="s">
+        <v>30</v>
+      </c>
+      <c r="K113" t="s">
+        <v>31</v>
+      </c>
+      <c r="M113" t="s">
+        <v>32</v>
+      </c>
+      <c r="N113" t="s">
+        <v>33</v>
+      </c>
+      <c r="O113" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q113" t="s">
+        <v>35</v>
+      </c>
+      <c r="R113" t="s">
+        <v>36</v>
+      </c>
+      <c r="S113" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="114" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>38</v>
+      </c>
+      <c r="B114" t="s">
+        <v>39</v>
+      </c>
+      <c r="C114" t="s">
+        <v>40</v>
+      </c>
+      <c r="E114" t="s">
+        <v>41</v>
+      </c>
+      <c r="F114" t="s">
+        <v>42</v>
+      </c>
+      <c r="G114" t="s">
+        <v>43</v>
+      </c>
+      <c r="I114" t="s">
+        <v>44</v>
+      </c>
+      <c r="J114" t="s">
+        <v>45</v>
+      </c>
+      <c r="K114" t="s">
+        <v>46</v>
+      </c>
+      <c r="M114" t="s">
+        <v>47</v>
+      </c>
+      <c r="N114" t="s">
+        <v>48</v>
+      </c>
+      <c r="O114" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q114" t="s">
+        <v>50</v>
+      </c>
+      <c r="R114" t="s">
+        <v>51</v>
+      </c>
+      <c r="S114" t="s">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>